--- a/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_aerosol.xlsx
+++ b/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_aerosol.xlsx
@@ -8,20 +8,21 @@
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
-    <sheet name="1. Key Properties" sheetId="2" r:id="rId2"/>
-    <sheet name="2. Grid" sheetId="3" r:id="rId3"/>
-    <sheet name="3. Transport" sheetId="4" r:id="rId4"/>
-    <sheet name="4. Emissions" sheetId="5" r:id="rId5"/>
-    <sheet name="5. Concentrations" sheetId="6" r:id="rId6"/>
-    <sheet name="6. Optical Radiative Properties" sheetId="7" r:id="rId7"/>
-    <sheet name="7. Model" sheetId="8" r:id="rId8"/>
+    <sheet name="1. Parties &amp; Citations" sheetId="2" r:id="rId2"/>
+    <sheet name="2. Key Properties" sheetId="3" r:id="rId3"/>
+    <sheet name="3. Grid" sheetId="4" r:id="rId4"/>
+    <sheet name="4. Transport" sheetId="5" r:id="rId5"/>
+    <sheet name="5. Emissions" sheetId="6" r:id="rId6"/>
+    <sheet name="6. Concentrations" sheetId="7" r:id="rId7"/>
+    <sheet name="7. Optical Radiative Properties" sheetId="8" r:id="rId8"/>
+    <sheet name="8. Model" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="517">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -53,25 +54,34 @@
     <t>Sub-Topics</t>
   </si>
   <si>
-    <t>1. Key Properties</t>
-  </si>
-  <si>
-    <t>2. Grid</t>
-  </si>
-  <si>
-    <t>3. Transport</t>
-  </si>
-  <si>
-    <t>4. Emissions</t>
-  </si>
-  <si>
-    <t>5. Concentrations</t>
-  </si>
-  <si>
-    <t>6. Optical Radiative Properties</t>
-  </si>
-  <si>
-    <t>7. Model</t>
+    <t>1. Parties &amp; Citations</t>
+  </si>
+  <si>
+    <t>2. Key Properties</t>
+  </si>
+  <si>
+    <t>3. Grid</t>
+  </si>
+  <si>
+    <t>4. Transport</t>
+  </si>
+  <si>
+    <t>5. Emissions</t>
+  </si>
+  <si>
+    <t>6. Concentrations</t>
+  </si>
+  <si>
+    <t>7. Optical Radiative Properties</t>
+  </si>
+  <si>
+    <t>8. Model</t>
+  </si>
+  <si>
+    <t>How To Use</t>
+  </si>
+  <si>
+    <t>https://es-doc.org/how-to-use-model-document-spreadsheets</t>
   </si>
   <si>
     <t>Further Info</t>
@@ -86,31 +96,58 @@
     <t>1.0.2</t>
   </si>
   <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>Parties &amp; Citations</t>
+  </si>
+  <si>
     <t>1.1</t>
   </si>
   <si>
+    <t>Parties</t>
+  </si>
+  <si>
+    <t>STRING</t>
+  </si>
+  <si>
+    <t>Mnemonic references to responsible parties</t>
+  </si>
+  <si>
+    <t>NOTE: Multiple entries are allowed, please insert a new row per entry.</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Citations</t>
+  </si>
+  <si>
+    <t>Mnemonic references to citations</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
     <t>Key Properties</t>
   </si>
   <si>
     <t>Key properties of the aerosol model</t>
   </si>
   <si>
-    <t>1.1.1 *</t>
+    <t>2.1.1 *</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>STRING</t>
-  </si>
-  <si>
     <t>Name of aerosol model code</t>
   </si>
   <si>
     <t>cmip6.aerosol.key_properties.name</t>
   </si>
   <si>
-    <t>1.1.2 *</t>
+    <t>2.1.2 *</t>
   </si>
   <si>
     <t>Keywords</t>
@@ -125,7 +162,7 @@
     <t>NOTE: Please enter a comma seperated list</t>
   </si>
   <si>
-    <t>1.1.3 *</t>
+    <t>2.1.3 *</t>
   </si>
   <si>
     <t>Overview</t>
@@ -140,7 +177,7 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
-    <t>1.1.4 *</t>
+    <t>2.1.4 *</t>
   </si>
   <si>
     <t>Scheme Scope</t>
@@ -155,9 +192,6 @@
     <t>cmip6.aerosol.key_properties.scheme_scope</t>
   </si>
   <si>
-    <t>NOTE: Multiple entries are allowed, please insert a new row per entry.</t>
-  </si>
-  <si>
     <t>Troposphere</t>
   </si>
   <si>
@@ -173,7 +207,7 @@
     <t>Other: document to the right</t>
   </si>
   <si>
-    <t>1.1.5 *</t>
+    <t>2.1.5 *</t>
   </si>
   <si>
     <t>Basic Approximations</t>
@@ -185,7 +219,7 @@
     <t>cmip6.aerosol.key_properties.basic_approximations</t>
   </si>
   <si>
-    <t>1.1.6 *</t>
+    <t>2.1.6 *</t>
   </si>
   <si>
     <t>Prognostic Variables Form</t>
@@ -203,7 +237,7 @@
     <t>3D number concentration for aerosols</t>
   </si>
   <si>
-    <t>1.1.7 *</t>
+    <t>2.1.7 *</t>
   </si>
   <si>
     <t>Number Of Tracers</t>
@@ -218,7 +252,7 @@
     <t>cmip6.aerosol.key_properties.number_of_tracers</t>
   </si>
   <si>
-    <t>1.1.8 *</t>
+    <t>2.1.8 *</t>
   </si>
   <si>
     <t>Family Approach</t>
@@ -233,7 +267,7 @@
     <t>cmip6.aerosol.key_properties.family_approach</t>
   </si>
   <si>
-    <t>1.2</t>
+    <t>2.2</t>
   </si>
   <si>
     <t>Key Properties --&gt; Software Properties</t>
@@ -242,7 +276,7 @@
     <t>Software properties of aerosol code</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.1 </t>
+    <t xml:space="preserve">2.2.1 </t>
   </si>
   <si>
     <t>Repository</t>
@@ -254,7 +288,7 @@
     <t>cmip6.aerosol.key_properties.software_properties.repository</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.2 </t>
+    <t xml:space="preserve">2.2.2 </t>
   </si>
   <si>
     <t>Code Version</t>
@@ -266,7 +300,7 @@
     <t>cmip6.aerosol.key_properties.software_properties.code_version</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.3 </t>
+    <t xml:space="preserve">2.2.3 </t>
   </si>
   <si>
     <t>Code Languages</t>
@@ -278,7 +312,7 @@
     <t>cmip6.aerosol.key_properties.software_properties.code_languages</t>
   </si>
   <si>
-    <t>1.3</t>
+    <t>2.3</t>
   </si>
   <si>
     <t>Key Properties --&gt; Timestep Framework</t>
@@ -287,7 +321,7 @@
     <t>Physical properties of seawater in ocean</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.1 </t>
+    <t xml:space="preserve">2.3.1 </t>
   </si>
   <si>
     <t>Overview of physical properties of seawater in ocean in aerosol model.</t>
@@ -296,7 +330,7 @@
     <t>cmip6.aerosol.key_properties.timestep_framework.overview</t>
   </si>
   <si>
-    <t>1.3.2 *</t>
+    <t>2.3.2 *</t>
   </si>
   <si>
     <t>Method</t>
@@ -317,7 +351,7 @@
     <t>Specific timestepping (integrated)</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.3 </t>
+    <t xml:space="preserve">2.3.3 </t>
   </si>
   <si>
     <t>Split Operator Advection Timestep</t>
@@ -329,7 +363,7 @@
     <t>cmip6.aerosol.key_properties.timestep_framework.split_operator_advection_timestep</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.4 </t>
+    <t xml:space="preserve">2.3.4 </t>
   </si>
   <si>
     <t>Split Operator Physical Timestep</t>
@@ -341,7 +375,7 @@
     <t>cmip6.aerosol.key_properties.timestep_framework.split_operator_physical_timestep</t>
   </si>
   <si>
-    <t>1.3.5 *</t>
+    <t>2.3.5 *</t>
   </si>
   <si>
     <t>Integrated Timestep</t>
@@ -353,7 +387,7 @@
     <t>cmip6.aerosol.key_properties.timestep_framework.integrated_timestep</t>
   </si>
   <si>
-    <t>1.3.6 *</t>
+    <t>2.3.6 *</t>
   </si>
   <si>
     <t>Integrated Scheme Type</t>
@@ -389,13 +423,13 @@
     <t>Rosenbrock</t>
   </si>
   <si>
-    <t>1.4</t>
+    <t>2.4</t>
   </si>
   <si>
     <t>Key Properties --&gt; Meteorological Forcings</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.1 </t>
+    <t xml:space="preserve">2.4.1 </t>
   </si>
   <si>
     <t>Overview of  in aerosol model.</t>
@@ -404,7 +438,7 @@
     <t>cmip6.aerosol.key_properties.meteorological_forcings.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.2 </t>
+    <t xml:space="preserve">2.4.2 </t>
   </si>
   <si>
     <t>Variables 3D</t>
@@ -416,7 +450,7 @@
     <t>cmip6.aerosol.key_properties.meteorological_forcings.variables_3D</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.3 </t>
+    <t xml:space="preserve">2.4.3 </t>
   </si>
   <si>
     <t>Variables 2D</t>
@@ -428,7 +462,7 @@
     <t>cmip6.aerosol.key_properties.meteorological_forcings.variables_2D</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.4 </t>
+    <t xml:space="preserve">2.4.4 </t>
   </si>
   <si>
     <t>Frequency</t>
@@ -440,7 +474,7 @@
     <t>cmip6.aerosol.key_properties.meteorological_forcings.frequency</t>
   </si>
   <si>
-    <t>1.5</t>
+    <t>2.5</t>
   </si>
   <si>
     <t>Key Properties --&gt; Resolution</t>
@@ -449,7 +483,7 @@
     <t>Resolution in the aerosol model grid</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.1 </t>
+    <t xml:space="preserve">2.5.1 </t>
   </si>
   <si>
     <t>Overview of resolution in the aerosol model grid in aerosol model.</t>
@@ -458,7 +492,7 @@
     <t>cmip6.aerosol.key_properties.resolution.overview</t>
   </si>
   <si>
-    <t>1.5.2 *</t>
+    <t>2.5.2 *</t>
   </si>
   <si>
     <t>This is a string usually used by the modelling group to describe the resolution of this grid, e.g. ORCA025, N512L180, T512L70 etc.</t>
@@ -467,7 +501,7 @@
     <t>cmip6.aerosol.key_properties.resolution.name</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.3 </t>
+    <t xml:space="preserve">2.5.3 </t>
   </si>
   <si>
     <t>Canonical Horizontal Resolution</t>
@@ -479,7 +513,7 @@
     <t>cmip6.aerosol.key_properties.resolution.canonical_horizontal_resolution</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.4 </t>
+    <t xml:space="preserve">2.5.4 </t>
   </si>
   <si>
     <t>Number Of Horizontal Gridpoints</t>
@@ -491,7 +525,7 @@
     <t>cmip6.aerosol.key_properties.resolution.number_of_horizontal_gridpoints</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.5 </t>
+    <t xml:space="preserve">2.5.5 </t>
   </si>
   <si>
     <t>Number Of Vertical Levels</t>
@@ -503,7 +537,7 @@
     <t>cmip6.aerosol.key_properties.resolution.number_of_vertical_levels</t>
   </si>
   <si>
-    <t>1.5.6 *</t>
+    <t>2.5.6 *</t>
   </si>
   <si>
     <t>Is Adaptive Grid</t>
@@ -515,7 +549,7 @@
     <t>cmip6.aerosol.key_properties.resolution.is_adaptive_grid</t>
   </si>
   <si>
-    <t>1.6</t>
+    <t>2.6</t>
   </si>
   <si>
     <t>Key Properties --&gt; Tuning Applied</t>
@@ -524,7 +558,7 @@
     <t>Tuning methodology for aerosol model</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.1 </t>
+    <t xml:space="preserve">2.6.1 </t>
   </si>
   <si>
     <t>Overview of tuning methodology for aerosol model in aerosol model.</t>
@@ -533,7 +567,7 @@
     <t>cmip6.aerosol.key_properties.tuning_applied.overview</t>
   </si>
   <si>
-    <t>1.6.2 *</t>
+    <t>2.6.2 *</t>
   </si>
   <si>
     <t>Description</t>
@@ -545,7 +579,7 @@
     <t>cmip6.aerosol.key_properties.tuning_applied.description</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.3 </t>
+    <t xml:space="preserve">2.6.3 </t>
   </si>
   <si>
     <t>Global Mean Metrics Used</t>
@@ -557,7 +591,7 @@
     <t>cmip6.aerosol.key_properties.tuning_applied.global_mean_metrics_used</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.4 </t>
+    <t xml:space="preserve">2.6.4 </t>
   </si>
   <si>
     <t>Regional Metrics Used</t>
@@ -569,7 +603,7 @@
     <t>cmip6.aerosol.key_properties.tuning_applied.regional_metrics_used</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.5 </t>
+    <t xml:space="preserve">2.6.5 </t>
   </si>
   <si>
     <t>Trend Metrics Used</t>
@@ -581,7 +615,7 @@
     <t>cmip6.aerosol.key_properties.tuning_applied.trend_metrics_used</t>
   </si>
   <si>
-    <t>2.1</t>
+    <t>3.1</t>
   </si>
   <si>
     <t>Grid</t>
@@ -590,7 +624,7 @@
     <t>Aerosol grid</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1.1 </t>
+    <t xml:space="preserve">3.1.1 </t>
   </si>
   <si>
     <t>Name of grid in aerosol model.</t>
@@ -599,7 +633,7 @@
     <t>cmip6.aerosol.grid.name</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1.2 </t>
+    <t xml:space="preserve">3.1.2 </t>
   </si>
   <si>
     <t>Overview of grid in aerosol model.</t>
@@ -608,7 +642,7 @@
     <t>cmip6.aerosol.grid.overview</t>
   </si>
   <si>
-    <t>2.1.3 *</t>
+    <t>3.1.3 *</t>
   </si>
   <si>
     <t>Matches Atmosphere Grid</t>
@@ -620,7 +654,7 @@
     <t>cmip6.aerosol.grid.matches_atmosphere_grid</t>
   </si>
   <si>
-    <t>2.2</t>
+    <t>3.2</t>
   </si>
   <si>
     <t>Grid --&gt; Resolution</t>
@@ -629,7 +663,7 @@
     <t>Resolution in the atmospheric aerosol grid</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.1 </t>
+    <t xml:space="preserve">3.2.1 </t>
   </si>
   <si>
     <t>Overview of resolution in the atmospheric aerosol grid in aerosol model.</t>
@@ -638,13 +672,13 @@
     <t>cmip6.aerosol.grid.resolution.overview</t>
   </si>
   <si>
-    <t>2.2.2 *</t>
+    <t>3.2.2 *</t>
   </si>
   <si>
     <t>cmip6.aerosol.grid.resolution.name</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.3 </t>
+    <t xml:space="preserve">3.2.3 </t>
   </si>
   <si>
     <t>Expression quoted for gross comparisons of resolution, e.g. 50km or 0.1 degrees etc.</t>
@@ -653,19 +687,19 @@
     <t>cmip6.aerosol.grid.resolution.canonical_horizontal_resolution</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.4 </t>
+    <t xml:space="preserve">3.2.4 </t>
   </si>
   <si>
     <t>cmip6.aerosol.grid.resolution.number_of_horizontal_gridpoints</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.5 </t>
+    <t xml:space="preserve">3.2.5 </t>
   </si>
   <si>
     <t>cmip6.aerosol.grid.resolution.number_of_vertical_levels</t>
   </si>
   <si>
-    <t>2.2.6 *</t>
+    <t>3.2.6 *</t>
   </si>
   <si>
     <t>Set to true if grid resolution changes during execution.</t>
@@ -674,7 +708,7 @@
     <t>cmip6.aerosol.grid.resolution.is_adaptive_grid</t>
   </si>
   <si>
-    <t>3.1</t>
+    <t>4.1</t>
   </si>
   <si>
     <t>Transport</t>
@@ -683,7 +717,7 @@
     <t>Aerosol transport</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.1 </t>
+    <t xml:space="preserve">4.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the transport in aerosol model.</t>
@@ -692,7 +726,7 @@
     <t>cmip6.aerosol.transport.name</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.2 </t>
+    <t xml:space="preserve">4.1.2 </t>
   </si>
   <si>
     <t>Overview of aerosol transport in aerosol model.</t>
@@ -701,7 +735,7 @@
     <t>cmip6.aerosol.transport.overview</t>
   </si>
   <si>
-    <t>3.1.3 *</t>
+    <t>4.1.3 *</t>
   </si>
   <si>
     <t>Scheme</t>
@@ -728,7 +762,7 @@
     <t>Specific transport scheme (lagrangian)</t>
   </si>
   <si>
-    <t>3.1.4 *</t>
+    <t>4.1.4 *</t>
   </si>
   <si>
     <t>Mass Conservation Scheme</t>
@@ -749,7 +783,7 @@
     <t>Gradients monotonicity</t>
   </si>
   <si>
-    <t>3.1.5 *</t>
+    <t>4.1.5 *</t>
   </si>
   <si>
     <t>Convention</t>
@@ -767,7 +801,7 @@
     <t>Vertical velocities connected to tracers</t>
   </si>
   <si>
-    <t>4.1</t>
+    <t>5.1</t>
   </si>
   <si>
     <t>Emissions</t>
@@ -776,7 +810,7 @@
     <t>Atmospheric aerosol emissions</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.1 </t>
+    <t xml:space="preserve">5.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the emissions in aerosol model.</t>
@@ -785,7 +819,7 @@
     <t>cmip6.aerosol.emissions.name</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.2 </t>
+    <t xml:space="preserve">5.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric aerosol emissions in aerosol model.</t>
@@ -794,7 +828,7 @@
     <t>cmip6.aerosol.emissions.overview</t>
   </si>
   <si>
-    <t>4.1.3 *</t>
+    <t>5.1.3 *</t>
   </si>
   <si>
     <t>Method used to define aerosol species (several methods allowed because the different species may not use the same method).</t>
@@ -821,7 +855,7 @@
     <t>Interactive above surface</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.4 </t>
+    <t xml:space="preserve">5.1.4 </t>
   </si>
   <si>
     <t>Sources</t>
@@ -857,7 +891,7 @@
     <t>Anthropogenic</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.5 </t>
+    <t xml:space="preserve">5.1.5 </t>
   </si>
   <si>
     <t>Prescribed Climatology</t>
@@ -884,7 +918,7 @@
     <t>Daily</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.6 </t>
+    <t xml:space="preserve">5.1.6 </t>
   </si>
   <si>
     <t>Prescribed Climatology Emitted Species</t>
@@ -896,7 +930,7 @@
     <t>cmip6.aerosol.emissions.prescribed_climatology_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.7 </t>
+    <t xml:space="preserve">5.1.7 </t>
   </si>
   <si>
     <t>Prescribed Spatially Uniform Emitted Species</t>
@@ -908,7 +942,7 @@
     <t>cmip6.aerosol.emissions.prescribed_spatially_uniform_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.8 </t>
+    <t xml:space="preserve">5.1.8 </t>
   </si>
   <si>
     <t>Interactive Emitted Species</t>
@@ -920,7 +954,7 @@
     <t>cmip6.aerosol.emissions.interactive_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.9 </t>
+    <t xml:space="preserve">5.1.9 </t>
   </si>
   <si>
     <t>Other Emitted Species</t>
@@ -932,7 +966,7 @@
     <t>cmip6.aerosol.emissions.other_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.10 </t>
+    <t xml:space="preserve">5.1.10 </t>
   </si>
   <si>
     <t>Other Method Characteristics</t>
@@ -944,7 +978,7 @@
     <t>cmip6.aerosol.emissions.other_method_characteristics</t>
   </si>
   <si>
-    <t>5.1</t>
+    <t>6.1</t>
   </si>
   <si>
     <t>Concentrations</t>
@@ -953,7 +987,7 @@
     <t>Atmospheric aerosol concentrations</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.1 </t>
+    <t xml:space="preserve">6.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the concentrations in aerosol model.</t>
@@ -962,7 +996,7 @@
     <t>cmip6.aerosol.concentrations.name</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.2 </t>
+    <t xml:space="preserve">6.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric aerosol concentrations in aerosol model.</t>
@@ -971,7 +1005,7 @@
     <t>cmip6.aerosol.concentrations.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.3 </t>
+    <t xml:space="preserve">6.1.3 </t>
   </si>
   <si>
     <t>Prescribed Lower Boundary</t>
@@ -983,7 +1017,7 @@
     <t>cmip6.aerosol.concentrations.prescribed_lower_boundary</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.4 </t>
+    <t xml:space="preserve">6.1.4 </t>
   </si>
   <si>
     <t>Prescribed Upper Boundary</t>
@@ -995,7 +1029,7 @@
     <t>cmip6.aerosol.concentrations.prescribed_upper_boundary</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.5 </t>
+    <t xml:space="preserve">6.1.5 </t>
   </si>
   <si>
     <t>Prescribed Fields Mmr</t>
@@ -1007,7 +1041,7 @@
     <t>cmip6.aerosol.concentrations.prescribed_fields_mmr</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.6 </t>
+    <t xml:space="preserve">6.1.6 </t>
   </si>
   <si>
     <t>Prescribed Fields Aod Plus Ccn</t>
@@ -1019,7 +1053,7 @@
     <t>cmip6.aerosol.concentrations.prescribed_fields_aod_plus_ccn</t>
   </si>
   <si>
-    <t>6.1</t>
+    <t>7.1</t>
   </si>
   <si>
     <t>Optical Radiative Properties</t>
@@ -1028,7 +1062,7 @@
     <t>Aerosol optical and radiative properties</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.1 </t>
+    <t xml:space="preserve">7.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the optical radiative properties in aerosol model.</t>
@@ -1037,7 +1071,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.name</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.2 </t>
+    <t xml:space="preserve">7.1.2 </t>
   </si>
   <si>
     <t>Overview of aerosol optical and radiative properties in aerosol model.</t>
@@ -1046,7 +1080,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.overview</t>
   </si>
   <si>
-    <t>6.2</t>
+    <t>7.2</t>
   </si>
   <si>
     <t>Optical Radiative Properties --&gt; Absorption</t>
@@ -1055,7 +1089,7 @@
     <t>Absortion properties in aerosol scheme</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2.1 </t>
+    <t xml:space="preserve">7.2.1 </t>
   </si>
   <si>
     <t>Overview of absortion properties in aerosol scheme in aerosol model.</t>
@@ -1064,7 +1098,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.absorption.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2.2 </t>
+    <t xml:space="preserve">7.2.2 </t>
   </si>
   <si>
     <t>Black Carbon</t>
@@ -1079,7 +1113,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.absorption.black_carbon</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2.3 </t>
+    <t xml:space="preserve">7.2.3 </t>
   </si>
   <si>
     <t>Dust</t>
@@ -1091,7 +1125,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.absorption.dust</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2.4 </t>
+    <t xml:space="preserve">7.2.4 </t>
   </si>
   <si>
     <t>Organics</t>
@@ -1103,19 +1137,19 @@
     <t>cmip6.aerosol.optical_radiative_properties.absorption.organics</t>
   </si>
   <si>
-    <t>6.3</t>
+    <t>7.3</t>
   </si>
   <si>
     <t>Optical Radiative Properties --&gt; Mixtures</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3.1 </t>
+    <t xml:space="preserve">7.3.1 </t>
   </si>
   <si>
     <t>cmip6.aerosol.optical_radiative_properties.mixtures.overview</t>
   </si>
   <si>
-    <t>6.3.2 *</t>
+    <t>7.3.2 *</t>
   </si>
   <si>
     <t>External</t>
@@ -1127,7 +1161,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.mixtures.external</t>
   </si>
   <si>
-    <t>6.3.3 *</t>
+    <t>7.3.3 *</t>
   </si>
   <si>
     <t>Internal</t>
@@ -1139,7 +1173,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.mixtures.internal</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3.4 </t>
+    <t xml:space="preserve">7.3.4 </t>
   </si>
   <si>
     <t>Mixing Rule</t>
@@ -1151,7 +1185,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.mixtures.mixing_rule</t>
   </si>
   <si>
-    <t>6.4</t>
+    <t>7.4</t>
   </si>
   <si>
     <t>Optical Radiative Properties --&gt; Impact Of H2o</t>
@@ -1160,7 +1194,7 @@
     <t>The impact of H2O on aerosols</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4.1 </t>
+    <t xml:space="preserve">7.4.1 </t>
   </si>
   <si>
     <t>Overview of the impact of h2o on aerosols in aerosol model.</t>
@@ -1169,7 +1203,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.impact_of_h2o.overview</t>
   </si>
   <si>
-    <t>6.4.2 *</t>
+    <t>7.4.2 *</t>
   </si>
   <si>
     <t>Size</t>
@@ -1181,7 +1215,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.impact_of_h2o.size</t>
   </si>
   <si>
-    <t>6.4.3 *</t>
+    <t>7.4.3 *</t>
   </si>
   <si>
     <t>Internal Mixture</t>
@@ -1193,7 +1227,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.impact_of_h2o.internal_mixture</t>
   </si>
   <si>
-    <t>6.4.4 *</t>
+    <t>7.4.4 *</t>
   </si>
   <si>
     <t>External Mixture</t>
@@ -1205,7 +1239,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.impact_of_h2o.external_mixture</t>
   </si>
   <si>
-    <t>6.5</t>
+    <t>7.5</t>
   </si>
   <si>
     <t>Optical Radiative Properties --&gt; Radiative Scheme</t>
@@ -1214,7 +1248,7 @@
     <t>Radiative scheme for aerosol</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5.1 </t>
+    <t xml:space="preserve">7.5.1 </t>
   </si>
   <si>
     <t>Overview of radiative scheme for aerosol in aerosol model.</t>
@@ -1223,13 +1257,13 @@
     <t>cmip6.aerosol.optical_radiative_properties.radiative_scheme.overview</t>
   </si>
   <si>
-    <t>6.5.2 *</t>
+    <t>7.5.2 *</t>
   </si>
   <si>
     <t>Overview of radiative scheme</t>
   </si>
   <si>
-    <t>6.5.3 *</t>
+    <t>7.5.3 *</t>
   </si>
   <si>
     <t>Shortwave Bands</t>
@@ -1241,7 +1275,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.radiative_scheme.shortwave_bands</t>
   </si>
   <si>
-    <t>6.5.4 *</t>
+    <t>7.5.4 *</t>
   </si>
   <si>
     <t>Longwave Bands</t>
@@ -1253,7 +1287,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.radiative_scheme.longwave_bands</t>
   </si>
   <si>
-    <t>6.6</t>
+    <t>7.6</t>
   </si>
   <si>
     <t>Optical Radiative Properties --&gt; Cloud Interactions</t>
@@ -1262,7 +1296,7 @@
     <t>Aerosol-cloud interactions</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6.1 </t>
+    <t xml:space="preserve">7.6.1 </t>
   </si>
   <si>
     <t>Overview of aerosol-cloud interactions in aerosol model.</t>
@@ -1271,13 +1305,13 @@
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.overview</t>
   </si>
   <si>
-    <t>6.6.2 *</t>
+    <t>7.6.2 *</t>
   </si>
   <si>
     <t>Overview of aerosol-cloud interactions</t>
   </si>
   <si>
-    <t>6.6.3 *</t>
+    <t>7.6.3 *</t>
   </si>
   <si>
     <t>Twomey</t>
@@ -1289,7 +1323,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.twomey</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6.4 </t>
+    <t xml:space="preserve">7.6.4 </t>
   </si>
   <si>
     <t>Twomey Minimum Ccn</t>
@@ -1301,7 +1335,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.twomey_minimum_ccn</t>
   </si>
   <si>
-    <t>6.6.5 *</t>
+    <t>7.6.5 *</t>
   </si>
   <si>
     <t>Drizzle</t>
@@ -1313,7 +1347,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.drizzle</t>
   </si>
   <si>
-    <t>6.6.6 *</t>
+    <t>7.6.6 *</t>
   </si>
   <si>
     <t>Cloud Lifetime</t>
@@ -1325,19 +1359,19 @@
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.cloud_lifetime</t>
   </si>
   <si>
-    <t>6.6.7 *</t>
+    <t>7.6.7 *</t>
   </si>
   <si>
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.longwave_bands</t>
   </si>
   <si>
-    <t>7.1</t>
+    <t>8.1</t>
   </si>
   <si>
     <t>Aerosol model</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.1 </t>
+    <t xml:space="preserve">8.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the model in aerosol model.</t>
@@ -1346,7 +1380,7 @@
     <t>cmip6.aerosol.model.name</t>
   </si>
   <si>
-    <t>7.1.2 *</t>
+    <t>8.1.2 *</t>
   </si>
   <si>
     <t>Overview of atmospheric aerosol model</t>
@@ -1355,7 +1389,7 @@
     <t>cmip6.aerosol.model.overview</t>
   </si>
   <si>
-    <t>7.1.3 *</t>
+    <t>8.1.3 *</t>
   </si>
   <si>
     <t>Processes</t>
@@ -1406,7 +1440,7 @@
     <t>Nucleation</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.4 </t>
+    <t xml:space="preserve">8.1.4 </t>
   </si>
   <si>
     <t>Coupling</t>
@@ -1436,7 +1470,7 @@
     <t>Gas phase chemistry</t>
   </si>
   <si>
-    <t>7.1.5 *</t>
+    <t>8.1.5 *</t>
   </si>
   <si>
     <t>Gas Phase Precursors</t>
@@ -1472,7 +1506,7 @@
     <t>NOx</t>
   </si>
   <si>
-    <t>7.1.6 *</t>
+    <t>8.1.6 *</t>
   </si>
   <si>
     <t>Scheme Type</t>
@@ -1493,7 +1527,7 @@
     <t>Bin</t>
   </si>
   <si>
-    <t>7.1.7 *</t>
+    <t>8.1.7 *</t>
   </si>
   <si>
     <t>Bulk Scheme Species</t>
@@ -1545,7 +1579,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1587,9 +1621,8 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="24"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
@@ -1614,14 +1647,22 @@
       <family val="2"/>
     </font>
     <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <i/>
-      <sz val="10"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -1671,7 +1712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1688,10 +1729,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1703,11 +1741,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2003,7 +2047,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD18"/>
+  <dimension ref="A1:XFD20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2089,31 +2133,119 @@
         <v>16</v>
       </c>
     </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B17" r:id="rId1"/>
+    <hyperlink ref="B18" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="11"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD161"/>
   <sheetViews>
@@ -2128,898 +2260,898 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>22</v>
+      <c r="A1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>23</v>
+      <c r="B2" s="13" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>25</v>
+      <c r="A4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>28</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>30</v>
+      <c r="A8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>32</v>
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>33</v>
+      <c r="B10" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>35</v>
+      <c r="A13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>37</v>
+      <c r="A14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>38</v>
+      <c r="B15" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11"/>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>40</v>
+      <c r="A18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>43</v>
+      <c r="A19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
-      <c r="B20" s="12" t="s">
-        <v>44</v>
+      <c r="B20" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="B21" s="11"/>
       <c r="AA21" s="5" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="AB21" s="5" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="AD21" s="5" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>51</v>
+      <c r="A23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>53</v>
+      <c r="A24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11"/>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>55</v>
+      <c r="A27" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>57</v>
+      <c r="A28" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
-      <c r="B29" s="12" t="s">
-        <v>44</v>
+      <c r="B29" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
       <c r="B30" s="11"/>
       <c r="AA30" s="5" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="AB30" s="5" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="AC30" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:31" ht="24" customHeight="1">
-      <c r="A32" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>61</v>
+      <c r="A32" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>64</v>
+      <c r="A33" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="11"/>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
-      <c r="A36" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>66</v>
+      <c r="A36" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>69</v>
+      <c r="A37" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="B38" s="11"/>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="A41" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>71</v>
+      <c r="A41" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="B42" s="7" t="s">
-        <v>72</v>
+      <c r="B42" s="13" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
-      <c r="A44" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>74</v>
+      <c r="A44" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
-      <c r="A45" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>76</v>
+      <c r="A45" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="B46" s="11"/>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="A48" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>78</v>
+      <c r="A48" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="A49" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>80</v>
+      <c r="A49" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="B50" s="11"/>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="A52" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>82</v>
+      <c r="A52" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
-      <c r="A53" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>84</v>
+      <c r="A53" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
-      <c r="B54" s="12" t="s">
-        <v>33</v>
+      <c r="B54" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
       <c r="B55" s="11"/>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
-      <c r="A58" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>86</v>
+      <c r="A58" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
-      <c r="B59" s="7" t="s">
-        <v>87</v>
+      <c r="B59" s="13" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
-      <c r="A61" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>35</v>
+      <c r="A61" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
-      <c r="A62" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>90</v>
+      <c r="A62" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="B63" s="11"/>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
-      <c r="A65" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>92</v>
+      <c r="A65" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:30" ht="24" customHeight="1">
-      <c r="A66" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>94</v>
+      <c r="A66" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="B67" s="11"/>
       <c r="AA67" s="5" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AB67" s="5" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="AC67" s="5" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="AD67" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
-      <c r="A69" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>99</v>
+      <c r="A69" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:30" ht="24" customHeight="1">
-      <c r="A70" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>101</v>
+      <c r="A70" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="B71" s="11"/>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
-      <c r="A73" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>103</v>
+      <c r="A73" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
-      <c r="A74" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>105</v>
+      <c r="A74" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
       <c r="B75" s="11"/>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
-      <c r="A77" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>107</v>
+      <c r="A77" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
-      <c r="A78" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>109</v>
+      <c r="A78" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
       <c r="B79" s="11"/>
     </row>
     <row r="81" spans="1:35" ht="24" customHeight="1">
-      <c r="A81" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>111</v>
+      <c r="A81" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="82" spans="1:35" ht="24" customHeight="1">
-      <c r="A82" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>113</v>
+      <c r="A82" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="83" spans="1:35" ht="24" customHeight="1">
       <c r="B83" s="11"/>
       <c r="AA83" s="5" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="AB83" s="5" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="AC83" s="5" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="AD83" s="5" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="AE83" s="5" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="AF83" s="5" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="AG83" s="5" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="AH83" s="5" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="AI83" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:35" ht="24" customHeight="1">
-      <c r="A86" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>123</v>
+      <c r="A86" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="87" spans="1:35" ht="24" customHeight="1">
-      <c r="B87" s="7"/>
+      <c r="B87" s="13"/>
     </row>
     <row r="89" spans="1:35" ht="24" customHeight="1">
-      <c r="A89" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>35</v>
+      <c r="A89" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="90" spans="1:35" ht="24" customHeight="1">
-      <c r="A90" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>126</v>
+      <c r="A90" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="91" spans="1:35" ht="24" customHeight="1">
       <c r="B91" s="11"/>
     </row>
     <row r="93" spans="1:35" ht="24" customHeight="1">
-      <c r="A93" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>128</v>
+      <c r="A93" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="94" spans="1:35" ht="24" customHeight="1">
-      <c r="A94" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>130</v>
+      <c r="A94" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="95" spans="1:35" ht="24" customHeight="1">
-      <c r="B95" s="12" t="s">
-        <v>33</v>
+      <c r="B95" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="96" spans="1:35" ht="24" customHeight="1">
       <c r="B96" s="11"/>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
-      <c r="A98" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>132</v>
+      <c r="A98" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="A99" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B99" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>134</v>
+      <c r="A99" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="B100" s="12" t="s">
-        <v>33</v>
+      <c r="B100" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="B101" s="11"/>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>136</v>
+      <c r="A103" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="A104" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>138</v>
+      <c r="A104" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="B105" s="11"/>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="A108" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>140</v>
+      <c r="A108" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
-      <c r="B109" s="7" t="s">
-        <v>141</v>
+      <c r="B109" s="13" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
-      <c r="A111" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>35</v>
+      <c r="A111" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
-      <c r="A112" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>144</v>
+      <c r="A112" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="B113" s="11"/>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
-      <c r="A115" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>25</v>
+      <c r="A115" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
-      <c r="A116" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>147</v>
+      <c r="A116" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="B117" s="11"/>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
-      <c r="A119" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>149</v>
+      <c r="A119" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="A120" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B120" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>151</v>
+      <c r="A120" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
       <c r="B121" s="11"/>
     </row>
     <row r="123" spans="1:3" ht="24" customHeight="1">
-      <c r="A123" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>153</v>
+      <c r="A123" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
-      <c r="A124" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B124" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>155</v>
+      <c r="A124" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
       <c r="B125" s="11"/>
     </row>
     <row r="127" spans="1:3" ht="24" customHeight="1">
-      <c r="A127" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>157</v>
+      <c r="A127" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="24" customHeight="1">
-      <c r="A128" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B128" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>159</v>
+      <c r="A128" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
       <c r="B129" s="11"/>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
-      <c r="A131" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>161</v>
+      <c r="A131" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="24" customHeight="1">
-      <c r="A132" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B132" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>163</v>
+      <c r="A132" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
       <c r="B133" s="11"/>
     </row>
     <row r="136" spans="1:3" ht="24" customHeight="1">
-      <c r="A136" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>165</v>
+      <c r="A136" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
-      <c r="B137" s="7" t="s">
-        <v>166</v>
+      <c r="B137" s="13" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
-      <c r="A139" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>35</v>
+      <c r="A139" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
-      <c r="A140" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B140" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C140" s="10" t="s">
-        <v>169</v>
+      <c r="A140" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="24" customHeight="1">
       <c r="B141" s="11"/>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
-      <c r="A143" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>171</v>
+      <c r="A143" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
-      <c r="A144" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B144" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C144" s="10" t="s">
-        <v>173</v>
+      <c r="A144" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="24" customHeight="1">
-      <c r="B145" s="12" t="s">
-        <v>38</v>
+      <c r="B145" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="178" customHeight="1">
       <c r="B146" s="11"/>
     </row>
     <row r="148" spans="1:3" ht="24" customHeight="1">
-      <c r="A148" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>175</v>
+      <c r="A148" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
-      <c r="A149" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B149" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C149" s="10" t="s">
-        <v>177</v>
+      <c r="A149" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="24" customHeight="1">
-      <c r="B150" s="12" t="s">
-        <v>33</v>
+      <c r="B150" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="24" customHeight="1">
       <c r="B151" s="11"/>
     </row>
     <row r="153" spans="1:3" ht="24" customHeight="1">
-      <c r="A153" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>179</v>
+      <c r="A153" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
-      <c r="A154" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B154" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C154" s="10" t="s">
-        <v>181</v>
+      <c r="A154" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="24" customHeight="1">
-      <c r="B155" s="12" t="s">
-        <v>33</v>
+      <c r="B155" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
       <c r="B156" s="11"/>
     </row>
     <row r="158" spans="1:3" ht="24" customHeight="1">
-      <c r="A158" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>183</v>
+      <c r="A158" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="24" customHeight="1">
-      <c r="A159" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B159" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C159" s="10" t="s">
-        <v>185</v>
+      <c r="A159" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
-      <c r="B160" s="12" t="s">
-        <v>33</v>
+      <c r="B160" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="161" spans="2:2" ht="24" customHeight="1">
@@ -3071,7 +3203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD43"/>
   <sheetViews>
@@ -3086,229 +3218,229 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>187</v>
+      <c r="A1" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>188</v>
+      <c r="B2" s="13" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>25</v>
+      <c r="A4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>191</v>
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>35</v>
+      <c r="A8" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>194</v>
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>38</v>
+      <c r="B10" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>196</v>
+      <c r="A13" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>198</v>
+      <c r="A14" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="11"/>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>200</v>
+      <c r="A18" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
-      <c r="B19" s="7" t="s">
-        <v>201</v>
+      <c r="B19" s="13" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>35</v>
+      <c r="A21" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>204</v>
+      <c r="A22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="B23" s="11"/>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>25</v>
+      <c r="A25" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>206</v>
+      <c r="A26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="B27" s="11"/>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>149</v>
+      <c r="A29" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>209</v>
+      <c r="A30" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="B31" s="11"/>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>153</v>
+      <c r="A33" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>211</v>
+      <c r="A34" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="B35" s="11"/>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>157</v>
+      <c r="A37" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>213</v>
+      <c r="A38" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="11"/>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="A41" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>161</v>
+      <c r="A41" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>216</v>
+      <c r="A42" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -3333,7 +3465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD25"/>
   <sheetViews>
@@ -3348,183 +3480,183 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>218</v>
+      <c r="A1" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>219</v>
+      <c r="B2" s="13" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>25</v>
+      <c r="A4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>222</v>
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:31" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>35</v>
+      <c r="A8" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>225</v>
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>38</v>
+      <c r="B10" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:31" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>227</v>
+      <c r="A13" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>229</v>
+      <c r="A14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="5" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="AC15" s="5" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="AD15" s="5" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="AE15" s="5" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>236</v>
+      <c r="A17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>238</v>
+      <c r="A18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
-      <c r="B19" s="12" t="s">
-        <v>44</v>
+      <c r="B19" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
       <c r="B20" s="11"/>
       <c r="AA20" s="5" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="AB20" s="5" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="AD20" s="5" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="AE20" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>243</v>
+      <c r="A22" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
-      <c r="A23" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>245</v>
+      <c r="A23" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
-      <c r="B24" s="12" t="s">
-        <v>44</v>
+      <c r="B24" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11"/>
       <c r="AA25" s="5" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="AB25" s="5" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="AC25" s="5" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="AD25" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3543,7 +3675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD49"/>
   <sheetViews>
@@ -3558,331 +3690,331 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>249</v>
+      <c r="A1" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>250</v>
+      <c r="B2" s="13" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>25</v>
+      <c r="A4" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:33" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>253</v>
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:33" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>35</v>
+      <c r="A8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>256</v>
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>38</v>
+      <c r="B10" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:33" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:33" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>92</v>
+      <c r="A13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:33" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>259</v>
+      <c r="A14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:33" ht="24" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>44</v>
+      <c r="B15" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:33" ht="24" customHeight="1">
       <c r="B16" s="11"/>
       <c r="AA16" s="5" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="AC16" s="5" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="AD16" s="5" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="AE16" s="5" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="AF16" s="5" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="AG16" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>267</v>
+      <c r="A18" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>269</v>
+      <c r="A19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="24" customHeight="1">
-      <c r="B20" s="12" t="s">
-        <v>44</v>
+      <c r="B20" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:35" ht="24" customHeight="1">
       <c r="B21" s="11"/>
       <c r="AA21" s="5" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="AB21" s="5" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="AD21" s="5" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="AF21" s="5" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="AG21" s="5" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="AH21" s="5" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="AI21" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="24" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>279</v>
+      <c r="A23" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:35" ht="24" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>281</v>
+      <c r="A24" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="24" customHeight="1">
       <c r="B25" s="11"/>
       <c r="AA25" s="5" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="AB25" s="5" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="AC25" s="5" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="AD25" s="5" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="AE25" s="5" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="24" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>288</v>
+      <c r="A27" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="24" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>290</v>
+      <c r="A28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="24" customHeight="1">
-      <c r="B29" s="12" t="s">
-        <v>33</v>
+      <c r="B29" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="24" customHeight="1">
       <c r="B30" s="11"/>
     </row>
     <row r="32" spans="1:35" ht="24" customHeight="1">
-      <c r="A32" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>292</v>
+      <c r="A32" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>294</v>
+      <c r="A33" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="B34" s="12" t="s">
-        <v>33</v>
+      <c r="B34" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="B35" s="11"/>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>296</v>
+      <c r="A37" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>298</v>
+      <c r="A38" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="B39" s="12" t="s">
-        <v>33</v>
+      <c r="B39" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="B40" s="11"/>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>300</v>
+      <c r="A42" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="A43" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>302</v>
+      <c r="A43" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
-      <c r="B44" s="12" t="s">
-        <v>33</v>
+      <c r="B44" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="B45" s="11"/>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
-      <c r="A47" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>304</v>
+      <c r="A47" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="A48" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>306</v>
+      <c r="A48" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="49" spans="2:2" ht="24" customHeight="1">
@@ -3904,7 +4036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD31"/>
   <sheetViews>
@@ -3919,170 +4051,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>308</v>
+      <c r="A1" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>309</v>
+      <c r="B2" s="13" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>25</v>
+      <c r="A4" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>312</v>
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>35</v>
+      <c r="A8" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>315</v>
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>38</v>
+      <c r="B10" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>317</v>
+      <c r="A13" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>319</v>
+      <c r="A14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>33</v>
+      <c r="B15" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="24" customHeight="1">
       <c r="B16" s="11"/>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>321</v>
+      <c r="A18" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>323</v>
+      <c r="A19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
-      <c r="B20" s="12" t="s">
-        <v>33</v>
+      <c r="B20" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
       <c r="B21" s="11"/>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>325</v>
+      <c r="A23" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>327</v>
+      <c r="A24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
-      <c r="B25" s="12" t="s">
-        <v>33</v>
+      <c r="B25" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
       <c r="B26" s="11"/>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>329</v>
+      <c r="A28" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
-      <c r="A29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>331</v>
+      <c r="A29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="B30" s="12" t="s">
-        <v>33</v>
+      <c r="B30" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
@@ -4093,7 +4225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD125"/>
   <sheetViews>
@@ -4108,641 +4240,641 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>333</v>
+      <c r="A1" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>334</v>
+      <c r="B2" s="13" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>25</v>
+      <c r="A4" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>337</v>
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>35</v>
+      <c r="A8" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>340</v>
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>38</v>
+      <c r="B10" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>342</v>
+      <c r="A14" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="7" t="s">
-        <v>343</v>
+      <c r="B15" s="13" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>35</v>
+      <c r="A17" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>346</v>
+      <c r="A18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="11"/>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>348</v>
+      <c r="A21" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>351</v>
+      <c r="A22" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="B23" s="11"/>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>353</v>
+      <c r="A25" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>355</v>
+      <c r="A26" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="B27" s="11"/>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>357</v>
+      <c r="A29" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>359</v>
+      <c r="A30" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="B31" s="11"/>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>361</v>
+      <c r="A34" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="B35" s="7"/>
+      <c r="B35" s="13"/>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>35</v>
+      <c r="A37" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>363</v>
+      <c r="A38" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="11"/>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="A41" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>365</v>
+      <c r="A41" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>367</v>
+      <c r="A42" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="B43" s="11"/>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
-      <c r="A45" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>369</v>
+      <c r="A45" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
-      <c r="A46" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>371</v>
+      <c r="A46" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="B47" s="11"/>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="A49" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>373</v>
+      <c r="A49" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
-      <c r="A50" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>375</v>
+      <c r="A50" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="B51" s="11"/>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
-      <c r="A54" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>377</v>
+      <c r="A54" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
-      <c r="B55" s="7" t="s">
-        <v>378</v>
+      <c r="B55" s="13" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
-      <c r="A57" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>35</v>
+      <c r="A57" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
-      <c r="A58" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>381</v>
+      <c r="A58" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="B59" s="11"/>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
-      <c r="A61" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>383</v>
+      <c r="A61" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
-      <c r="A62" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>385</v>
+      <c r="A62" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="B63" s="11"/>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
-      <c r="A65" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>387</v>
+      <c r="A65" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
-      <c r="A66" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>389</v>
+      <c r="A66" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="B67" s="11"/>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
-      <c r="A69" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>391</v>
+      <c r="A69" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
-      <c r="A70" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>393</v>
+      <c r="A70" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
       <c r="B71" s="11"/>
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
-      <c r="A74" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>395</v>
+      <c r="A74" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
-      <c r="B75" s="7" t="s">
-        <v>396</v>
+      <c r="B75" s="13" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
-      <c r="A77" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>35</v>
+      <c r="A77" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
-      <c r="A78" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>399</v>
+      <c r="A78" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="B79" s="11"/>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="A81" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>35</v>
+      <c r="A81" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
-      <c r="A82" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>399</v>
+      <c r="A82" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="24" customHeight="1">
-      <c r="B83" s="12" t="s">
-        <v>38</v>
+      <c r="B83" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="178" customHeight="1">
       <c r="B84" s="11"/>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="A86" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>403</v>
+      <c r="A86" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="A87" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>405</v>
+      <c r="A87" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="B88" s="11"/>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="A90" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>407</v>
+      <c r="A90" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="A91" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>409</v>
+      <c r="A91" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
       <c r="B92" s="11"/>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="A95" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>411</v>
+      <c r="A95" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="B96" s="7" t="s">
-        <v>412</v>
+      <c r="B96" s="13" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
-      <c r="A98" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>35</v>
+      <c r="A98" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="A99" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B99" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>415</v>
+      <c r="A99" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="B100" s="11"/>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
-      <c r="A102" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>35</v>
+      <c r="A102" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B103" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>415</v>
+      <c r="A103" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="B104" s="12" t="s">
-        <v>38</v>
+      <c r="B104" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="178" customHeight="1">
       <c r="B105" s="11"/>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
-      <c r="A107" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>419</v>
+      <c r="A107" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="A108" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>421</v>
+      <c r="A108" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
       <c r="B109" s="11"/>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
-      <c r="A111" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>423</v>
+      <c r="A111" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
-      <c r="A112" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>425</v>
+      <c r="A112" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="B113" s="11"/>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
-      <c r="A115" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>427</v>
+      <c r="A115" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
-      <c r="A116" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>429</v>
+      <c r="A116" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="B117" s="11"/>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
-      <c r="A119" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>431</v>
+      <c r="A119" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="A120" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B120" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>433</v>
+      <c r="A120" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
       <c r="B121" s="11"/>
     </row>
     <row r="123" spans="1:3" ht="24" customHeight="1">
-      <c r="A123" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>407</v>
+      <c r="A123" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
-      <c r="A124" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B124" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>435</v>
+      <c r="A124" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
@@ -4803,7 +4935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD36"/>
   <sheetViews>
@@ -4818,344 +4950,344 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>437</v>
+      <c r="B2" s="13" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>25</v>
+      <c r="A4" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>440</v>
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:39" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>35</v>
+      <c r="A8" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:39" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>443</v>
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>38</v>
+      <c r="B10" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:39" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:39" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>445</v>
+      <c r="A13" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="14" spans="1:39" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>447</v>
+      <c r="A14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="1:39" ht="24" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>44</v>
+      <c r="B15" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:39" ht="24" customHeight="1">
       <c r="B16" s="11"/>
       <c r="AA16" s="5" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="AC16" s="5" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="AD16" s="5" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="AE16" s="5" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="AF16" s="5" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="AG16" s="5" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="AH16" s="5" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="AI16" s="5" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="AJ16" s="5" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="AK16" s="5" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="AL16" s="5" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="AM16" s="5" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>462</v>
+      <c r="A18" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>464</v>
+      <c r="A19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="24" customHeight="1">
-      <c r="B20" s="12" t="s">
-        <v>44</v>
+      <c r="B20" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:35" ht="24" customHeight="1">
       <c r="B21" s="11"/>
       <c r="AA21" s="5" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="AB21" s="5" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="AD21" s="5" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="AF21" s="5" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="AG21" s="5" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="AH21" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="24" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>472</v>
+      <c r="A23" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="24" spans="1:35" ht="24" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>474</v>
+      <c r="A24" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="24" customHeight="1">
-      <c r="B25" s="12" t="s">
-        <v>44</v>
+      <c r="B25" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:35" ht="24" customHeight="1">
       <c r="B26" s="11"/>
       <c r="AA26" s="5" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="AB26" s="5" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="AC26" s="5" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="AD26" s="5" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="AE26" s="5" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="AF26" s="5" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="AG26" s="5" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="AH26" s="5" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="AI26" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="24" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>484</v>
+      <c r="A28" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="24" customHeight="1">
-      <c r="A29" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>486</v>
+      <c r="A29" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="24" customHeight="1">
-      <c r="B30" s="12" t="s">
-        <v>44</v>
+      <c r="B30" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:35" ht="24" customHeight="1">
       <c r="B31" s="11"/>
       <c r="AA31" s="5" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="AB31" s="5" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="AC31" s="5" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="AD31" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:40" ht="24" customHeight="1">
-      <c r="A33" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>491</v>
+      <c r="A33" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="34" spans="1:40" ht="24" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>493</v>
+      <c r="A34" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="35" spans="1:40" ht="24" customHeight="1">
-      <c r="B35" s="12" t="s">
-        <v>44</v>
+      <c r="B35" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:40" ht="24" customHeight="1">
       <c r="B36" s="11"/>
       <c r="AA36" s="5" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="AB36" s="5" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="AC36" s="5" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="AD36" s="5" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="AE36" s="5" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="AF36" s="5" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="AG36" s="5" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="AH36" s="5" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="AI36" s="5" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="AJ36" s="5" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="AK36" s="5" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="AL36" s="5" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="AM36" s="5" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="AN36" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_aerosol.xlsx
+++ b/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_aerosol.xlsx
@@ -45,7 +45,7 @@
     <t>MRI-ESM2-0</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Aerosol</t>

--- a/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_aerosol.xlsx
+++ b/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_aerosol.xlsx
@@ -8,21 +8,21 @@
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
-    <sheet name="1. Parties &amp; Citations" sheetId="2" r:id="rId2"/>
-    <sheet name="2. Key Properties" sheetId="3" r:id="rId3"/>
-    <sheet name="3. Grid" sheetId="4" r:id="rId4"/>
-    <sheet name="4. Transport" sheetId="5" r:id="rId5"/>
-    <sheet name="5. Emissions" sheetId="6" r:id="rId6"/>
-    <sheet name="6. Concentrations" sheetId="7" r:id="rId7"/>
-    <sheet name="7. Optical Radiative Properties" sheetId="8" r:id="rId8"/>
-    <sheet name="8. Model" sheetId="9" r:id="rId9"/>
+    <sheet name="Parties &amp; Citations" sheetId="2" r:id="rId2"/>
+    <sheet name="1. Key Properties" sheetId="3" r:id="rId3"/>
+    <sheet name="2. Grid" sheetId="4" r:id="rId4"/>
+    <sheet name="3. Transport" sheetId="5" r:id="rId5"/>
+    <sheet name="4. Emissions" sheetId="6" r:id="rId6"/>
+    <sheet name="5. Concentrations" sheetId="7" r:id="rId7"/>
+    <sheet name="6. Optical Radiative Properties" sheetId="8" r:id="rId8"/>
+    <sheet name="7. Model" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="495">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -51,31 +51,28 @@
     <t>Aerosol</t>
   </si>
   <si>
-    <t>Sub-Topics</t>
-  </si>
-  <si>
-    <t>1. Parties &amp; Citations</t>
-  </si>
-  <si>
-    <t>2. Key Properties</t>
-  </si>
-  <si>
-    <t>3. Grid</t>
-  </si>
-  <si>
-    <t>4. Transport</t>
-  </si>
-  <si>
-    <t>5. Emissions</t>
-  </si>
-  <si>
-    <t>6. Concentrations</t>
-  </si>
-  <si>
-    <t>7. Optical Radiative Properties</t>
-  </si>
-  <si>
-    <t>8. Model</t>
+    <t>Sub-Processes</t>
+  </si>
+  <si>
+    <t>1. Key Properties</t>
+  </si>
+  <si>
+    <t>2. Grid</t>
+  </si>
+  <si>
+    <t>3. Transport</t>
+  </si>
+  <si>
+    <t>4. Emissions</t>
+  </si>
+  <si>
+    <t>5. Concentrations</t>
+  </si>
+  <si>
+    <t>6. Optical Radiative Properties</t>
+  </si>
+  <si>
+    <t>7. Model</t>
   </si>
   <si>
     <t>How To Use</t>
@@ -96,58 +93,76 @@
     <t>1.0.2</t>
   </si>
   <si>
-    <t>1.</t>
+    <t>Spreadsheet Generator Version</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>Initialised By</t>
+  </si>
+  <si>
+    <t>Internal notes</t>
   </si>
   <si>
     <t>Parties &amp; Citations</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>Parties</t>
+    <t>NOTE: Multiple entries are allowed.  To enter a new row, copy &amp; paste an existing row, and edit accordingly.</t>
+  </si>
+  <si>
+    <t>Responsible Parties</t>
+  </si>
+  <si>
+    <t>https://es-doc.org/how-to-use-model-responsible-party-spreadsheets.</t>
+  </si>
+  <si>
+    <t>Enter responsible party identifiers below, one identifier per line.  You can optionally specify a role.</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Citations</t>
+  </si>
+  <si>
+    <t>https://es-doc.org/how-to-use-model-citation-spreadsheets.</t>
+  </si>
+  <si>
+    <t>Enter citation identifiers below, one identifier per line.  You can optionally specify a process.</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>Key Properties</t>
+  </si>
+  <si>
+    <t>Key properties of the aerosol model</t>
+  </si>
+  <si>
+    <t>1.1.1.1 *</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
   <si>
     <t>STRING</t>
   </si>
   <si>
-    <t>Mnemonic references to responsible parties</t>
-  </si>
-  <si>
-    <t>NOTE: Multiple entries are allowed, please insert a new row per entry.</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>Citations</t>
-  </si>
-  <si>
-    <t>Mnemonic references to citations</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>Key Properties</t>
-  </si>
-  <si>
-    <t>Key properties of the aerosol model</t>
-  </si>
-  <si>
-    <t>2.1.1 *</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Name of aerosol model code</t>
   </si>
   <si>
     <t>cmip6.aerosol.key_properties.name</t>
   </si>
   <si>
-    <t>2.1.2 *</t>
+    <t>1.1.1.2 *</t>
   </si>
   <si>
     <t>Keywords</t>
@@ -162,7 +177,7 @@
     <t>NOTE: Please enter a comma seperated list</t>
   </si>
   <si>
-    <t>2.1.3 *</t>
+    <t>1.1.1.3 *</t>
   </si>
   <si>
     <t>Overview</t>
@@ -177,7 +192,7 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
-    <t>2.1.4 *</t>
+    <t>1.1.1.4 *</t>
   </si>
   <si>
     <t>Scheme Scope</t>
@@ -204,10 +219,10 @@
     <t>Whole atmosphere</t>
   </si>
   <si>
-    <t>Other: document to the right</t>
-  </si>
-  <si>
-    <t>2.1.5 *</t>
+    <t>Other: document in cell to the right</t>
+  </si>
+  <si>
+    <t>1.1.1.5 *</t>
   </si>
   <si>
     <t>Basic Approximations</t>
@@ -219,7 +234,7 @@
     <t>cmip6.aerosol.key_properties.basic_approximations</t>
   </si>
   <si>
-    <t>2.1.6 *</t>
+    <t>1.1.1.6 *</t>
   </si>
   <si>
     <t>Prognostic Variables Form</t>
@@ -237,7 +252,7 @@
     <t>3D number concentration for aerosols</t>
   </si>
   <si>
-    <t>2.1.7 *</t>
+    <t>1.1.1.7 *</t>
   </si>
   <si>
     <t>Number Of Tracers</t>
@@ -252,7 +267,7 @@
     <t>cmip6.aerosol.key_properties.number_of_tracers</t>
   </si>
   <si>
-    <t>2.1.8 *</t>
+    <t>1.1.1.8 *</t>
   </si>
   <si>
     <t>Family Approach</t>
@@ -267,7 +282,7 @@
     <t>cmip6.aerosol.key_properties.family_approach</t>
   </si>
   <si>
-    <t>2.2</t>
+    <t>1.2.1</t>
   </si>
   <si>
     <t>Key Properties --&gt; Software Properties</t>
@@ -276,7 +291,7 @@
     <t>Software properties of aerosol code</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.1 </t>
+    <t xml:space="preserve">1.2.1.1 </t>
   </si>
   <si>
     <t>Repository</t>
@@ -288,7 +303,7 @@
     <t>cmip6.aerosol.key_properties.software_properties.repository</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.2 </t>
+    <t xml:space="preserve">1.2.1.2 </t>
   </si>
   <si>
     <t>Code Version</t>
@@ -300,7 +315,7 @@
     <t>cmip6.aerosol.key_properties.software_properties.code_version</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.3 </t>
+    <t xml:space="preserve">1.2.1.3 </t>
   </si>
   <si>
     <t>Code Languages</t>
@@ -312,7 +327,7 @@
     <t>cmip6.aerosol.key_properties.software_properties.code_languages</t>
   </si>
   <si>
-    <t>2.3</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Key Properties --&gt; Timestep Framework</t>
@@ -321,16 +336,7 @@
     <t>Physical properties of seawater in ocean</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3.1 </t>
-  </si>
-  <si>
-    <t>Overview of physical properties of seawater in ocean in aerosol model.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.key_properties.timestep_framework.overview</t>
-  </si>
-  <si>
-    <t>2.3.2 *</t>
+    <t>1.3.1.1 *</t>
   </si>
   <si>
     <t>Method</t>
@@ -351,7 +357,7 @@
     <t>Specific timestepping (integrated)</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3.3 </t>
+    <t xml:space="preserve">1.3.1.2 </t>
   </si>
   <si>
     <t>Split Operator Advection Timestep</t>
@@ -363,7 +369,7 @@
     <t>cmip6.aerosol.key_properties.timestep_framework.split_operator_advection_timestep</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3.4 </t>
+    <t xml:space="preserve">1.3.1.3 </t>
   </si>
   <si>
     <t>Split Operator Physical Timestep</t>
@@ -375,7 +381,7 @@
     <t>cmip6.aerosol.key_properties.timestep_framework.split_operator_physical_timestep</t>
   </si>
   <si>
-    <t>2.3.5 *</t>
+    <t>1.3.1.4 *</t>
   </si>
   <si>
     <t>Integrated Timestep</t>
@@ -387,7 +393,7 @@
     <t>cmip6.aerosol.key_properties.timestep_framework.integrated_timestep</t>
   </si>
   <si>
-    <t>2.3.6 *</t>
+    <t>1.3.1.5 *</t>
   </si>
   <si>
     <t>Integrated Scheme Type</t>
@@ -423,22 +429,13 @@
     <t>Rosenbrock</t>
   </si>
   <si>
-    <t>2.4</t>
+    <t>1.4.1</t>
   </si>
   <si>
     <t>Key Properties --&gt; Meteorological Forcings</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.1 </t>
-  </si>
-  <si>
-    <t>Overview of  in aerosol model.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.key_properties.meteorological_forcings.overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4.2 </t>
+    <t xml:space="preserve">1.4.1.1 </t>
   </si>
   <si>
     <t>Variables 3D</t>
@@ -450,7 +447,7 @@
     <t>cmip6.aerosol.key_properties.meteorological_forcings.variables_3D</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.3 </t>
+    <t xml:space="preserve">1.4.1.2 </t>
   </si>
   <si>
     <t>Variables 2D</t>
@@ -462,7 +459,7 @@
     <t>cmip6.aerosol.key_properties.meteorological_forcings.variables_2D</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.4 </t>
+    <t xml:space="preserve">1.4.1.3 </t>
   </si>
   <si>
     <t>Frequency</t>
@@ -474,7 +471,7 @@
     <t>cmip6.aerosol.key_properties.meteorological_forcings.frequency</t>
   </si>
   <si>
-    <t>2.5</t>
+    <t>1.5.1</t>
   </si>
   <si>
     <t>Key Properties --&gt; Resolution</t>
@@ -483,16 +480,7 @@
     <t>Resolution in the aerosol model grid</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5.1 </t>
-  </si>
-  <si>
-    <t>Overview of resolution in the aerosol model grid in aerosol model.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.key_properties.resolution.overview</t>
-  </si>
-  <si>
-    <t>2.5.2 *</t>
+    <t>1.5.1.1 *</t>
   </si>
   <si>
     <t>This is a string usually used by the modelling group to describe the resolution of this grid, e.g. ORCA025, N512L180, T512L70 etc.</t>
@@ -501,7 +489,7 @@
     <t>cmip6.aerosol.key_properties.resolution.name</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5.3 </t>
+    <t xml:space="preserve">1.5.1.2 </t>
   </si>
   <si>
     <t>Canonical Horizontal Resolution</t>
@@ -513,7 +501,7 @@
     <t>cmip6.aerosol.key_properties.resolution.canonical_horizontal_resolution</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5.4 </t>
+    <t xml:space="preserve">1.5.1.3 </t>
   </si>
   <si>
     <t>Number Of Horizontal Gridpoints</t>
@@ -525,7 +513,7 @@
     <t>cmip6.aerosol.key_properties.resolution.number_of_horizontal_gridpoints</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5.5 </t>
+    <t xml:space="preserve">1.5.1.4 </t>
   </si>
   <si>
     <t>Number Of Vertical Levels</t>
@@ -537,7 +525,7 @@
     <t>cmip6.aerosol.key_properties.resolution.number_of_vertical_levels</t>
   </si>
   <si>
-    <t>2.5.6 *</t>
+    <t>1.5.1.5 *</t>
   </si>
   <si>
     <t>Is Adaptive Grid</t>
@@ -549,7 +537,7 @@
     <t>cmip6.aerosol.key_properties.resolution.is_adaptive_grid</t>
   </si>
   <si>
-    <t>2.6</t>
+    <t>1.6.1</t>
   </si>
   <si>
     <t>Key Properties --&gt; Tuning Applied</t>
@@ -558,16 +546,7 @@
     <t>Tuning methodology for aerosol model</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6.1 </t>
-  </si>
-  <si>
-    <t>Overview of tuning methodology for aerosol model in aerosol model.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.key_properties.tuning_applied.overview</t>
-  </si>
-  <si>
-    <t>2.6.2 *</t>
+    <t>1.6.1.1 *</t>
   </si>
   <si>
     <t>Description</t>
@@ -579,7 +558,7 @@
     <t>cmip6.aerosol.key_properties.tuning_applied.description</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6.3 </t>
+    <t xml:space="preserve">1.6.1.2 </t>
   </si>
   <si>
     <t>Global Mean Metrics Used</t>
@@ -591,7 +570,7 @@
     <t>cmip6.aerosol.key_properties.tuning_applied.global_mean_metrics_used</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6.4 </t>
+    <t xml:space="preserve">1.6.1.3 </t>
   </si>
   <si>
     <t>Regional Metrics Used</t>
@@ -603,7 +582,7 @@
     <t>cmip6.aerosol.key_properties.tuning_applied.regional_metrics_used</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6.5 </t>
+    <t xml:space="preserve">1.6.1.4 </t>
   </si>
   <si>
     <t>Trend Metrics Used</t>
@@ -615,7 +594,7 @@
     <t>cmip6.aerosol.key_properties.tuning_applied.trend_metrics_used</t>
   </si>
   <si>
-    <t>3.1</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>Grid</t>
@@ -624,7 +603,7 @@
     <t>Aerosol grid</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.1 </t>
+    <t xml:space="preserve">2.1.1.1 </t>
   </si>
   <si>
     <t>Name of grid in aerosol model.</t>
@@ -633,7 +612,7 @@
     <t>cmip6.aerosol.grid.name</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.2 </t>
+    <t xml:space="preserve">2.1.1.2 </t>
   </si>
   <si>
     <t>Overview of grid in aerosol model.</t>
@@ -642,7 +621,7 @@
     <t>cmip6.aerosol.grid.overview</t>
   </si>
   <si>
-    <t>3.1.3 *</t>
+    <t>2.1.1.3 *</t>
   </si>
   <si>
     <t>Matches Atmosphere Grid</t>
@@ -654,7 +633,7 @@
     <t>cmip6.aerosol.grid.matches_atmosphere_grid</t>
   </si>
   <si>
-    <t>3.2</t>
+    <t>2.2.1</t>
   </si>
   <si>
     <t>Grid --&gt; Resolution</t>
@@ -663,22 +642,13 @@
     <t>Resolution in the atmospheric aerosol grid</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.1 </t>
-  </si>
-  <si>
-    <t>Overview of resolution in the atmospheric aerosol grid in aerosol model.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.grid.resolution.overview</t>
-  </si>
-  <si>
-    <t>3.2.2 *</t>
+    <t>2.2.1.1 *</t>
   </si>
   <si>
     <t>cmip6.aerosol.grid.resolution.name</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.3 </t>
+    <t xml:space="preserve">2.2.1.2 </t>
   </si>
   <si>
     <t>Expression quoted for gross comparisons of resolution, e.g. 50km or 0.1 degrees etc.</t>
@@ -687,19 +657,19 @@
     <t>cmip6.aerosol.grid.resolution.canonical_horizontal_resolution</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.4 </t>
+    <t xml:space="preserve">2.2.1.3 </t>
   </si>
   <si>
     <t>cmip6.aerosol.grid.resolution.number_of_horizontal_gridpoints</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.5 </t>
+    <t xml:space="preserve">2.2.1.4 </t>
   </si>
   <si>
     <t>cmip6.aerosol.grid.resolution.number_of_vertical_levels</t>
   </si>
   <si>
-    <t>3.2.6 *</t>
+    <t>2.2.1.5 *</t>
   </si>
   <si>
     <t>Set to true if grid resolution changes during execution.</t>
@@ -708,7 +678,7 @@
     <t>cmip6.aerosol.grid.resolution.is_adaptive_grid</t>
   </si>
   <si>
-    <t>4.1</t>
+    <t>3.1.1</t>
   </si>
   <si>
     <t>Transport</t>
@@ -717,7 +687,7 @@
     <t>Aerosol transport</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.1 </t>
+    <t xml:space="preserve">3.1.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the transport in aerosol model.</t>
@@ -726,7 +696,7 @@
     <t>cmip6.aerosol.transport.name</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.2 </t>
+    <t xml:space="preserve">3.1.1.2 </t>
   </si>
   <si>
     <t>Overview of aerosol transport in aerosol model.</t>
@@ -735,7 +705,7 @@
     <t>cmip6.aerosol.transport.overview</t>
   </si>
   <si>
-    <t>4.1.3 *</t>
+    <t>3.1.1.3 *</t>
   </si>
   <si>
     <t>Scheme</t>
@@ -762,7 +732,7 @@
     <t>Specific transport scheme (lagrangian)</t>
   </si>
   <si>
-    <t>4.1.4 *</t>
+    <t>3.1.1.4 *</t>
   </si>
   <si>
     <t>Mass Conservation Scheme</t>
@@ -783,7 +753,7 @@
     <t>Gradients monotonicity</t>
   </si>
   <si>
-    <t>4.1.5 *</t>
+    <t>3.1.1.5 *</t>
   </si>
   <si>
     <t>Convention</t>
@@ -801,7 +771,7 @@
     <t>Vertical velocities connected to tracers</t>
   </si>
   <si>
-    <t>5.1</t>
+    <t>4.1.1</t>
   </si>
   <si>
     <t>Emissions</t>
@@ -810,7 +780,7 @@
     <t>Atmospheric aerosol emissions</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.1 </t>
+    <t xml:space="preserve">4.1.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the emissions in aerosol model.</t>
@@ -819,7 +789,7 @@
     <t>cmip6.aerosol.emissions.name</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.2 </t>
+    <t xml:space="preserve">4.1.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric aerosol emissions in aerosol model.</t>
@@ -828,7 +798,7 @@
     <t>cmip6.aerosol.emissions.overview</t>
   </si>
   <si>
-    <t>5.1.3 *</t>
+    <t>4.1.1.3 *</t>
   </si>
   <si>
     <t>Method used to define aerosol species (several methods allowed because the different species may not use the same method).</t>
@@ -855,7 +825,7 @@
     <t>Interactive above surface</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.4 </t>
+    <t xml:space="preserve">4.1.1.4 </t>
   </si>
   <si>
     <t>Sources</t>
@@ -891,7 +861,7 @@
     <t>Anthropogenic</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.5 </t>
+    <t xml:space="preserve">4.1.1.5 </t>
   </si>
   <si>
     <t>Prescribed Climatology</t>
@@ -918,7 +888,7 @@
     <t>Daily</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.6 </t>
+    <t xml:space="preserve">4.1.1.6 </t>
   </si>
   <si>
     <t>Prescribed Climatology Emitted Species</t>
@@ -930,7 +900,7 @@
     <t>cmip6.aerosol.emissions.prescribed_climatology_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.7 </t>
+    <t xml:space="preserve">4.1.1.7 </t>
   </si>
   <si>
     <t>Prescribed Spatially Uniform Emitted Species</t>
@@ -942,7 +912,7 @@
     <t>cmip6.aerosol.emissions.prescribed_spatially_uniform_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.8 </t>
+    <t xml:space="preserve">4.1.1.8 </t>
   </si>
   <si>
     <t>Interactive Emitted Species</t>
@@ -954,7 +924,7 @@
     <t>cmip6.aerosol.emissions.interactive_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.9 </t>
+    <t xml:space="preserve">4.1.1.9 </t>
   </si>
   <si>
     <t>Other Emitted Species</t>
@@ -966,7 +936,7 @@
     <t>cmip6.aerosol.emissions.other_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.10 </t>
+    <t xml:space="preserve">4.1.1.10 </t>
   </si>
   <si>
     <t>Other Method Characteristics</t>
@@ -978,7 +948,7 @@
     <t>cmip6.aerosol.emissions.other_method_characteristics</t>
   </si>
   <si>
-    <t>6.1</t>
+    <t>5.1.1</t>
   </si>
   <si>
     <t>Concentrations</t>
@@ -987,7 +957,7 @@
     <t>Atmospheric aerosol concentrations</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.1 </t>
+    <t xml:space="preserve">5.1.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the concentrations in aerosol model.</t>
@@ -996,7 +966,7 @@
     <t>cmip6.aerosol.concentrations.name</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.2 </t>
+    <t xml:space="preserve">5.1.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric aerosol concentrations in aerosol model.</t>
@@ -1005,7 +975,7 @@
     <t>cmip6.aerosol.concentrations.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.3 </t>
+    <t xml:space="preserve">5.1.1.3 </t>
   </si>
   <si>
     <t>Prescribed Lower Boundary</t>
@@ -1017,7 +987,7 @@
     <t>cmip6.aerosol.concentrations.prescribed_lower_boundary</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.4 </t>
+    <t xml:space="preserve">5.1.1.4 </t>
   </si>
   <si>
     <t>Prescribed Upper Boundary</t>
@@ -1029,7 +999,7 @@
     <t>cmip6.aerosol.concentrations.prescribed_upper_boundary</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.5 </t>
+    <t xml:space="preserve">5.1.1.5 </t>
   </si>
   <si>
     <t>Prescribed Fields Mmr</t>
@@ -1041,7 +1011,7 @@
     <t>cmip6.aerosol.concentrations.prescribed_fields_mmr</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.6 </t>
+    <t xml:space="preserve">5.1.1.6 </t>
   </si>
   <si>
     <t>Prescribed Fields Aod Plus Ccn</t>
@@ -1053,7 +1023,7 @@
     <t>cmip6.aerosol.concentrations.prescribed_fields_aod_plus_ccn</t>
   </si>
   <si>
-    <t>7.1</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Optical Radiative Properties</t>
@@ -1062,7 +1032,7 @@
     <t>Aerosol optical and radiative properties</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.1 </t>
+    <t xml:space="preserve">6.1.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the optical radiative properties in aerosol model.</t>
@@ -1071,7 +1041,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.name</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.2 </t>
+    <t xml:space="preserve">6.1.1.2 </t>
   </si>
   <si>
     <t>Overview of aerosol optical and radiative properties in aerosol model.</t>
@@ -1080,7 +1050,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.overview</t>
   </si>
   <si>
-    <t>7.2</t>
+    <t>6.2.1</t>
   </si>
   <si>
     <t>Optical Radiative Properties --&gt; Absorption</t>
@@ -1089,16 +1059,7 @@
     <t>Absortion properties in aerosol scheme</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2.1 </t>
-  </si>
-  <si>
-    <t>Overview of absortion properties in aerosol scheme in aerosol model.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.absorption.overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2.2 </t>
+    <t xml:space="preserve">6.2.1.1 </t>
   </si>
   <si>
     <t>Black Carbon</t>
@@ -1113,7 +1074,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.absorption.black_carbon</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2.3 </t>
+    <t xml:space="preserve">6.2.1.2 </t>
   </si>
   <si>
     <t>Dust</t>
@@ -1125,7 +1086,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.absorption.dust</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2.4 </t>
+    <t xml:space="preserve">6.2.1.3 </t>
   </si>
   <si>
     <t>Organics</t>
@@ -1137,19 +1098,13 @@
     <t>cmip6.aerosol.optical_radiative_properties.absorption.organics</t>
   </si>
   <si>
-    <t>7.3</t>
+    <t>6.3.1</t>
   </si>
   <si>
     <t>Optical Radiative Properties --&gt; Mixtures</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3.1 </t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.mixtures.overview</t>
-  </si>
-  <si>
-    <t>7.3.2 *</t>
+    <t>6.3.1.1 *</t>
   </si>
   <si>
     <t>External</t>
@@ -1161,7 +1116,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.mixtures.external</t>
   </si>
   <si>
-    <t>7.3.3 *</t>
+    <t>6.3.1.2 *</t>
   </si>
   <si>
     <t>Internal</t>
@@ -1173,7 +1128,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.mixtures.internal</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3.4 </t>
+    <t xml:space="preserve">6.3.1.3 </t>
   </si>
   <si>
     <t>Mixing Rule</t>
@@ -1185,7 +1140,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.mixtures.mixing_rule</t>
   </si>
   <si>
-    <t>7.4</t>
+    <t>6.4.1</t>
   </si>
   <si>
     <t>Optical Radiative Properties --&gt; Impact Of H2o</t>
@@ -1194,16 +1149,7 @@
     <t>The impact of H2O on aerosols</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4.1 </t>
-  </si>
-  <si>
-    <t>Overview of the impact of h2o on aerosols in aerosol model.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.impact_of_h2o.overview</t>
-  </si>
-  <si>
-    <t>7.4.2 *</t>
+    <t>6.4.1.1 *</t>
   </si>
   <si>
     <t>Size</t>
@@ -1215,7 +1161,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.impact_of_h2o.size</t>
   </si>
   <si>
-    <t>7.4.3 *</t>
+    <t>6.4.1.2 *</t>
   </si>
   <si>
     <t>Internal Mixture</t>
@@ -1227,7 +1173,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.impact_of_h2o.internal_mixture</t>
   </si>
   <si>
-    <t>7.4.4 *</t>
+    <t>6.4.1.3 *</t>
   </si>
   <si>
     <t>External Mixture</t>
@@ -1239,7 +1185,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.impact_of_h2o.external_mixture</t>
   </si>
   <si>
-    <t>7.5</t>
+    <t>6.5.1</t>
   </si>
   <si>
     <t>Optical Radiative Properties --&gt; Radiative Scheme</t>
@@ -1248,22 +1194,16 @@
     <t>Radiative scheme for aerosol</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5.1 </t>
-  </si>
-  <si>
-    <t>Overview of radiative scheme for aerosol in aerosol model.</t>
+    <t>6.5.1.1 *</t>
+  </si>
+  <si>
+    <t>Overview of radiative scheme</t>
   </si>
   <si>
     <t>cmip6.aerosol.optical_radiative_properties.radiative_scheme.overview</t>
   </si>
   <si>
-    <t>7.5.2 *</t>
-  </si>
-  <si>
-    <t>Overview of radiative scheme</t>
-  </si>
-  <si>
-    <t>7.5.3 *</t>
+    <t>6.5.1.2 *</t>
   </si>
   <si>
     <t>Shortwave Bands</t>
@@ -1275,7 +1215,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.radiative_scheme.shortwave_bands</t>
   </si>
   <si>
-    <t>7.5.4 *</t>
+    <t>6.5.1.3 *</t>
   </si>
   <si>
     <t>Longwave Bands</t>
@@ -1287,7 +1227,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.radiative_scheme.longwave_bands</t>
   </si>
   <si>
-    <t>7.6</t>
+    <t>6.6.1</t>
   </si>
   <si>
     <t>Optical Radiative Properties --&gt; Cloud Interactions</t>
@@ -1296,22 +1236,16 @@
     <t>Aerosol-cloud interactions</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6.1 </t>
-  </si>
-  <si>
-    <t>Overview of aerosol-cloud interactions in aerosol model.</t>
+    <t>6.6.1.1 *</t>
+  </si>
+  <si>
+    <t>Overview of aerosol-cloud interactions</t>
   </si>
   <si>
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.overview</t>
   </si>
   <si>
-    <t>7.6.2 *</t>
-  </si>
-  <si>
-    <t>Overview of aerosol-cloud interactions</t>
-  </si>
-  <si>
-    <t>7.6.3 *</t>
+    <t>6.6.1.2 *</t>
   </si>
   <si>
     <t>Twomey</t>
@@ -1323,7 +1257,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.twomey</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6.4 </t>
+    <t xml:space="preserve">6.6.1.3 </t>
   </si>
   <si>
     <t>Twomey Minimum Ccn</t>
@@ -1335,7 +1269,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.twomey_minimum_ccn</t>
   </si>
   <si>
-    <t>7.6.5 *</t>
+    <t>6.6.1.4 *</t>
   </si>
   <si>
     <t>Drizzle</t>
@@ -1347,7 +1281,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.drizzle</t>
   </si>
   <si>
-    <t>7.6.6 *</t>
+    <t>6.6.1.5 *</t>
   </si>
   <si>
     <t>Cloud Lifetime</t>
@@ -1359,19 +1293,19 @@
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.cloud_lifetime</t>
   </si>
   <si>
-    <t>7.6.7 *</t>
+    <t>6.6.1.6 *</t>
   </si>
   <si>
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.longwave_bands</t>
   </si>
   <si>
-    <t>8.1</t>
+    <t>7.1.1</t>
   </si>
   <si>
     <t>Aerosol model</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1.1 </t>
+    <t xml:space="preserve">7.1.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the model in aerosol model.</t>
@@ -1380,7 +1314,7 @@
     <t>cmip6.aerosol.model.name</t>
   </si>
   <si>
-    <t>8.1.2 *</t>
+    <t>7.1.1.2 *</t>
   </si>
   <si>
     <t>Overview of atmospheric aerosol model</t>
@@ -1389,7 +1323,7 @@
     <t>cmip6.aerosol.model.overview</t>
   </si>
   <si>
-    <t>8.1.3 *</t>
+    <t>7.1.1.3 *</t>
   </si>
   <si>
     <t>Processes</t>
@@ -1440,7 +1374,7 @@
     <t>Nucleation</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1.4 </t>
+    <t xml:space="preserve">7.1.1.4 </t>
   </si>
   <si>
     <t>Coupling</t>
@@ -1470,7 +1404,7 @@
     <t>Gas phase chemistry</t>
   </si>
   <si>
-    <t>8.1.5 *</t>
+    <t>7.1.1.5 *</t>
   </si>
   <si>
     <t>Gas Phase Precursors</t>
@@ -1506,7 +1440,7 @@
     <t>NOx</t>
   </si>
   <si>
-    <t>8.1.6 *</t>
+    <t>7.1.1.6 *</t>
   </si>
   <si>
     <t>Scheme Type</t>
@@ -1527,7 +1461,7 @@
     <t>Bin</t>
   </si>
   <si>
-    <t>8.1.7 *</t>
+    <t>7.1.1.7 *</t>
   </si>
   <si>
     <t>Bulk Scheme Species</t>
@@ -1579,7 +1513,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1602,13 +1536,19 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="16"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="16"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -1627,6 +1567,13 @@
       <family val="2"/>
     </font>
     <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
@@ -1634,21 +1581,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -1661,8 +1595,21 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -1712,7 +1659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1726,31 +1673,34 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2047,7 +1997,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD20"/>
+  <dimension ref="A1:XFD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2133,39 +2083,54 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="B15" s="4" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="B16" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="4" t="s">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="B19" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1"/>
-    <hyperlink ref="B18" r:id="rId2"/>
+    <hyperlink ref="B16" r:id="rId1"/>
+    <hyperlink ref="B17" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2173,320 +2138,343 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD11"/>
+  <dimension ref="A1:XFD17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="80.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+      <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+      <formula1>"Top Level,Key Properties,Grid,Transport,Emissions,Concentrations,Optical Radiative Properties,Model"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1"/>
+    <hyperlink ref="A13" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD145"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD161"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>38</v>
+      <c r="A4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>40</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>42</v>
+      <c r="A8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>44</v>
+      <c r="B9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>45</v>
+      <c r="B10" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>47</v>
+      <c r="A13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>49</v>
+      <c r="A14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="10" t="s">
-        <v>50</v>
+      <c r="B15" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11"/>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>52</v>
+      <c r="A18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>55</v>
+      <c r="A19" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
       <c r="B20" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="B21" s="11"/>
-      <c r="AA21" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB21" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC21" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE21" s="5" t="s">
-        <v>60</v>
+      <c r="AA21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>62</v>
+      <c r="A23" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
-      <c r="A24" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>64</v>
+      <c r="A24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11"/>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
-      <c r="A27" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>66</v>
+      <c r="A27" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>68</v>
+      <c r="A28" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
       <c r="B29" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
       <c r="B30" s="11"/>
-      <c r="AA30" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB30" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC30" s="5" t="s">
-        <v>60</v>
+      <c r="AA30" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB30" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC30" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:31" ht="24" customHeight="1">
-      <c r="A32" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>72</v>
+      <c r="A32" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>75</v>
+      <c r="A33" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="11"/>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
-      <c r="A36" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>77</v>
+      <c r="A36" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>80</v>
+      <c r="A37" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -2494,668 +2482,580 @@
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="A41" s="12" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="B42" s="13" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
-      <c r="A44" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>85</v>
+      <c r="A44" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
-      <c r="A45" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>87</v>
+      <c r="A45" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="B46" s="11"/>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="A48" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="A49" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="24" customHeight="1">
+      <c r="A48" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" ht="24" customHeight="1">
+      <c r="A49" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" ht="24" customHeight="1">
       <c r="B50" s="11"/>
     </row>
-    <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="A52" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="24" customHeight="1">
-      <c r="A53" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="24" customHeight="1">
-      <c r="B54" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="24" customHeight="1">
+    <row r="52" spans="1:30" ht="24" customHeight="1">
+      <c r="A52" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" ht="24" customHeight="1">
+      <c r="A53" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" ht="24" customHeight="1">
+      <c r="B54" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="B55" s="11"/>
     </row>
-    <row r="58" spans="1:3" ht="24" customHeight="1">
+    <row r="58" spans="1:30" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="24" customHeight="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="B59" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="24" customHeight="1">
-      <c r="A61" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="24" customHeight="1">
-      <c r="A62" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="24" customHeight="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" ht="24" customHeight="1">
+      <c r="A61" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" ht="24" customHeight="1">
+      <c r="A62" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" ht="24" customHeight="1">
       <c r="B63" s="11"/>
-    </row>
-    <row r="65" spans="1:30" ht="24" customHeight="1">
-      <c r="A65" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="66" spans="1:30" ht="24" customHeight="1">
-      <c r="A66" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="67" spans="1:30" ht="24" customHeight="1">
+      <c r="AA63" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB63" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC63" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD63" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:35" ht="24" customHeight="1">
+      <c r="A65" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:35" ht="24" customHeight="1">
+      <c r="A66" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:35" ht="24" customHeight="1">
       <c r="B67" s="11"/>
-      <c r="AA67" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB67" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC67" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD67" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69" spans="1:30" ht="24" customHeight="1">
-      <c r="A69" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="70" spans="1:30" ht="24" customHeight="1">
-      <c r="A70" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="71" spans="1:30" ht="24" customHeight="1">
+    </row>
+    <row r="69" spans="1:35" ht="24" customHeight="1">
+      <c r="A69" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35" ht="24" customHeight="1">
+      <c r="A70" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" ht="24" customHeight="1">
       <c r="B71" s="11"/>
     </row>
-    <row r="73" spans="1:30" ht="24" customHeight="1">
-      <c r="A73" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="74" spans="1:30" ht="24" customHeight="1">
-      <c r="A74" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="75" spans="1:30" ht="24" customHeight="1">
+    <row r="73" spans="1:35" ht="24" customHeight="1">
+      <c r="A73" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:35" ht="24" customHeight="1">
+      <c r="A74" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:35" ht="24" customHeight="1">
       <c r="B75" s="11"/>
     </row>
-    <row r="77" spans="1:30" ht="24" customHeight="1">
-      <c r="A77" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="78" spans="1:30" ht="24" customHeight="1">
-      <c r="A78" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="79" spans="1:30" ht="24" customHeight="1">
+    <row r="77" spans="1:35" ht="24" customHeight="1">
+      <c r="A77" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:35" ht="24" customHeight="1">
+      <c r="A78" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:35" ht="24" customHeight="1">
       <c r="B79" s="11"/>
-    </row>
-    <row r="81" spans="1:35" ht="24" customHeight="1">
-      <c r="A81" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="82" spans="1:35" ht="24" customHeight="1">
-      <c r="A82" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="83" spans="1:35" ht="24" customHeight="1">
-      <c r="B83" s="11"/>
-      <c r="AA83" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB83" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC83" s="5" t="s">
+      <c r="AA79" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="AD83" s="5" t="s">
+      <c r="AB79" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="AE83" s="5" t="s">
+      <c r="AC79" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="AF83" s="5" t="s">
+      <c r="AD79" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="AG83" s="5" t="s">
+      <c r="AE79" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="AH83" s="5" t="s">
+      <c r="AF79" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="AI83" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="86" spans="1:35" ht="24" customHeight="1">
-      <c r="A86" s="12" t="s">
+      <c r="AG79" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="AH79" s="6" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="87" spans="1:35" ht="24" customHeight="1">
-      <c r="B87" s="13"/>
-    </row>
-    <row r="89" spans="1:35" ht="24" customHeight="1">
-      <c r="A89" s="7" t="s">
+      <c r="AI79" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="24" customHeight="1">
+      <c r="A82" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B89" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="90" spans="1:35" ht="24" customHeight="1">
-      <c r="A90" s="8" t="s">
-        <v>28</v>
+      <c r="B82" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="24" customHeight="1">
+      <c r="B83" s="13"/>
+    </row>
+    <row r="85" spans="1:3" ht="24" customHeight="1">
+      <c r="A85" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="24" customHeight="1">
+      <c r="A86" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="24" customHeight="1">
+      <c r="B87" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="24" customHeight="1">
+      <c r="B88" s="11"/>
+    </row>
+    <row r="90" spans="1:3" ht="24" customHeight="1">
+      <c r="A90" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="91" spans="1:35" ht="24" customHeight="1">
-      <c r="B91" s="11"/>
-    </row>
-    <row r="93" spans="1:35" ht="24" customHeight="1">
-      <c r="A93" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="94" spans="1:35" ht="24" customHeight="1">
-      <c r="A94" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="95" spans="1:35" ht="24" customHeight="1">
-      <c r="B95" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="96" spans="1:35" ht="24" customHeight="1">
-      <c r="B96" s="11"/>
-    </row>
-    <row r="98" spans="1:3" ht="24" customHeight="1">
-      <c r="A98" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B98" s="7" t="s">
+    </row>
+    <row r="91" spans="1:3" ht="24" customHeight="1">
+      <c r="A91" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B91" s="10" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="A99" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B99" s="9" t="s">
+      <c r="C91" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C99" s="9" t="s">
+    </row>
+    <row r="92" spans="1:3" ht="24" customHeight="1">
+      <c r="B92" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="24" customHeight="1">
+      <c r="B93" s="11"/>
+    </row>
+    <row r="95" spans="1:3" ht="24" customHeight="1">
+      <c r="A95" s="9" t="s">
         <v>145</v>
       </c>
+      <c r="B95" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="24" customHeight="1">
+      <c r="A96" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="24" customHeight="1">
+      <c r="B97" s="11"/>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="B100" s="10" t="s">
-        <v>45</v>
+      <c r="A100" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="B101" s="11"/>
+      <c r="B101" s="13" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>147</v>
+      <c r="A103" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="A104" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>149</v>
+      <c r="A104" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="B105" s="11"/>
     </row>
+    <row r="107" spans="1:3" ht="24" customHeight="1">
+      <c r="A107" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="A108" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B108" s="12" t="s">
-        <v>151</v>
+      <c r="A108" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
-      <c r="B109" s="13" t="s">
-        <v>152</v>
-      </c>
+      <c r="B109" s="11"/>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
-      <c r="A111" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>47</v>
+      <c r="A111" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
-      <c r="A112" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>155</v>
+      <c r="A112" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="B113" s="11"/>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
-      <c r="A115" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>38</v>
+      <c r="A115" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
-      <c r="A116" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>158</v>
+      <c r="A116" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="B117" s="11"/>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
-      <c r="A119" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>160</v>
+      <c r="A119" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="A120" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>162</v>
+      <c r="A120" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
       <c r="B121" s="11"/>
     </row>
-    <row r="123" spans="1:3" ht="24" customHeight="1">
-      <c r="A123" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
-      <c r="A124" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>166</v>
+      <c r="A124" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
-      <c r="B125" s="11"/>
+      <c r="B125" s="13" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="127" spans="1:3" ht="24" customHeight="1">
-      <c r="A127" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>168</v>
+      <c r="A127" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="24" customHeight="1">
-      <c r="A128" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="C128" s="9" t="s">
-        <v>170</v>
+      <c r="A128" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
-      <c r="B129" s="11"/>
-    </row>
-    <row r="131" spans="1:3" ht="24" customHeight="1">
-      <c r="A131" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>172</v>
-      </c>
+      <c r="B129" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="178" customHeight="1">
+      <c r="B130" s="11"/>
     </row>
     <row r="132" spans="1:3" ht="24" customHeight="1">
-      <c r="A132" s="8" t="s">
-        <v>78</v>
+      <c r="A132" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
-      <c r="B133" s="11"/>
-    </row>
-    <row r="136" spans="1:3" ht="24" customHeight="1">
-      <c r="A136" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="B136" s="12" t="s">
-        <v>176</v>
-      </c>
+      <c r="A133" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="24" customHeight="1">
+      <c r="B134" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="24" customHeight="1">
+      <c r="B135" s="11"/>
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
-      <c r="B137" s="13" t="s">
-        <v>177</v>
+      <c r="A137" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="24" customHeight="1">
+      <c r="A138" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
-      <c r="A139" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>47</v>
+      <c r="B139" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
-      <c r="A140" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C140" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="24" customHeight="1">
-      <c r="B141" s="11"/>
+      <c r="B140" s="11"/>
+    </row>
+    <row r="142" spans="1:3" ht="24" customHeight="1">
+      <c r="A142" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
-      <c r="A143" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>182</v>
+      <c r="A143" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
-      <c r="A144" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C144" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="24" customHeight="1">
-      <c r="B145" s="10" t="s">
+      <c r="B144" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="178" customHeight="1">
-      <c r="B146" s="11"/>
-    </row>
-    <row r="148" spans="1:3" ht="24" customHeight="1">
-      <c r="A148" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="24" customHeight="1">
-      <c r="A149" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C149" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="24" customHeight="1">
-      <c r="B150" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="24" customHeight="1">
-      <c r="B151" s="11"/>
-    </row>
-    <row r="153" spans="1:3" ht="24" customHeight="1">
-      <c r="A153" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="24" customHeight="1">
-      <c r="A154" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="C154" s="9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="24" customHeight="1">
-      <c r="B155" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="24" customHeight="1">
-      <c r="B156" s="11"/>
-    </row>
-    <row r="158" spans="1:3" ht="24" customHeight="1">
-      <c r="A158" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="24" customHeight="1">
-      <c r="A159" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B159" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="C159" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="24" customHeight="1">
-      <c r="B160" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="161" spans="2:2" ht="24" customHeight="1">
-      <c r="B161" s="11"/>
+    <row r="145" spans="2:2" ht="24" customHeight="1">
+      <c r="B145" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="13">
@@ -3171,8 +3071,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67">
-      <formula1>AA67:AD67</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
+      <formula1>AA63:AD63</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67">
+      <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B71">
       <formula1>0</formula1>
@@ -3180,22 +3083,19 @@
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B75">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B79">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B79">
+      <formula1>AA79:AI79</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83">
-      <formula1>AA83:AI83</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B105">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B113">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B125">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B117">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B129">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B133">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B121">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3205,97 +3105,97 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD43"/>
+  <dimension ref="A1:XFD39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>38</v>
+      <c r="A4" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>202</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>47</v>
+      <c r="A8" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>205</v>
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>50</v>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>207</v>
+      <c r="A13" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>209</v>
+      <c r="A14" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3303,161 +3203,139 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
-      <c r="A21" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>47</v>
+      <c r="A21" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>215</v>
+      <c r="A22" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="B23" s="11"/>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
-      <c r="A25" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>38</v>
+      <c r="A25" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>217</v>
+      <c r="A26" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="B27" s="11"/>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
-      <c r="A29" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="B29" s="7" t="s">
+      <c r="A29" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>220</v>
+      <c r="A30" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="B31" s="11"/>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="B33" s="7" t="s">
+      <c r="A33" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="9" t="s">
+      <c r="A34" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>222</v>
+      <c r="C34" s="10" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="B35" s="11"/>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="B37" s="7" t="s">
+      <c r="A37" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>224</v>
+      <c r="A38" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="11"/>
-    </row>
-    <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="A41" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="B43" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+      <formula1>0</formula1>
+    </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3474,189 +3352,189 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>38</v>
+      <c r="A4" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>233</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:31" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>47</v>
+      <c r="A8" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>236</v>
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>50</v>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:31" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>238</v>
+      <c r="A13" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>240</v>
+      <c r="A14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="24" customHeight="1">
       <c r="B15" s="11"/>
-      <c r="AA15" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="AB15" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="AC15" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="AD15" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="AE15" s="5" t="s">
-        <v>245</v>
+      <c r="AA15" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB15" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC15" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD15" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE15" s="6" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
-      <c r="A17" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>247</v>
+      <c r="A17" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>249</v>
+      <c r="A18" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
       <c r="B20" s="11"/>
-      <c r="AA20" s="5" t="s">
+      <c r="AA20" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB20" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC20" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="AB20" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="AC20" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="AD20" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="AE20" s="5" t="s">
-        <v>60</v>
+      <c r="AD20" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AE20" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
-      <c r="A22" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>254</v>
+      <c r="A22" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>256</v>
+      <c r="A23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
       <c r="B24" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11"/>
-      <c r="AA25" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="AB25" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="AC25" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="AD25" s="5" t="s">
-        <v>60</v>
+      <c r="AA25" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3684,337 +3562,337 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>38</v>
+      <c r="A4" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:33" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>264</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:33" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>47</v>
+      <c r="A8" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>267</v>
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>50</v>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:33" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:33" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>103</v>
+      <c r="A13" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:33" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>270</v>
+      <c r="A14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:33" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:33" ht="24" customHeight="1">
       <c r="B16" s="11"/>
-      <c r="AA16" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB16" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="AC16" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD16" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE16" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="AF16" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="AG16" s="5" t="s">
-        <v>60</v>
+      <c r="AA16" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB16" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC16" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="AD16" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="AE16" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="AF16" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="AG16" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="24" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>278</v>
+      <c r="A18" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>280</v>
+      <c r="A19" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="24" customHeight="1">
       <c r="B20" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:35" ht="24" customHeight="1">
       <c r="B21" s="11"/>
-      <c r="AA21" s="5" t="s">
+      <c r="AA21" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="AG21" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="AH21" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="AI21" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" ht="24" customHeight="1">
+      <c r="A23" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" ht="24" customHeight="1">
+      <c r="A24" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="AB21" s="5" t="s">
+      <c r="C24" s="10" t="s">
         <v>282</v>
-      </c>
-      <c r="AC21" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="AD21" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="AE21" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="AF21" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="AG21" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="AH21" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="AI21" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35" ht="24" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35" ht="24" customHeight="1">
-      <c r="A24" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="24" customHeight="1">
       <c r="B25" s="11"/>
-      <c r="AA25" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="AB25" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="AC25" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="AD25" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="AE25" s="5" t="s">
-        <v>297</v>
+      <c r="AA25" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="AE25" s="6" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="24" customHeight="1">
-      <c r="A27" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>299</v>
+      <c r="A27" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="24" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>301</v>
+      <c r="A28" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="24" customHeight="1">
-      <c r="B29" s="10" t="s">
-        <v>45</v>
+      <c r="B29" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="24" customHeight="1">
       <c r="B30" s="11"/>
     </row>
     <row r="32" spans="1:35" ht="24" customHeight="1">
-      <c r="A32" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>303</v>
+      <c r="A32" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>305</v>
+      <c r="A33" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="B34" s="10" t="s">
-        <v>45</v>
+      <c r="B34" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="B35" s="11"/>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>307</v>
+      <c r="A37" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>309</v>
+      <c r="A38" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="B39" s="10" t="s">
-        <v>45</v>
+      <c r="B39" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="B40" s="11"/>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>311</v>
+      <c r="A42" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="A43" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>313</v>
+      <c r="A43" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
-      <c r="B44" s="10" t="s">
-        <v>45</v>
+      <c r="B44" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="B45" s="11"/>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
-      <c r="A47" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>315</v>
+      <c r="A47" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="A48" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>317</v>
+      <c r="A48" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="49" spans="2:2" ht="24" customHeight="1">
@@ -4045,176 +3923,176 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>38</v>
+      <c r="A4" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>323</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>47</v>
+      <c r="A8" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>326</v>
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>50</v>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>328</v>
+      <c r="A13" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>330</v>
+      <c r="A14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="10" t="s">
-        <v>45</v>
+      <c r="B15" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="24" customHeight="1">
       <c r="B16" s="11"/>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>332</v>
+      <c r="A18" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>334</v>
+      <c r="A19" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
-      <c r="B20" s="10" t="s">
-        <v>45</v>
+      <c r="B20" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
       <c r="B21" s="11"/>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>336</v>
+      <c r="A23" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
-      <c r="A24" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>338</v>
+      <c r="A24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
-      <c r="B25" s="10" t="s">
-        <v>45</v>
+      <c r="B25" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
       <c r="B26" s="11"/>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
-      <c r="A28" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>340</v>
+      <c r="A28" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>342</v>
+      <c r="A29" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="B30" s="10" t="s">
-        <v>45</v>
+      <c r="B30" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
@@ -4227,75 +4105,75 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD125"/>
+  <dimension ref="A1:XFD105"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>38</v>
+      <c r="A4" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>348</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>47</v>
+      <c r="A8" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>351</v>
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>50</v>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -4303,585 +4181,479 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
-      <c r="A17" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>47</v>
+      <c r="A17" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>357</v>
+      <c r="A18" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="11"/>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
-      <c r="A21" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>359</v>
+      <c r="A21" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>362</v>
+      <c r="A22" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="B23" s="11"/>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
-      <c r="A25" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>364</v>
+      <c r="A25" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>366</v>
+      <c r="A26" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="B27" s="11"/>
     </row>
-    <row r="29" spans="1:3" ht="24" customHeight="1">
-      <c r="A29" s="7" t="s">
+    <row r="30" spans="1:3" ht="24" customHeight="1">
+      <c r="A30" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="24" customHeight="1">
+      <c r="B31" s="13"/>
+    </row>
+    <row r="33" spans="1:3" ht="24" customHeight="1">
+      <c r="A33" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="24" customHeight="1">
+      <c r="A34" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="24" customHeight="1">
+      <c r="B35" s="11"/>
+    </row>
+    <row r="37" spans="1:3" ht="24" customHeight="1">
+      <c r="A37" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="24" customHeight="1">
+      <c r="A38" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>367</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="24" customHeight="1">
-      <c r="B31" s="11"/>
-    </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="B35" s="13"/>
-    </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="11"/>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="A41" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>376</v>
+      <c r="A41" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>378</v>
+      <c r="A42" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="B43" s="11"/>
     </row>
-    <row r="45" spans="1:3" ht="24" customHeight="1">
-      <c r="A45" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>380</v>
-      </c>
-    </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
-      <c r="A46" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>382</v>
+      <c r="A46" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
-      <c r="B47" s="11"/>
+      <c r="B47" s="13" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="A49" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>384</v>
+      <c r="A49" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
-      <c r="A50" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>386</v>
+      <c r="A50" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="B51" s="11"/>
     </row>
+    <row r="53" spans="1:3" ht="24" customHeight="1">
+      <c r="A53" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>380</v>
+      </c>
+    </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
-      <c r="A54" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>388</v>
+      <c r="A54" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
-      <c r="B55" s="13" t="s">
-        <v>389</v>
-      </c>
+      <c r="B55" s="11"/>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
-      <c r="A57" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>47</v>
+      <c r="A57" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
-      <c r="A58" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>392</v>
+      <c r="A58" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="B59" s="11"/>
     </row>
-    <row r="61" spans="1:3" ht="24" customHeight="1">
-      <c r="A61" s="7" t="s">
+    <row r="62" spans="1:3" ht="24" customHeight="1">
+      <c r="A62" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="24" customHeight="1">
+      <c r="B63" s="13" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="24" customHeight="1">
+      <c r="A65" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="24" customHeight="1">
+      <c r="A66" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="24" customHeight="1">
+      <c r="B67" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="178" customHeight="1">
+      <c r="B68" s="11"/>
+    </row>
+    <row r="70" spans="1:3" ht="24" customHeight="1">
+      <c r="A70" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B70" s="9" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="24" customHeight="1">
-      <c r="A62" s="8" t="s">
+    <row r="71" spans="1:3" ht="24" customHeight="1">
+      <c r="A71" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B71" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C71" s="10" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="24" customHeight="1">
-      <c r="B63" s="11"/>
-    </row>
-    <row r="65" spans="1:3" ht="24" customHeight="1">
-      <c r="A65" s="7" t="s">
+    <row r="72" spans="1:3" ht="24" customHeight="1">
+      <c r="B72" s="11"/>
+    </row>
+    <row r="74" spans="1:3" ht="24" customHeight="1">
+      <c r="A74" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B74" s="9" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="24" customHeight="1">
-      <c r="A66" s="8" t="s">
+    <row r="75" spans="1:3" ht="24" customHeight="1">
+      <c r="A75" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B75" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C75" s="10" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="24" customHeight="1">
-      <c r="B67" s="11"/>
-    </row>
-    <row r="69" spans="1:3" ht="24" customHeight="1">
-      <c r="A69" s="7" t="s">
+    <row r="76" spans="1:3" ht="24" customHeight="1">
+      <c r="B76" s="11"/>
+    </row>
+    <row r="79" spans="1:3" ht="24" customHeight="1">
+      <c r="A79" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B79" s="12" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="24" customHeight="1">
-      <c r="A70" s="8" t="s">
+    <row r="80" spans="1:3" ht="24" customHeight="1">
+      <c r="B80" s="13" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="24" customHeight="1">
+      <c r="A82" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="24" customHeight="1">
+      <c r="A83" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="24" customHeight="1">
+      <c r="B84" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="178" customHeight="1">
+      <c r="B85" s="11"/>
+    </row>
+    <row r="87" spans="1:3" ht="24" customHeight="1">
+      <c r="A87" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="24" customHeight="1">
+      <c r="A88" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="24" customHeight="1">
+      <c r="B89" s="11"/>
+    </row>
+    <row r="91" spans="1:3" ht="24" customHeight="1">
+      <c r="A91" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="24" customHeight="1">
+      <c r="A92" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B70" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="24" customHeight="1">
-      <c r="B71" s="11"/>
-    </row>
-    <row r="74" spans="1:3" ht="24" customHeight="1">
-      <c r="A74" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="24" customHeight="1">
-      <c r="B75" s="13" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="24" customHeight="1">
-      <c r="A77" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="24" customHeight="1">
-      <c r="A78" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="24" customHeight="1">
-      <c r="B79" s="11"/>
-    </row>
-    <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="A81" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="24" customHeight="1">
-      <c r="A82" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="24" customHeight="1">
-      <c r="B83" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="178" customHeight="1">
-      <c r="B84" s="11"/>
-    </row>
-    <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="A86" s="7" t="s">
+      <c r="B92" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="C92" s="10" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="A87" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B87" s="9" t="s">
+    <row r="93" spans="1:3" ht="24" customHeight="1">
+      <c r="B93" s="11"/>
+    </row>
+    <row r="95" spans="1:3" ht="24" customHeight="1">
+      <c r="A95" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="B95" s="9" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="24" customHeight="1">
-      <c r="B88" s="11"/>
-    </row>
-    <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="A90" s="7" t="s">
+    <row r="96" spans="1:3" ht="24" customHeight="1">
+      <c r="A96" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B96" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="C96" s="10" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="A91" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B91" s="9" t="s">
+    <row r="97" spans="1:3" ht="24" customHeight="1">
+      <c r="B97" s="11"/>
+    </row>
+    <row r="99" spans="1:3" ht="24" customHeight="1">
+      <c r="A99" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="B99" s="9" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="24" customHeight="1">
-      <c r="B92" s="11"/>
-    </row>
-    <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="A95" s="12" t="s">
+    <row r="100" spans="1:3" ht="24" customHeight="1">
+      <c r="A100" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B100" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="B95" s="12" t="s">
+      <c r="C100" s="10" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="B96" s="13" t="s">
+    <row r="101" spans="1:3" ht="24" customHeight="1">
+      <c r="B101" s="11"/>
+    </row>
+    <row r="103" spans="1:3" ht="24" customHeight="1">
+      <c r="A103" s="9" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" ht="24" customHeight="1">
-      <c r="A98" s="7" t="s">
+      <c r="B103" s="9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="24" customHeight="1">
+      <c r="A104" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="C104" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="B98" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="A99" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="B100" s="11"/>
-    </row>
-    <row r="102" spans="1:3" ht="24" customHeight="1">
-      <c r="A102" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="B104" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="178" customHeight="1">
+    </row>
+    <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="B105" s="11"/>
-    </row>
-    <row r="107" spans="1:3" ht="24" customHeight="1">
-      <c r="A107" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="A108" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="24" customHeight="1">
-      <c r="B109" s="11"/>
-    </row>
-    <row r="111" spans="1:3" ht="24" customHeight="1">
-      <c r="A111" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="24" customHeight="1">
-      <c r="A112" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="24" customHeight="1">
-      <c r="B113" s="11"/>
-    </row>
-    <row r="115" spans="1:3" ht="24" customHeight="1">
-      <c r="A115" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="24" customHeight="1">
-      <c r="A116" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="24" customHeight="1">
-      <c r="B117" s="11"/>
-    </row>
-    <row r="119" spans="1:3" ht="24" customHeight="1">
-      <c r="A119" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="A120" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="B121" s="11"/>
-    </row>
-    <row r="123" spans="1:3" ht="24" customHeight="1">
-      <c r="A123" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="24" customHeight="1">
-      <c r="A124" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="24" customHeight="1">
-      <c r="B125" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="15">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
+    </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
       <formula1>-1000000.0</formula1>
       <formula2>1000000.0</formula2>
@@ -4890,44 +4662,40 @@
       <formula1>-1000000.0</formula1>
       <formula2>1000000.0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B71">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B88">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B92">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B109">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B89">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B113">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B117">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B121">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B101">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B125">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B105">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -4944,14 +4712,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>5</v>
@@ -4959,335 +4727,335 @@
     </row>
     <row r="2" spans="1:39" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>38</v>
+      <c r="A4" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>451</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:39" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>47</v>
+      <c r="A8" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:39" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>454</v>
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>50</v>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:39" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:39" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>456</v>
+      <c r="A13" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:39" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>458</v>
+      <c r="A14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:39" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:39" ht="24" customHeight="1">
       <c r="B16" s="11"/>
-      <c r="AA16" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="AB16" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="AC16" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="AD16" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="AE16" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="AF16" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="AG16" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="AH16" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="AI16" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="AJ16" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="AK16" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="AL16" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="AM16" s="5" t="s">
-        <v>471</v>
+      <c r="AA16" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="AB16" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="AC16" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AD16" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="AE16" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AF16" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AG16" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="AH16" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AI16" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="AJ16" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AK16" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="AL16" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="AM16" s="6" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="24" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>473</v>
+      <c r="A18" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>475</v>
+      <c r="A19" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="24" customHeight="1">
       <c r="B20" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:35" ht="24" customHeight="1">
       <c r="B21" s="11"/>
-      <c r="AA21" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="AB21" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="AC21" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="AD21" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE21" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="AF21" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="AG21" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="AH21" s="5" t="s">
-        <v>60</v>
+      <c r="AA21" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="AG21" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="AH21" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="24" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>483</v>
+      <c r="A23" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="24" spans="1:35" ht="24" customHeight="1">
-      <c r="A24" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>485</v>
+      <c r="A24" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="24" customHeight="1">
       <c r="B25" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:35" ht="24" customHeight="1">
       <c r="B26" s="11"/>
-      <c r="AA26" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="AB26" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="AC26" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="AD26" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="AE26" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="AF26" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="AG26" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="AH26" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="AI26" s="5" t="s">
-        <v>60</v>
+      <c r="AA26" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="AB26" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="AC26" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="AD26" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="AE26" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="AF26" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="AG26" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="AH26" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="AI26" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="24" customHeight="1">
-      <c r="A28" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>495</v>
+      <c r="A28" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="24" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>497</v>
+      <c r="A29" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="24" customHeight="1">
       <c r="B30" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:35" ht="24" customHeight="1">
       <c r="B31" s="11"/>
-      <c r="AA31" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="AB31" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="AC31" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="AD31" s="5" t="s">
-        <v>60</v>
+      <c r="AA31" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="AB31" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="AC31" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="AD31" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:40" ht="24" customHeight="1">
-      <c r="A33" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>502</v>
+      <c r="A33" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="34" spans="1:40" ht="24" customHeight="1">
-      <c r="A34" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>503</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>504</v>
+      <c r="A34" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="35" spans="1:40" ht="24" customHeight="1">
       <c r="B35" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:40" ht="24" customHeight="1">
       <c r="B36" s="11"/>
-      <c r="AA36" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="AB36" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="AC36" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="AD36" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="AE36" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="AF36" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="AG36" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="AH36" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="AI36" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="AJ36" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="AK36" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="AL36" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="AM36" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="AN36" s="5" t="s">
-        <v>60</v>
+      <c r="AA36" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="AB36" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="AC36" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="AD36" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="AE36" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="AF36" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="AG36" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="AH36" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="AI36" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="AJ36" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="AK36" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="AL36" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="AM36" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="AN36" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_aerosol.xlsx
+++ b/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_aerosol.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="504">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -162,6 +162,9 @@
     <t>cmip6.aerosol.key_properties.name</t>
   </si>
   <si>
+    <t>MASINGAR mk-2</t>
+  </si>
+  <si>
     <t>1.1.1.2 *</t>
   </si>
   <si>
@@ -192,6 +195,9 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
+    <t>References: Yukimoto et al. 2011;Yukimoto et al. 2012; Adachi et al. 2013</t>
+  </si>
+  <si>
     <t>1.1.1.4 *</t>
   </si>
   <si>
@@ -207,12 +213,12 @@
     <t>cmip6.aerosol.key_properties.scheme_scope</t>
   </si>
   <si>
+    <t>Stratosphere</t>
+  </si>
+  <si>
     <t>Troposphere</t>
   </si>
   <si>
-    <t>Stratosphere</t>
-  </si>
-  <si>
     <t>Mesosphere</t>
   </si>
   <si>
@@ -234,6 +240,9 @@
     <t>cmip6.aerosol.key_properties.basic_approximations</t>
   </si>
   <si>
+    <t>Ideal gas, primitive equations, external mixture</t>
+  </si>
+  <si>
     <t>1.1.1.6 *</t>
   </si>
   <si>
@@ -348,6 +357,9 @@
     <t>cmip6.aerosol.key_properties.timestep_framework.method</t>
   </si>
   <si>
+    <t>Other: specific time stepping (integrated)</t>
+  </si>
+  <si>
     <t>Uses atmospheric chemistry time stepping</t>
   </si>
   <si>
@@ -744,15 +756,18 @@
     <t>cmip6.aerosol.transport.mass_conservation_scheme</t>
   </si>
   <si>
+    <t>Concentrations positivity</t>
+  </si>
+  <si>
     <t>Mass adjustment</t>
   </si>
   <si>
-    <t>Concentrations positivity</t>
-  </si>
-  <si>
     <t>Gradients monotonicity</t>
   </si>
   <si>
+    <t>Other: gradients monotony</t>
+  </si>
+  <si>
     <t>3.1.1.5 *</t>
   </si>
   <si>
@@ -987,6 +1002,9 @@
     <t>cmip6.aerosol.concentrations.prescribed_lower_boundary</t>
   </si>
   <si>
+    <t>OCS</t>
+  </si>
+  <si>
     <t xml:space="preserve">5.1.1.4 </t>
   </si>
   <si>
@@ -1323,6 +1341,10 @@
     <t>cmip6.aerosol.model.overview</t>
   </si>
   <si>
+    <t>Coupling With: snow albedo on sea ice_x000D_
+Gas Phase Precursors: SO3</t>
+  </si>
+  <si>
     <t>7.1.1.3 *</t>
   </si>
   <si>
@@ -1335,6 +1357,9 @@
     <t>cmip6.aerosol.model.processes</t>
   </si>
   <si>
+    <t>Advection (horizontal)</t>
+  </si>
+  <si>
     <t>Dry deposition</t>
   </si>
   <si>
@@ -1362,9 +1387,6 @@
     <t>Ageing</t>
   </si>
   <si>
-    <t>Advection (horizontal)</t>
-  </si>
-  <si>
     <t>Advection (vertical)</t>
   </si>
   <si>
@@ -1386,15 +1408,15 @@
     <t>cmip6.aerosol.model.coupling</t>
   </si>
   <si>
+    <t>Clouds</t>
+  </si>
+  <si>
     <t>Radiation</t>
   </si>
   <si>
     <t>Land surface</t>
   </si>
   <si>
-    <t>Clouds</t>
-  </si>
-  <si>
     <t>Ocean</t>
   </si>
   <si>
@@ -1404,6 +1426,12 @@
     <t>Gas phase chemistry</t>
   </si>
   <si>
+    <t>Other: heterogeneouschemistry</t>
+  </si>
+  <si>
+    <t>Other: landsurface</t>
+  </si>
+  <si>
     <t>7.1.1.5 *</t>
   </si>
   <si>
@@ -1452,15 +1480,15 @@
     <t>cmip6.aerosol.model.scheme_type</t>
   </si>
   <si>
+    <t>Bin</t>
+  </si>
+  <si>
     <t>Bulk</t>
   </si>
   <si>
     <t>Modal</t>
   </si>
   <si>
-    <t>Bin</t>
-  </si>
-  <si>
     <t>7.1.1.7 *</t>
   </si>
   <si>
@@ -1473,6 +1501,9 @@
     <t>cmip6.aerosol.model.bulk_scheme_species</t>
   </si>
   <si>
+    <t>Black carbon / soot</t>
+  </si>
+  <si>
     <t>Sulphate</t>
   </si>
   <si>
@@ -1486,9 +1517,6 @@
   </si>
   <si>
     <t>Organic</t>
-  </si>
-  <si>
-    <t>Black carbon / soot</t>
   </si>
   <si>
     <t>SOA (secondary organic aerosols)</t>
@@ -2235,7 +2263,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD145"/>
+  <dimension ref="A1:XFD146"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2280,14 +2308,16 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -2295,15 +2325,15 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
@@ -2311,10 +2341,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -2322,37 +2352,39 @@
         <v>43</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
-      <c r="B16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
@@ -2361,741 +2393,778 @@
       </c>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
-      <c r="B21" s="11"/>
+      <c r="B21" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="AA21" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" ht="24" customHeight="1">
+      <c r="B22" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB22" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AD21" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE21" s="6" t="s">
+      <c r="AC22" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="1:31" ht="24" customHeight="1">
-      <c r="A23" s="9" t="s">
+      <c r="AD22" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="AE22" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" ht="24" customHeight="1">
+      <c r="A25" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" ht="24" customHeight="1">
-      <c r="B25" s="11"/>
-    </row>
-    <row r="27" spans="1:31" ht="24" customHeight="1">
-      <c r="A27" s="9" t="s">
+      <c r="B25" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="C25" s="10" t="s">
         <v>71</v>
       </c>
     </row>
+    <row r="26" spans="1:31" ht="24" customHeight="1">
+      <c r="B26" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
-      <c r="A28" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>73</v>
       </c>
+      <c r="B28" s="9" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
+      <c r="A29" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="B29" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" ht="24" customHeight="1">
+      <c r="B30" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="24" customHeight="1">
-      <c r="B30" s="11"/>
-      <c r="AA30" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB30" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC30" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" ht="24" customHeight="1">
-      <c r="A32" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" s="9" t="s">
+    <row r="31" spans="1:31" ht="24" customHeight="1">
+      <c r="B31" s="11" t="s">
         <v>77</v>
       </c>
+      <c r="AA31" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB31" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC31" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="B34" s="11"/>
-    </row>
-    <row r="36" spans="1:3" ht="24" customHeight="1">
-      <c r="A36" s="9" t="s">
+      <c r="A34" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B34" s="10" t="s">
         <v>82</v>
       </c>
+      <c r="C34" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="24" customHeight="1">
+      <c r="B35" s="11">
+        <v>20</v>
+      </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="10" t="s">
+      <c r="A37" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="B38" s="11"/>
-    </row>
-    <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="A41" s="12" t="s">
+      <c r="A38" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B38" s="10" t="s">
         <v>87</v>
       </c>
+      <c r="C38" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="24" customHeight="1">
+      <c r="B39" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="B42" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="24" customHeight="1">
-      <c r="A44" s="9" t="s">
+      <c r="A42" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B42" s="12" t="s">
         <v>90</v>
       </c>
     </row>
+    <row r="43" spans="1:3" ht="24" customHeight="1">
+      <c r="B43" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="24" customHeight="1">
+      <c r="A46" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="24" customHeight="1">
-      <c r="B46" s="11"/>
-    </row>
-    <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="A48" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B48" s="9" t="s">
+      <c r="B46" s="10" t="s">
         <v>94</v>
       </c>
+      <c r="C46" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="24" customHeight="1">
+      <c r="B47" s="11"/>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" ht="24" customHeight="1">
+      <c r="A50" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:30" ht="24" customHeight="1">
-      <c r="B50" s="11"/>
-    </row>
-    <row r="52" spans="1:30" ht="24" customHeight="1">
-      <c r="A52" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B52" s="9" t="s">
+      <c r="B50" s="10" t="s">
         <v>98</v>
       </c>
+      <c r="C50" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" ht="24" customHeight="1">
+      <c r="B51" s="11"/>
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" ht="24" customHeight="1">
+      <c r="A54" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30" ht="24" customHeight="1">
-      <c r="B54" s="8" t="s">
-        <v>50</v>
+      <c r="B54" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
-      <c r="B55" s="11"/>
-    </row>
-    <row r="58" spans="1:30" ht="24" customHeight="1">
-      <c r="A58" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>102</v>
-      </c>
+      <c r="B55" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" ht="24" customHeight="1">
+      <c r="B56" s="11"/>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
-      <c r="B59" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="61" spans="1:30" ht="24" customHeight="1">
-      <c r="A61" s="9" t="s">
+      <c r="A59" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B59" s="12" t="s">
         <v>105</v>
       </c>
     </row>
+    <row r="60" spans="1:30" ht="24" customHeight="1">
+      <c r="B60" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
-      <c r="A62" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C62" s="10" t="s">
+      <c r="A62" s="9" t="s">
         <v>107</v>
       </c>
+      <c r="B62" s="9" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
-      <c r="B63" s="11"/>
-      <c r="AA63" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB63" s="6" t="s">
+      <c r="A63" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AC63" s="6" t="s">
+      <c r="C63" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AD63" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" spans="1:35" ht="24" customHeight="1">
-      <c r="A65" s="9" t="s">
+    </row>
+    <row r="64" spans="1:30" ht="24" customHeight="1">
+      <c r="B64" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="AA64" s="6" t="s">
         <v>112</v>
       </c>
+      <c r="AB64" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC64" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD64" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="66" spans="1:35" ht="24" customHeight="1">
-      <c r="A66" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>114</v>
+      <c r="A66" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:35" ht="24" customHeight="1">
-      <c r="B67" s="11"/>
-    </row>
-    <row r="69" spans="1:35" ht="24" customHeight="1">
-      <c r="A69" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>116</v>
-      </c>
+      <c r="A67" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35" ht="24" customHeight="1">
+      <c r="B68" s="11"/>
     </row>
     <row r="70" spans="1:35" ht="24" customHeight="1">
-      <c r="A70" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>118</v>
+      <c r="A70" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:35" ht="24" customHeight="1">
-      <c r="B71" s="11"/>
-    </row>
-    <row r="73" spans="1:35" ht="24" customHeight="1">
-      <c r="A73" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="A71" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:35" ht="24" customHeight="1">
+      <c r="B72" s="11"/>
     </row>
     <row r="74" spans="1:35" ht="24" customHeight="1">
-      <c r="A74" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>122</v>
+      <c r="A74" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="75" spans="1:35" ht="24" customHeight="1">
-      <c r="B75" s="11"/>
-    </row>
-    <row r="77" spans="1:35" ht="24" customHeight="1">
-      <c r="A77" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>124</v>
+      <c r="A75" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="76" spans="1:35" ht="24" customHeight="1">
+      <c r="B76" s="11">
+        <v>900</v>
       </c>
     </row>
     <row r="78" spans="1:35" ht="24" customHeight="1">
-      <c r="A78" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>126</v>
+      <c r="A78" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="1:35" ht="24" customHeight="1">
-      <c r="B79" s="11"/>
-      <c r="AA79" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB79" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC79" s="6" t="s">
+      <c r="A79" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B79" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="AD79" s="6" t="s">
+      <c r="C79" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="AE79" s="6" t="s">
+    </row>
+    <row r="80" spans="1:35" ht="24" customHeight="1">
+      <c r="B80" s="11"/>
+      <c r="AA80" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="AF79" s="6" t="s">
+      <c r="AB80" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="AG79" s="6" t="s">
+      <c r="AC80" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="AH79" s="6" t="s">
+      <c r="AD80" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="AI79" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="24" customHeight="1">
-      <c r="A82" s="12" t="s">
+      <c r="AE80" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B82" s="12" t="s">
+      <c r="AF80" s="6" t="s">
         <v>136</v>
       </c>
+      <c r="AG80" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH80" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI80" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="83" spans="1:3" ht="24" customHeight="1">
-      <c r="B83" s="13"/>
-    </row>
-    <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="A85" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>138</v>
-      </c>
+      <c r="A83" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="24" customHeight="1">
+      <c r="B84" s="13"/>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="A86" s="14" t="s">
+      <c r="A86" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="24" customHeight="1">
+      <c r="A87" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B86" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="B87" s="8" t="s">
-        <v>50</v>
+      <c r="B87" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
-      <c r="B88" s="11"/>
-    </row>
-    <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="A90" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>142</v>
-      </c>
+      <c r="B88" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="24" customHeight="1">
+      <c r="B89" s="11"/>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="A91" s="14" t="s">
+      <c r="A91" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="24" customHeight="1">
+      <c r="A92" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B91" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="24" customHeight="1">
-      <c r="B92" s="8" t="s">
-        <v>50</v>
+      <c r="B92" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
-      <c r="B93" s="11"/>
-    </row>
-    <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="A95" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>146</v>
-      </c>
+      <c r="B93" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="24" customHeight="1">
+      <c r="B94" s="11"/>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="A96" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B96" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>148</v>
+      <c r="A96" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
-      <c r="B97" s="11"/>
-    </row>
-    <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="A100" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B100" s="12" t="s">
-        <v>150</v>
-      </c>
+      <c r="A97" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="24" customHeight="1">
+      <c r="B98" s="11"/>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="B101" s="13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B103" s="9" t="s">
+      <c r="A101" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="24" customHeight="1">
+      <c r="B102" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="24" customHeight="1">
+      <c r="A104" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B104" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="A104" s="14" t="s">
+    <row r="105" spans="1:3" ht="24" customHeight="1">
+      <c r="A105" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B104" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="B105" s="11"/>
-    </row>
-    <row r="107" spans="1:3" ht="24" customHeight="1">
-      <c r="A107" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>156</v>
-      </c>
+      <c r="B105" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="24" customHeight="1">
+      <c r="B106" s="11"/>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="A108" s="14" t="s">
+      <c r="A108" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="24" customHeight="1">
+      <c r="A109" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B108" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="24" customHeight="1">
-      <c r="B109" s="11"/>
-    </row>
-    <row r="111" spans="1:3" ht="24" customHeight="1">
-      <c r="A111" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="B109" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="24" customHeight="1">
+      <c r="B110" s="11"/>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
-      <c r="A112" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>162</v>
+      <c r="A112" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
-      <c r="B113" s="11"/>
-    </row>
-    <row r="115" spans="1:3" ht="24" customHeight="1">
-      <c r="A115" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B115" s="9" t="s">
-        <v>164</v>
-      </c>
+      <c r="A113" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="24" customHeight="1">
+      <c r="B114" s="11"/>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
-      <c r="A116" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>166</v>
+      <c r="A116" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
-      <c r="B117" s="11"/>
-    </row>
-    <row r="119" spans="1:3" ht="24" customHeight="1">
-      <c r="A119" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>168</v>
-      </c>
+      <c r="A117" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="24" customHeight="1">
+      <c r="B118" s="11"/>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="A120" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B120" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>170</v>
+      <c r="A120" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="B121" s="11"/>
-    </row>
-    <row r="124" spans="1:3" ht="24" customHeight="1">
-      <c r="A124" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="B124" s="12" t="s">
-        <v>172</v>
-      </c>
+      <c r="A121" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="24" customHeight="1">
+      <c r="B122" s="11"/>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
-      <c r="B125" s="13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="24" customHeight="1">
-      <c r="A127" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="B127" s="9" t="s">
+      <c r="A125" s="12" t="s">
         <v>175</v>
       </c>
+      <c r="B125" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="24" customHeight="1">
+      <c r="B126" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="128" spans="1:3" ht="24" customHeight="1">
-      <c r="A128" s="14" t="s">
+      <c r="A128" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="24" customHeight="1">
+      <c r="A129" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B128" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="24" customHeight="1">
-      <c r="B129" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="178" customHeight="1">
-      <c r="B130" s="11"/>
-    </row>
-    <row r="132" spans="1:3" ht="24" customHeight="1">
-      <c r="A132" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>179</v>
-      </c>
+      <c r="B129" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="24" customHeight="1">
+      <c r="B130" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="178" customHeight="1">
+      <c r="B131" s="11"/>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
-      <c r="A133" s="14" t="s">
+      <c r="A133" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="24" customHeight="1">
+      <c r="A134" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B133" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="24" customHeight="1">
-      <c r="B134" s="8" t="s">
-        <v>50</v>
+      <c r="B134" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
-      <c r="B135" s="11"/>
-    </row>
-    <row r="137" spans="1:3" ht="24" customHeight="1">
-      <c r="A137" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>183</v>
-      </c>
+      <c r="B135" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="24" customHeight="1">
+      <c r="B136" s="11"/>
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
-      <c r="A138" s="14" t="s">
+      <c r="A138" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="24" customHeight="1">
+      <c r="A139" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B138" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="24" customHeight="1">
-      <c r="B139" s="8" t="s">
-        <v>50</v>
+      <c r="B139" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
-      <c r="B140" s="11"/>
-    </row>
-    <row r="142" spans="1:3" ht="24" customHeight="1">
-      <c r="A142" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>187</v>
-      </c>
+      <c r="B140" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="24" customHeight="1">
+      <c r="B141" s="11"/>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
-      <c r="A143" s="14" t="s">
+      <c r="A143" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="24" customHeight="1">
+      <c r="A144" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B143" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="24" customHeight="1">
-      <c r="B144" s="8" t="s">
-        <v>50</v>
+      <c r="B144" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="145" spans="2:2" ht="24" customHeight="1">
-      <c r="B145" s="11"/>
+      <c r="B145" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" ht="24" customHeight="1">
+      <c r="B146" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="13">
+  <dataValidations count="14">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
       <formula1>AA21:AE21</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
-      <formula1>AA30:AC30</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
+      <formula1>AA22:AE22</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+      <formula1>AA31:AC31</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
-      <formula1>AA63:AD63</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B64">
+      <formula1>AA64:AD64</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B71">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B75">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B79">
-      <formula1>AA79:AI79</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B80">
+      <formula1>AA80:AI80</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B98">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B113">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B114">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B117">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B118">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B121">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B122">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3119,20 +3188,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -3143,10 +3212,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3154,10 +3223,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3165,15 +3234,15 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -3181,21 +3250,21 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3203,20 +3272,20 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>42</v>
@@ -3227,10 +3296,10 @@
         <v>43</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -3238,10 +3307,10 @@
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
@@ -3249,10 +3318,10 @@
         <v>43</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
@@ -3260,21 +3329,21 @@
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
@@ -3282,21 +3351,21 @@
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -3304,21 +3373,21 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
@@ -3345,7 +3414,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD25"/>
+  <dimension ref="A1:XFD28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3359,20 +3428,20 @@
   <sheetData>
     <row r="1" spans="1:31" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -3383,10 +3452,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="24" customHeight="1">
@@ -3394,10 +3463,10 @@
     </row>
     <row r="8" spans="1:31" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="24" customHeight="1">
@@ -3405,15 +3474,15 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="178" customHeight="1">
@@ -3421,58 +3490,58 @@
     </row>
     <row r="13" spans="1:31" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AE15" s="6" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
@@ -3481,72 +3550,142 @@
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>244</v>
+      </c>
       <c r="AA20" s="6" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AE20" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" ht="24" customHeight="1">
+      <c r="B21" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA21" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA22" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB22" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC22" s="6" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="23" spans="1:31" ht="24" customHeight="1">
-      <c r="A23" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C23" s="10" t="s">
+      <c r="AD22" s="6" t="s">
         <v>246</v>
       </c>
+      <c r="AE22" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
-      <c r="B24" s="10" t="s">
+      <c r="A24" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" ht="24" customHeight="1">
+      <c r="A25" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" ht="24" customHeight="1">
+      <c r="B26" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="24" customHeight="1">
-      <c r="B25" s="11"/>
-      <c r="AA25" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="AB25" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="AC25" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="AD25" s="6" t="s">
-        <v>65</v>
+    <row r="27" spans="1:31" ht="24" customHeight="1">
+      <c r="B27" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA27" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB27" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="AC27" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="AD27" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" ht="24" customHeight="1">
+      <c r="B28" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA28" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB28" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="AC28" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="AD28" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>AA15:AE15</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>AA20:AE20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
-      <formula1>AA25:AD25</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
+      <formula1>AA21:AE21</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
+      <formula1>AA22:AE22</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
+      <formula1>AA27:AD27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
+      <formula1>AA28:AD28</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3569,20 +3708,20 @@
   <sheetData>
     <row r="1" spans="1:33" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -3593,10 +3732,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="24" customHeight="1">
@@ -3604,10 +3743,10 @@
     </row>
     <row r="8" spans="1:33" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="24" customHeight="1">
@@ -3615,15 +3754,15 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:33" ht="178" customHeight="1">
@@ -3631,21 +3770,21 @@
     </row>
     <row r="13" spans="1:33" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:33" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:33" ht="24" customHeight="1">
@@ -3656,44 +3795,44 @@
     <row r="16" spans="1:33" ht="24" customHeight="1">
       <c r="B16" s="11"/>
       <c r="AA16" s="6" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="AE16" s="6" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="AF16" s="6" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="24" customHeight="1">
@@ -3704,76 +3843,76 @@
     <row r="21" spans="1:35" ht="24" customHeight="1">
       <c r="B21" s="11"/>
       <c r="AA21" s="6" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AF21" s="6" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="AG21" s="6" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="AH21" s="6" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="AI21" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="24" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:35" ht="24" customHeight="1">
       <c r="A24" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="24" customHeight="1">
       <c r="B25" s="11"/>
       <c r="AA25" s="6" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="AE25" s="6" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="24" customHeight="1">
@@ -3781,15 +3920,15 @@
         <v>43</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="24" customHeight="1">
       <c r="B29" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="24" customHeight="1">
@@ -3797,10 +3936,10 @@
     </row>
     <row r="32" spans="1:35" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
@@ -3808,15 +3947,15 @@
         <v>43</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -3824,10 +3963,10 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -3835,15 +3974,15 @@
         <v>43</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
@@ -3851,10 +3990,10 @@
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -3862,15 +4001,15 @@
         <v>43</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="B44" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
@@ -3878,10 +4017,10 @@
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
@@ -3889,10 +4028,10 @@
         <v>43</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="49" spans="2:2" ht="24" customHeight="1">
@@ -3930,20 +4069,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -3954,10 +4093,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3965,10 +4104,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3976,15 +4115,15 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -3992,10 +4131,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -4003,26 +4142,28 @@
         <v>43</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="24" customHeight="1">
-      <c r="B16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -4030,15 +4171,15 @@
         <v>43</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
       <c r="B20" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
@@ -4046,10 +4187,10 @@
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -4057,15 +4198,15 @@
         <v>43</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
       <c r="B25" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
@@ -4073,10 +4214,10 @@
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
@@ -4084,15 +4225,15 @@
         <v>43</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
@@ -4119,20 +4260,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -4143,10 +4284,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -4154,10 +4295,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -4165,15 +4306,15 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -4181,34 +4322,34 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -4216,21 +4357,21 @@
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -4238,21 +4379,21 @@
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
@@ -4260,10 +4401,10 @@
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
@@ -4271,21 +4412,21 @@
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -4293,21 +4434,21 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
@@ -4315,10 +4456,10 @@
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -4326,10 +4467,10 @@
         <v>43</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -4337,34 +4478,34 @@
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="A46" s="12" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="B47" s="13" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
@@ -4372,21 +4513,21 @@
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -4394,21 +4535,21 @@
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
       <c r="A58" s="14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
@@ -4416,23 +4557,23 @@
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="B63" s="13" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
@@ -4440,15 +4581,15 @@
         <v>43</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="B67" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="178" customHeight="1">
@@ -4456,21 +4597,21 @@
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
       <c r="A71" s="14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
@@ -4478,21 +4619,21 @@
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="A75" s="14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
@@ -4500,23 +4641,23 @@
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="A79" s="12" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
       <c r="B80" s="13" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="24" customHeight="1">
@@ -4524,15 +4665,15 @@
         <v>43</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
       <c r="B84" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="178" customHeight="1">
@@ -4540,21 +4681,21 @@
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
       <c r="A87" s="9" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="A88" s="14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
@@ -4562,21 +4703,21 @@
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
       <c r="A92" s="14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
@@ -4584,21 +4725,21 @@
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
       <c r="A96" s="14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
@@ -4606,21 +4747,21 @@
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="A100" s="14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
@@ -4628,21 +4769,21 @@
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
       <c r="A103" s="9" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="A104" s="14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
@@ -4705,7 +4846,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD36"/>
+  <dimension ref="A1:XFD55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4719,7 +4860,7 @@
   <sheetData>
     <row r="1" spans="1:39" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>5</v>
@@ -4727,12 +4868,12 @@
     </row>
     <row r="2" spans="1:39" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -4743,10 +4884,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="24" customHeight="1">
@@ -4754,10 +4895,10 @@
     </row>
     <row r="8" spans="1:39" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:39" ht="24" customHeight="1">
@@ -4765,37 +4906,39 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:39" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="13" spans="1:39" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:39" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:39" ht="24" customHeight="1">
@@ -4804,276 +4947,1095 @@
       </c>
     </row>
     <row r="16" spans="1:39" ht="24" customHeight="1">
-      <c r="B16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>444</v>
+      </c>
       <c r="AA16" s="6" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="AE16" s="6" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="AF16" s="6" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="AH16" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="AI16" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="AJ16" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="AI16" s="6" t="s">
+      <c r="AK16" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="AL16" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="AM16" s="6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" ht="24" customHeight="1">
+      <c r="B17" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="AA17" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="AJ16" s="6" t="s">
+      <c r="AB17" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="AK16" s="6" t="s">
+      <c r="AC17" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="AL16" s="6" t="s">
+      <c r="AD17" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="AM16" s="6" t="s">
+      <c r="AE17" s="6" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="18" spans="1:35" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
+      <c r="AF17" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="AG17" s="6" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="19" spans="1:35" ht="24" customHeight="1">
-      <c r="A19" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="10" t="s">
+      <c r="AH17" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="AI17" s="6" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="20" spans="1:35" ht="24" customHeight="1">
-      <c r="B20" s="10" t="s">
+      <c r="AJ17" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AK17" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="AL17" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="AM17" s="6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" ht="24" customHeight="1">
+      <c r="B18" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA18" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="AB18" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AC18" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="AD18" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="AE18" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="AF18" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="AG18" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="AH18" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="AI18" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="AJ18" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AK18" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="AL18" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="AM18" s="6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" ht="24" customHeight="1">
+      <c r="B19" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="AA19" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="AB19" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AC19" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="AD19" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="AE19" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="AF19" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="AG19" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="AH19" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="AI19" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="AJ19" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AK19" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="AL19" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="AM19" s="6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" ht="24" customHeight="1">
+      <c r="B20" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="AA20" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="AB20" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AC20" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="AD20" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="AE20" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="AF20" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="AG20" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="AH20" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="AI20" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="AJ20" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AK20" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="AL20" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="AM20" s="6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" ht="24" customHeight="1">
+      <c r="B21" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="AA21" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="AG21" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="AH21" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="AI21" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="AJ21" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AK21" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="AL21" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="AM21" s="6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" ht="24" customHeight="1">
+      <c r="B22" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="AA22" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="AB22" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AC22" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="AD22" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="AE22" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="AF22" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="AG22" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="AH22" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="AI22" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="AJ22" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AK22" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="AL22" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="AM22" s="6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" ht="24" customHeight="1">
+      <c r="B23" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="AD23" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="AE23" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="AF23" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="AG23" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="AH23" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="AI23" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="AJ23" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AK23" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="AL23" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="AM23" s="6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" ht="24" customHeight="1">
+      <c r="B24" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="AA24" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="AB24" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AC24" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="AD24" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="AE24" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="AF24" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="AG24" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="AH24" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="AI24" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="AJ24" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AK24" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="AL24" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="AM24" s="6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" ht="24" customHeight="1">
+      <c r="B25" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="AA25" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="AE25" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="AF25" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="AG25" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="AH25" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="AI25" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="AJ25" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AK25" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="AL25" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="AM25" s="6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" ht="24" customHeight="1">
+      <c r="A27" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" ht="24" customHeight="1">
+      <c r="A28" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" ht="24" customHeight="1">
+      <c r="B29" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="24" customHeight="1">
-      <c r="B21" s="11"/>
-      <c r="AA21" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="AB21" s="6" t="s">
+    <row r="30" spans="1:39" ht="24" customHeight="1">
+      <c r="B30" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="AA30" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="AB30" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="AC30" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="AC21" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="AD21" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="AE21" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="AF21" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="AG21" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="AH21" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35" ht="24" customHeight="1">
-      <c r="A23" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="B23" s="9" t="s">
+      <c r="AD30" s="6" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="24" spans="1:35" ht="24" customHeight="1">
-      <c r="A24" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="10" t="s">
+      <c r="AE30" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="AF30" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="AG30" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="AH30" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" ht="24" customHeight="1">
+      <c r="B31" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="AA31" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="AB31" s="6" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="25" spans="1:35" ht="24" customHeight="1">
-      <c r="B25" s="10" t="s">
+      <c r="AC31" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="AD31" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="AE31" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="AF31" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="AG31" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="AH31" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" ht="24" customHeight="1">
+      <c r="B32" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="AA32" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="AB32" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="AC32" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="AD32" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="AE32" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="AF32" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="AG32" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="AH32" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" ht="24" customHeight="1">
+      <c r="B33" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="AA33" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="AB33" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="AC33" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="AD33" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="AE33" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="AF33" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="AG33" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="AH33" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" ht="24" customHeight="1">
+      <c r="A35" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" ht="24" customHeight="1">
+      <c r="A36" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" ht="24" customHeight="1">
+      <c r="B37" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="24" customHeight="1">
-      <c r="B26" s="11"/>
-      <c r="AA26" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="AB26" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="AC26" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="AD26" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="AE26" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="AF26" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="AG26" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="AH26" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="AI26" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:35" ht="24" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="B28" s="9" t="s">
+    <row r="38" spans="1:35" ht="24" customHeight="1">
+      <c r="B38" s="11" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="29" spans="1:35" ht="24" customHeight="1">
-      <c r="A29" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="10" t="s">
+      <c r="AA38" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="AB38" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="AC38" s="6" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="30" spans="1:35" ht="24" customHeight="1">
-      <c r="B30" s="10" t="s">
+      <c r="AD38" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="AE38" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="AF38" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="AG38" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="AH38" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="AI38" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" ht="24" customHeight="1">
+      <c r="B39" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="AA39" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="AB39" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="AC39" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="AD39" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="AE39" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="AF39" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="AG39" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="AH39" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="AI39" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" ht="24" customHeight="1">
+      <c r="B40" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="AA40" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="AB40" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="AC40" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="AD40" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="AE40" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="AF40" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="AG40" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="AH40" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="AI40" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35" ht="24" customHeight="1">
+      <c r="A42" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35" ht="24" customHeight="1">
+      <c r="A43" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35" ht="24" customHeight="1">
+      <c r="B44" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="24" customHeight="1">
-      <c r="B31" s="11"/>
-      <c r="AA31" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="AB31" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="AC31" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="AD31" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:40" ht="24" customHeight="1">
-      <c r="A33" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="34" spans="1:40" ht="24" customHeight="1">
-      <c r="A34" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>481</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="35" spans="1:40" ht="24" customHeight="1">
-      <c r="B35" s="10" t="s">
+    <row r="45" spans="1:35" ht="24" customHeight="1">
+      <c r="B45" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="AA45" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="AB45" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="AC45" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="AD45" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35" ht="24" customHeight="1">
+      <c r="B46" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="AA46" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="AB46" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="AC46" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="AD46" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35" ht="24" customHeight="1">
+      <c r="A48" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="49" spans="1:40" ht="24" customHeight="1">
+      <c r="A49" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="50" spans="1:40" ht="24" customHeight="1">
+      <c r="B50" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:40" ht="24" customHeight="1">
-      <c r="B36" s="11"/>
-      <c r="AA36" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="AB36" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="AC36" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="AD36" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="AE36" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="AF36" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="AG36" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="AH36" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="AI36" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="AJ36" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="AK36" s="6" t="s">
+    <row r="51" spans="1:40" ht="24" customHeight="1">
+      <c r="B51" s="11" t="s">
         <v>492</v>
       </c>
-      <c r="AL36" s="6" t="s">
+      <c r="AA51" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="AM36" s="6" t="s">
+      <c r="AB51" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="AN36" s="6" t="s">
-        <v>65</v>
+      <c r="AC51" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="AD51" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="AE51" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="AF51" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="AG51" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="AH51" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="AI51" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="AJ51" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="AK51" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="AL51" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="AM51" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="AN51" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:40" ht="24" customHeight="1">
+      <c r="B52" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="AA52" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="AB52" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="AC52" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="AD52" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="AE52" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="AF52" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="AG52" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="AH52" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="AI52" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="AJ52" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="AK52" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="AL52" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="AM52" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="AN52" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:40" ht="24" customHeight="1">
+      <c r="B53" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="AA53" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="AB53" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="AC53" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="AD53" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="AE53" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="AF53" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="AG53" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="AH53" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="AI53" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="AJ53" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="AK53" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="AL53" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="AM53" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="AN53" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:40" ht="24" customHeight="1">
+      <c r="B54" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="AA54" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="AB54" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="AC54" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="AD54" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="AE54" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="AF54" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="AG54" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="AH54" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="AI54" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="AJ54" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="AK54" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="AL54" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="AM54" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="AN54" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:40" ht="24" customHeight="1">
+      <c r="B55" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="AA55" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="AB55" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="AC55" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="AD55" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="AE55" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="AF55" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="AG55" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="AH55" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="AI55" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="AJ55" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="AK55" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="AL55" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="AM55" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="AN55" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
+  <dataValidations count="24">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
       <formula1>AA16:AM16</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+      <formula1>AA17:AM17</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
+      <formula1>AA18:AM18</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+      <formula1>AA19:AM19</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+      <formula1>AA20:AM20</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
-      <formula1>AA21:AH21</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
-      <formula1>AA26:AI26</formula1>
+      <formula1>AA21:AM21</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
+      <formula1>AA22:AM22</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+      <formula1>AA23:AM23</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
+      <formula1>AA24:AM24</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+      <formula1>AA25:AM25</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
+      <formula1>AA30:AH30</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>AA31:AD31</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36">
-      <formula1>AA36:AN36</formula1>
+      <formula1>AA31:AH31</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
+      <formula1>AA32:AH32</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
+      <formula1>AA33:AH33</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
+      <formula1>AA38:AI38</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
+      <formula1>AA39:AI39</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40">
+      <formula1>AA40:AI40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45">
+      <formula1>AA45:AD45</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46">
+      <formula1>AA46:AD46</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51">
+      <formula1>AA51:AN51</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52">
+      <formula1>AA52:AN52</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
+      <formula1>AA53:AN53</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54">
+      <formula1>AA54:AN54</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55">
+      <formula1>AA55:AN55</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_aerosol.xlsx
+++ b/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_aerosol.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yukimoto/Documents/研究計画・プロジェクト/CMIP6/Documentation/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BDC296-0613-3F48-BF4F-F7911DA1BC4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -23,12 +17,12 @@
     <sheet name="6. Optical Radiative Properties" sheetId="8" r:id="rId8"/>
     <sheet name="7. Model" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="506">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -168,6 +162,9 @@
     <t>cmip6.aerosol.key_properties.name</t>
   </si>
   <si>
+    <t>MASINGAR mk-2</t>
+  </si>
+  <si>
     <t>1.1.1.2 *</t>
   </si>
   <si>
@@ -198,6 +195,9 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
+    <t>References: Yukimoto et al. 2011;Yukimoto et al. 2012; Adachi et al. 2013</t>
+  </si>
+  <si>
     <t>1.1.1.4 *</t>
   </si>
   <si>
@@ -216,18 +216,24 @@
     <t>Stratosphere</t>
   </si>
   <si>
+    <t>troposphere</t>
+  </si>
+  <si>
+    <t>stratosphere</t>
+  </si>
+  <si>
+    <t>mesosphere</t>
+  </si>
+  <si>
+    <t>whole atmosphere</t>
+  </si>
+  <si>
+    <t>Other: document in cell to the right</t>
+  </si>
+  <si>
     <t>Troposphere</t>
   </si>
   <si>
-    <t>Mesosphere</t>
-  </si>
-  <si>
-    <t>Whole atmosphere</t>
-  </si>
-  <si>
-    <t>Other: document in cell to the right</t>
-  </si>
-  <si>
     <t>1.1.1.5 *</t>
   </si>
   <si>
@@ -240,6 +246,9 @@
     <t>cmip6.aerosol.key_properties.basic_approximations</t>
   </si>
   <si>
+    <t>Ideal gas, primitive equations, external mixture</t>
+  </si>
+  <si>
     <t>1.1.1.6 *</t>
   </si>
   <si>
@@ -354,6 +363,9 @@
     <t>cmip6.aerosol.key_properties.timestep_framework.method</t>
   </si>
   <si>
+    <t>Other: specific time stepping (integrated)</t>
+  </si>
+  <si>
     <t>Uses atmospheric chemistry time stepping</t>
   </si>
   <si>
@@ -759,6 +771,9 @@
     <t>Gradients monotonicity</t>
   </si>
   <si>
+    <t>Other: gradients monotony</t>
+  </si>
+  <si>
     <t>3.1.1.5 *</t>
   </si>
   <si>
@@ -993,6 +1008,9 @@
     <t>cmip6.aerosol.concentrations.prescribed_lower_boundary</t>
   </si>
   <si>
+    <t>OCS</t>
+  </si>
+  <si>
     <t xml:space="preserve">5.1.1.4 </t>
   </si>
   <si>
@@ -1245,6 +1263,9 @@
     <t>6.6.1.1 *</t>
   </si>
   <si>
+    <t>Overview of aerosol-cloud interactions</t>
+  </si>
+  <si>
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.overview</t>
   </si>
   <si>
@@ -1326,6 +1347,10 @@
     <t>cmip6.aerosol.model.overview</t>
   </si>
   <si>
+    <t>Coupling With: snow albedo on sea ice_x000D_
+Gas Phase Precursors: SO3</t>
+  </si>
+  <si>
     <t>7.1.1.3 *</t>
   </si>
   <si>
@@ -1407,6 +1432,12 @@
     <t>Gas phase chemistry</t>
   </si>
   <si>
+    <t>Other: heterogeneouschemistry</t>
+  </si>
+  <si>
+    <t>Other: landsurface</t>
+  </si>
+  <si>
     <t>7.1.1.5 *</t>
   </si>
   <si>
@@ -1510,158 +1541,17 @@
   </si>
   <si>
     <t>STS (supercooled ternary solution aerosol particule)</t>
-  </si>
-  <si>
-    <t>MASINGAR mk-2r4c</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Ideal gas, primitive equations, external mixture</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>masingar_mk2r4_ESM2</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>TL95L80</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>No tuning.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>OCS</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Overview of aerosol-cloud interactions</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>MASINGAR</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Imaginary part of complex refractive index for dry aerosol</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>180km or 1.875 degree</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Grid-scale transport: 
-   Vertically conservative semi-Lagrangian scheme
-Subgrid-scale transport/mixing:
-   Vertical mixing due to turbulence
-   Vertical transport due to (deep) convection</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Aerosol concentrations are calculated by aerosol physical and chemical processes (e.g., emission, transport, diffusion, chemical reactions, and dry and wet depositions) in the aerosol model.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Volcanos</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>SO2 from continuously degassing volcanoes</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Radiation is calculated in the atmospheric model and there is no radiative scheme in the aerosol model. Descriptions shown in below are used in the atmospheric model.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Aerosol-cloud interactions are calculated in the atmospheric model and there is no aerosol-cloud interaction scheme in the aerosol model. Descriptions shown in below are used in the atmospheric model.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>SST, U(10m), V(10m), T(2m), Q(2m), zonal surface stress, meridional surface stress, friction velocity, sea ice fraction, roughness length, convective precipitation, large-scale precipitation, sensible heat flux, latent heat flux, ground temperature, snow cover, soil ice, vegetation cover (canopy), vegetation cover (grass), LAI (canopy), LAI (grass), volumetric soil water content, landmask type definitions, land-sea mask ratio, surface pressure, longitude derivative of surface pressure, latitude derivative of surface pressure</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Fortran 95</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Aerosol optical and radiative properties are calculated in the aerosol-radiation scheme in the atmospheric model using mass concentrations of aerosols, which are provided by the aerosol model. Descriptions shown in below are used in the atmospheric model.
-</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>MASINGAR (Model of Aerosol Species IN the Global AtmospheRe) treats the main five aerosol species (sulfates, organic aerosols, black carbon, sea salt, and mineral dust) and their precursors. It is developed in the Meteorological Research Institute (MRI) of Japan Meteorological Agency and used for the aerosol forecasting and climate researches. Log-normal size distributions are assumed for sulfates, BC, and OA, and size-bin method is used for the sea salt and mineral dust. Precursor gases of sulfates include dimethyl sulfide, sulfur dioxide, and sulfur trioxide, and oxidized to sulfates via gas- and aqueous-phase reactions. Oxidants of sulfur reactions include OH, NO2, O3, and provided by the chemistry model MRI-CCM2. BC and OA are separated into hydrophobic and hydrophilic particles and their conversion rate is calculated based on the abundance of sulfates. Aerosol concentrations are passed to the atmospheric model MRI-AGCM and aerosol-radiation and aerosol-cloud interactions are calculated in the atmospheric model. Deposition fluxes of the light absorbing aerosols (BC and mineral dust) are also passed to the atmospheric model and used for the calculation of snow darkening effect of snow and sea ice.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Core-shell aerosol treatment for hydrophilic-BC/SO4 mixture, volume-weighted averaging for other aerosol species</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Anthropogenic and biomass burning emissions (SO2, BC, OC) from the surface are obtained from the CMIP6 forcing data.
-Aircraft emissions (SO2, BC, OC) in 3-D grids are obtained from the CMIP6 forcing data.
-Sulfur species originating from natural source and sea salt and dust are interactively calculated in the model.
-SO2 originating from continuous volcanic eruptions are calculated from the Global Emissions Inventory Activity database SO2 emission inventory (Andres and Kasgnoc 1998). 
-</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Horizontal: Gaussian grids of 192 x 96 in longitude and latitude (approximately 180 km or 1.875 degree)
-Vertical: sigma-pressure hybrid coordinate with 80 vertical layers up to the 0.01 hPa lavel (same as the atmospheric model)</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Model of Aerosol Species in the Global Atmosphere mark-2 revision 4-climate (MASINGAR mk-2r4c) treats atmospheric aerosol physical and chemical processes (e.g., emission, transport, diffusion, chemical reactions, and dry and wet depositions) and includes the following species: non-sea-salt sulfate, black carbon, organic carbon, sea salt, mineral dust, and aerosol precursor gases (e.g., sulfur dioxide and dimethyl sulfide).
-References: Tanaka et al. 2003; Yukimoto et al. submitted; Oshima et al., in preparation
-</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>U, V, T, Q, divergence, cloud droplet to rain conversion rate (convective cloud), cloud droplet to rain conversion rate (large-scale cloud), rain to vapor (convective cloud), rain to vapor (large-scale cloud), RH, organized entrainment rate, organized detrainment rate, upward mass flux in cumulus, cloud water content in cumulus, conversion from cloud water to precipitation in cumulus, cloud water content, cloud cover, eddy diffusion coefficient, ozone</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Mineral dust, sea salt, dimethyl sulfide from the ocean</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>MRI</t>
-    <phoneticPr fontId="15"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1758,31 +1648,6 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1828,7 +1693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1872,37 +1737,17 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1944,7 +1789,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1976,27 +1821,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2028,24 +1855,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2221,24 +2030,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="180.6640625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="180.7109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="33">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2246,7 +2055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2254,7 +2063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="20">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2262,7 +2071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="20">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -2270,7 +2079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20">
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -2278,37 +2087,37 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20">
+    <row r="9" spans="1:2">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="20">
+    <row r="10" spans="1:2">
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="20">
+    <row r="11" spans="1:2">
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="20">
+    <row r="12" spans="1:2">
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="20">
+    <row r="13" spans="1:2">
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="20">
+    <row r="14" spans="1:2">
       <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18">
+    <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
@@ -2316,7 +2125,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18">
+    <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -2324,7 +2133,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18">
+    <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
@@ -2332,7 +2141,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18">
+    <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -2340,44 +2149,41 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="20">
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:2" ht="20">
+    <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
   <hyperlinks>
-    <hyperlink ref="B16" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B17" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B16" r:id="rId1"/>
+    <hyperlink ref="B17" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="80.6640625" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="6"/>
+    <col min="1" max="1" width="80.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30">
+    <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
         <v>27</v>
       </c>
@@ -2388,7 +2194,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18">
+    <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
@@ -2412,13 +2218,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="19">
-      <c r="A9" s="16" t="s">
-        <v>521</v>
-      </c>
+    <row r="9" spans="1:2">
+      <c r="A9" s="11"/>
       <c r="B9" s="11"/>
     </row>
-    <row r="12" spans="1:2" ht="18">
+    <row r="12" spans="1:2">
       <c r="A12" s="9" t="s">
         <v>34</v>
       </c>
@@ -2442,42 +2246,39 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18">
-      <c r="A17" s="16"/>
+    <row r="17" spans="1:2">
+      <c r="A17" s="11"/>
       <c r="B17" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
       <formula1>"Top Level,Key Properties,Grid,Transport,Emissions,Concentrations,Optical Radiative Properties,Model"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A13" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A6" r:id="rId1"/>
+    <hyperlink ref="A13" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AI147"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD146"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
@@ -2514,15 +2315,15 @@
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>494</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -2530,26 +2331,26 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
-      <c r="B11" s="16"/>
+      <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -2557,39 +2358,39 @@
         <v>43</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>518</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
@@ -2599,808 +2400,778 @@
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="B21" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AA21" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="B22" s="11" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AA22" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AB22" s="6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AC22" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AD22" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AE22" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" ht="24" customHeight="1">
-      <c r="B23" s="15"/>
-      <c r="D23" s="18"/>
-      <c r="AA23" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB23" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC23" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD23" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE23" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" ht="24" customHeight="1">
+      <c r="A24" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
-      <c r="A25" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>67</v>
+      <c r="A25" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="24" customHeight="1">
-      <c r="A26" s="14" t="s">
+      <c r="B26" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" ht="24" customHeight="1">
+      <c r="A28" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" ht="24" customHeight="1">
+      <c r="A29" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" ht="24" customHeight="1">
+      <c r="B30" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" ht="24" customHeight="1">
+      <c r="B31" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA31" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB31" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC31" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="24" customHeight="1">
+      <c r="A33" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="24" customHeight="1">
+      <c r="A34" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="24" customHeight="1">
+      <c r="B35" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="24" customHeight="1">
+      <c r="A37" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="24" customHeight="1">
+      <c r="A38" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="24" customHeight="1">
+      <c r="B39" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="24" customHeight="1">
+      <c r="A42" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="24" customHeight="1">
+      <c r="B43" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="24" customHeight="1">
+      <c r="A45" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="24" customHeight="1">
+      <c r="A46" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B46" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="24" customHeight="1">
+      <c r="B47" s="11"/>
+    </row>
+    <row r="49" spans="1:30" ht="24" customHeight="1">
+      <c r="A49" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" ht="24" customHeight="1">
+      <c r="A50" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" ht="24" customHeight="1">
+      <c r="B51" s="11"/>
+    </row>
+    <row r="53" spans="1:30" ht="24" customHeight="1">
+      <c r="A53" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" ht="24" customHeight="1">
+      <c r="A54" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" ht="24" customHeight="1">
+      <c r="B55" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" ht="24" customHeight="1">
+      <c r="B56" s="11"/>
+    </row>
+    <row r="59" spans="1:30" ht="24" customHeight="1">
+      <c r="A59" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" ht="24" customHeight="1">
+      <c r="B60" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" ht="24" customHeight="1">
+      <c r="A62" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" ht="24" customHeight="1">
+      <c r="A63" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" ht="24" customHeight="1">
+      <c r="B64" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA64" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB64" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC64" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD64" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" ht="24" customHeight="1">
-      <c r="B27" s="16" t="s">
-        <v>495</v>
-      </c>
-      <c r="D27" s="18"/>
-    </row>
-    <row r="29" spans="1:31" ht="24" customHeight="1">
-      <c r="A29" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" ht="24" customHeight="1">
-      <c r="A30" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" ht="24" customHeight="1">
-      <c r="B31" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" ht="24" customHeight="1">
-      <c r="B32" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA32" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB32" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC32" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="A35" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="24" customHeight="1">
-      <c r="B36" s="16">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="A39" s="14" t="s">
+    </row>
+    <row r="66" spans="1:35" ht="24" customHeight="1">
+      <c r="A66" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:35" ht="24" customHeight="1">
+      <c r="A67" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="24" customHeight="1">
-      <c r="B40" s="16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="A43" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="24" customHeight="1">
-      <c r="B44" s="13" t="s">
+      <c r="B67" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35" ht="24" customHeight="1">
+      <c r="B68" s="11"/>
+    </row>
+    <row r="70" spans="1:35" ht="24" customHeight="1">
+      <c r="A70" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" ht="24" customHeight="1">
+      <c r="A71" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="72" spans="1:35" ht="24" customHeight="1">
+      <c r="B72" s="11"/>
+    </row>
+    <row r="74" spans="1:35" ht="24" customHeight="1">
+      <c r="A74" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="75" spans="1:35" ht="24" customHeight="1">
+      <c r="A75" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:35" ht="24" customHeight="1">
+      <c r="B76" s="11">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="78" spans="1:35" ht="24" customHeight="1">
+      <c r="A78" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79" spans="1:35" ht="24" customHeight="1">
+      <c r="A79" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80" spans="1:35" ht="24" customHeight="1">
+      <c r="B80" s="11"/>
+      <c r="AA80" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB80" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC80" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD80" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE80" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF80" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG80" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH80" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI80" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="24" customHeight="1">
+      <c r="A83" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="24" customHeight="1">
+      <c r="B84" s="13"/>
+    </row>
+    <row r="86" spans="1:3" ht="24" customHeight="1">
+      <c r="A86" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="24" customHeight="1">
+      <c r="A87" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="24" customHeight="1">
+      <c r="B88" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="24" customHeight="1">
+      <c r="B89" s="11"/>
+    </row>
+    <row r="91" spans="1:3" ht="24" customHeight="1">
+      <c r="A91" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="24" customHeight="1">
+      <c r="A92" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="24" customHeight="1">
+      <c r="B93" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="24" customHeight="1">
+      <c r="B94" s="11"/>
+    </row>
+    <row r="96" spans="1:3" ht="24" customHeight="1">
+      <c r="A96" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="24" customHeight="1">
+      <c r="A97" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="24" customHeight="1">
+      <c r="B98" s="11"/>
+    </row>
+    <row r="101" spans="1:3" ht="24" customHeight="1">
+      <c r="A101" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="24" customHeight="1">
+      <c r="B102" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="24" customHeight="1">
+      <c r="A104" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="24" customHeight="1">
+      <c r="A105" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="24" customHeight="1">
+      <c r="B106" s="11"/>
+    </row>
+    <row r="108" spans="1:3" ht="24" customHeight="1">
+      <c r="A108" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="24" customHeight="1">
+      <c r="A109" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="24" customHeight="1">
+      <c r="B110" s="11"/>
+    </row>
+    <row r="112" spans="1:3" ht="24" customHeight="1">
+      <c r="A112" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="24" customHeight="1">
+      <c r="A113" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="24" customHeight="1">
+      <c r="B114" s="11"/>
+    </row>
+    <row r="116" spans="1:3" ht="24" customHeight="1">
+      <c r="A116" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="24" customHeight="1">
+      <c r="A117" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="24" customHeight="1">
+      <c r="B118" s="11"/>
+    </row>
+    <row r="120" spans="1:3" ht="24" customHeight="1">
+      <c r="A120" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="24" customHeight="1">
+      <c r="A121" s="14" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="24" customHeight="1">
-      <c r="A46" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="24" customHeight="1">
-      <c r="A47" s="14" t="s">
+      <c r="B121" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="24" customHeight="1">
+      <c r="B122" s="11"/>
+    </row>
+    <row r="125" spans="1:3" ht="24" customHeight="1">
+      <c r="A125" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="24" customHeight="1">
+      <c r="B126" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="24" customHeight="1">
+      <c r="A128" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="24" customHeight="1">
+      <c r="A129" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="B48" s="16"/>
-    </row>
-    <row r="50" spans="1:4" ht="24" customHeight="1">
-      <c r="A50" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="24" customHeight="1">
-      <c r="A51" s="14" t="s">
+      <c r="B129" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="24" customHeight="1">
+      <c r="B130" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="178" customHeight="1">
+      <c r="B131" s="11"/>
+    </row>
+    <row r="133" spans="1:3" ht="24" customHeight="1">
+      <c r="A133" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="24" customHeight="1">
+      <c r="A134" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="24" customHeight="1">
-      <c r="B52" s="16" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="24" customHeight="1">
-      <c r="A54" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="24" customHeight="1">
-      <c r="A55" s="14" t="s">
+      <c r="B134" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="24" customHeight="1">
+      <c r="B135" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="24" customHeight="1">
+      <c r="B136" s="11"/>
+    </row>
+    <row r="138" spans="1:3" ht="24" customHeight="1">
+      <c r="A138" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="24" customHeight="1">
+      <c r="A139" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="24" customHeight="1">
-      <c r="B56" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="24" customHeight="1">
-      <c r="B57" s="16" t="s">
-        <v>512</v>
-      </c>
-      <c r="D57" s="17"/>
-    </row>
-    <row r="60" spans="1:4" ht="24" customHeight="1">
-      <c r="A60" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="24" customHeight="1">
-      <c r="B61" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="24" customHeight="1">
-      <c r="A63" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="24" customHeight="1">
-      <c r="A64" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="65" spans="1:30" ht="24" customHeight="1">
-      <c r="B65" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA65" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB65" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC65" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD65" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:30" ht="24" customHeight="1">
-      <c r="A67" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="68" spans="1:30" ht="24" customHeight="1">
-      <c r="A68" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="69" spans="1:30" ht="24" customHeight="1">
-      <c r="B69" s="16">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="71" spans="1:30" ht="24" customHeight="1">
-      <c r="A71" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="72" spans="1:30" ht="24" customHeight="1">
-      <c r="A72" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="73" spans="1:30" ht="24" customHeight="1">
-      <c r="B73" s="16">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="75" spans="1:30" ht="24" customHeight="1">
-      <c r="A75" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="76" spans="1:30" ht="24" customHeight="1">
-      <c r="A76" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="77" spans="1:30" ht="24" customHeight="1">
-      <c r="B77" s="16">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="79" spans="1:30" ht="24" customHeight="1">
-      <c r="A79" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="80" spans="1:30" ht="24" customHeight="1">
-      <c r="A80" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="81" spans="1:35" ht="24" customHeight="1">
-      <c r="B81" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D81" s="18"/>
-      <c r="AA81" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB81" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC81" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="AD81" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE81" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF81" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="AG81" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="AH81" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI81" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="84" spans="1:35" ht="24" customHeight="1">
-      <c r="A84" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="B84" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="85" spans="1:35" ht="24" customHeight="1">
-      <c r="B85" s="13"/>
-    </row>
-    <row r="87" spans="1:35" ht="24" customHeight="1">
-      <c r="A87" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="88" spans="1:35" ht="24" customHeight="1">
-      <c r="A88" s="14" t="s">
+      <c r="B139" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="24" customHeight="1">
+      <c r="B140" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="24" customHeight="1">
+      <c r="B141" s="11"/>
+    </row>
+    <row r="143" spans="1:3" ht="24" customHeight="1">
+      <c r="A143" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="24" customHeight="1">
+      <c r="A144" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B88" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="89" spans="1:35" ht="24" customHeight="1">
-      <c r="B89" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="90" spans="1:35" ht="81.75" customHeight="1">
-      <c r="B90" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="D90" s="18"/>
-    </row>
-    <row r="92" spans="1:35" ht="24" customHeight="1">
-      <c r="A92" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="93" spans="1:35" ht="24" customHeight="1">
-      <c r="A93" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="94" spans="1:35" ht="24" customHeight="1">
-      <c r="B94" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="95" spans="1:35" ht="73.5" customHeight="1">
-      <c r="B95" s="16" t="s">
-        <v>511</v>
-      </c>
-      <c r="D95" s="18"/>
-    </row>
-    <row r="97" spans="1:4" ht="24" customHeight="1">
-      <c r="A97" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="24" customHeight="1">
-      <c r="A98" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="24" customHeight="1">
-      <c r="B99" s="16">
-        <v>3600</v>
-      </c>
-      <c r="D99" s="17"/>
-    </row>
-    <row r="102" spans="1:4" ht="24" customHeight="1">
-      <c r="A102" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B102" s="12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="24" customHeight="1">
-      <c r="B103" s="13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="24" customHeight="1">
-      <c r="A105" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="24" customHeight="1">
-      <c r="A106" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B106" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="24" customHeight="1">
-      <c r="B107" s="11" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="24" customHeight="1">
-      <c r="A109" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="24" customHeight="1">
-      <c r="A110" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B110" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="24" customHeight="1">
-      <c r="B111" s="11" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="24" customHeight="1">
-      <c r="A113" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="24" customHeight="1">
-      <c r="A114" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="24" customHeight="1">
-      <c r="B115" s="11">
-        <v>18432</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="24" customHeight="1">
-      <c r="A117" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="24" customHeight="1">
-      <c r="A118" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B118" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="24" customHeight="1">
-      <c r="B119" s="11">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="A121" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="24" customHeight="1">
-      <c r="A122" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B122" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="24" customHeight="1">
-      <c r="B123" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="24" customHeight="1">
-      <c r="A126" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="B126" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="24" customHeight="1">
-      <c r="B127" s="13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="24" customHeight="1">
-      <c r="A129" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="B129" s="9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="24" customHeight="1">
-      <c r="A130" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B130" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="24" customHeight="1">
-      <c r="B131" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="178" customHeight="1">
-      <c r="B132" s="16" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="24" customHeight="1">
-      <c r="A134" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="B134" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="24" customHeight="1">
-      <c r="A135" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B135" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C135" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="24" customHeight="1">
-      <c r="B136" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="24" customHeight="1">
-      <c r="B137" s="11"/>
-    </row>
-    <row r="139" spans="1:3" ht="24" customHeight="1">
-      <c r="A139" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="24" customHeight="1">
-      <c r="A140" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B140" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C140" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="24" customHeight="1">
-      <c r="B141" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="24" customHeight="1">
-      <c r="B142" s="11"/>
-    </row>
-    <row r="144" spans="1:3" ht="24" customHeight="1">
-      <c r="A144" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="24" customHeight="1">
-      <c r="A145" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B145" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C145" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="24" customHeight="1">
-      <c r="B146" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="24" customHeight="1">
-      <c r="B147" s="11"/>
+      <c r="B144" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" ht="24" customHeight="1">
+      <c r="B145" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" ht="24" customHeight="1">
+      <c r="B146" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B23" xr:uid="{00000000-0002-0000-0200-000000000000}">
+  <dataValidations count="14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
       <formula1>AA21:AE21</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32" xr:uid="{00000000-0002-0000-0200-000002000000}">
-      <formula1>AA32:AC32</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36 B119 B115 B99 B77 B73 B69" xr:uid="{00000000-0002-0000-0200-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
+      <formula1>AA22:AE22</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+      <formula1>AA31:AC31</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40 B123" xr:uid="{00000000-0002-0000-0200-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B65" xr:uid="{00000000-0002-0000-0200-000005000000}">
-      <formula1>AA65:AD65</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81" xr:uid="{00000000-0002-0000-0200-000009000000}">
-      <formula1>AA81:AI81</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B64">
+      <formula1>AA64:AD64</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B80">
+      <formula1>AA80:AI80</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B98">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B114">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B118">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B122">
+      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3408,37 +3179,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -3449,23 +3218,21 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11" t="s">
-        <v>497</v>
-      </c>
+      <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3473,62 +3240,58 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11" t="s">
-        <v>517</v>
-      </c>
+      <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="11" t="b">
-        <v>0</v>
-      </c>
+      <c r="B15" s="11"/>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>42</v>
@@ -3539,23 +3302,21 @@
         <v>43</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
-      <c r="B23" s="11" t="s">
-        <v>497</v>
-      </c>
+      <c r="B23" s="11"/>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
@@ -3563,97 +3324,94 @@
         <v>43</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
-      <c r="B27" s="11" t="s">
-        <v>504</v>
-      </c>
+      <c r="B27" s="11"/>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
-      <c r="B31" s="11">
-        <v>18432</v>
-      </c>
+      <c r="B31" s="11"/>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="B35" s="11">
-        <v>80</v>
-      </c>
+      <c r="B35" s="11"/>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="B39" s="11" t="b">
-        <v>0</v>
-      </c>
+      <c r="B39" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B39" xr:uid="{00000000-0002-0000-0300-000000000000}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31 B35" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
       <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
+      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3661,37 +3419,35 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AE29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -3702,21 +3458,21 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="24" customHeight="1">
-      <c r="B6" s="15"/>
+      <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:31" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="24" customHeight="1">
@@ -3724,78 +3480,74 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="178" customHeight="1">
-      <c r="B11" s="16" t="s">
-        <v>505</v>
-      </c>
+      <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:31" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="24" customHeight="1">
-      <c r="B15" s="16" t="s">
-        <v>233</v>
-      </c>
+      <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="AE15" s="6" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
@@ -3804,82 +3556,82 @@
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
-      <c r="B20" s="16" t="s">
-        <v>240</v>
+      <c r="B20" s="11" t="s">
+        <v>246</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="AE20" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
-      <c r="B21" s="16" t="s">
-        <v>241</v>
+      <c r="B21" s="11" t="s">
+        <v>247</v>
       </c>
       <c r="AA21" s="6" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
-      <c r="B22" s="16" t="s">
-        <v>242</v>
+      <c r="B22" s="11" t="s">
+        <v>249</v>
       </c>
       <c r="AA22" s="6" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="AB22" s="6" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AC22" s="6" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AD22" s="6" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="AE22" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="A25" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="24" customHeight="1">
@@ -3888,64 +3640,58 @@
       </c>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
-      <c r="B27" s="16" t="s">
-        <v>231</v>
+      <c r="B27" s="11" t="s">
+        <v>254</v>
       </c>
       <c r="AA27" s="6" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
-      <c r="B28" s="16" t="s">
-        <v>247</v>
+      <c r="B28" s="11" t="s">
+        <v>255</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="AC28" s="6" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="AD28" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" ht="24" customHeight="1">
-      <c r="B29" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="AA29" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="AB29" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="AC29" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="AD29" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B20:B22" xr:uid="{00000000-0002-0000-0400-000000000000}">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>AA15:AE15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27:B29" xr:uid="{00000000-0002-0000-0400-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+      <formula1>AA20:AE20</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
+      <formula1>AA21:AE21</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
+      <formula1>AA22:AE22</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
       <formula1>AA27:AD27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
+      <formula1>AA28:AD28</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3953,37 +3699,35 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AI54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -3994,21 +3738,21 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="24" customHeight="1">
-      <c r="B6" s="15"/>
+      <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:33" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="24" customHeight="1">
@@ -4016,39 +3760,37 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:33" ht="178" customHeight="1">
-      <c r="B11" s="11" t="s">
-        <v>516</v>
-      </c>
+      <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:33" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:33" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:33" ht="24" customHeight="1">
@@ -4057,49 +3799,46 @@
       </c>
     </row>
     <row r="16" spans="1:33" ht="24" customHeight="1">
-      <c r="B16" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="D16" s="17"/>
+      <c r="B16" s="11"/>
       <c r="AA16" s="6" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="AE16" s="6" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="AF16" s="6" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="24" customHeight="1">
@@ -4108,385 +3847,212 @@
       </c>
     </row>
     <row r="21" spans="1:35" ht="24" customHeight="1">
-      <c r="B21" s="11" t="s">
-        <v>507</v>
-      </c>
+      <c r="B21" s="11"/>
       <c r="AA21" s="6" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="AF21" s="6" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="AG21" s="6" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="AH21" s="6" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="AI21" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35" ht="24" customHeight="1">
-      <c r="B22" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="AA22" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB22" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="AC22" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD22" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE22" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="AF22" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="AG22" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="AH22" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="AI22" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="24" customHeight="1">
-      <c r="B23" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA23" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB23" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="AC23" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD23" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE23" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="AF23" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="AG23" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="AH23" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="AI23" s="6" t="s">
-        <v>65</v>
+      <c r="A23" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:35" ht="24" customHeight="1">
-      <c r="B24" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="AA24" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB24" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="AC24" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD24" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE24" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="AF24" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="AG24" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="AH24" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="AI24" s="6" t="s">
-        <v>65</v>
+      <c r="A24" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="24" customHeight="1">
-      <c r="B25" s="11" t="s">
-        <v>277</v>
-      </c>
+      <c r="B25" s="11"/>
       <c r="AA25" s="6" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="AE25" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="AF25" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="AG25" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="AH25" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="AI25" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:35" ht="24" customHeight="1">
-      <c r="B26" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA26" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB26" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="AC26" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD26" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE26" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="AF26" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="AG26" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="AH26" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="AI26" s="6" t="s">
-        <v>65</v>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" ht="24" customHeight="1">
+      <c r="A27" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="24" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>280</v>
+      <c r="A28" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="24" customHeight="1">
-      <c r="A29" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>282</v>
+      <c r="B29" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="24" customHeight="1">
-      <c r="B30" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="D30" s="18"/>
-      <c r="AA30" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="AB30" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="AC30" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="AD30" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="AE30" s="6" t="s">
-        <v>287</v>
-      </c>
+      <c r="B30" s="11"/>
     </row>
     <row r="32" spans="1:35" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="24" customHeight="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="24" customHeight="1">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="24" customHeight="1">
-      <c r="B35" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="D35" s="17"/>
-    </row>
-    <row r="37" spans="1:4" ht="24" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="24" customHeight="1">
+      <c r="B35" s="11"/>
+    </row>
+    <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="24" customHeight="1">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="24" customHeight="1">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="24" customHeight="1">
-      <c r="B40" s="11" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="24" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="24" customHeight="1">
+      <c r="B40" s="11"/>
+    </row>
+    <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="24" customHeight="1">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="24" customHeight="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="B44" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="24" customHeight="1">
-      <c r="B45" s="11" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="24" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="24" customHeight="1">
+      <c r="B45" s="11"/>
+    </row>
+    <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="24" customHeight="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="A48" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="B49" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="24" customHeight="1">
-      <c r="B50" s="11"/>
-    </row>
-    <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="A52" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="24" customHeight="1">
-      <c r="A53" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="24" customHeight="1">
-      <c r="B54" s="11"/>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="24" customHeight="1">
+      <c r="B49" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
       <formula1>AA16:AG16</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B26" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
       <formula1>AA21:AI21</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30" xr:uid="{00000000-0002-0000-0500-000002000000}">
-      <formula1>AA30:AE30</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+      <formula1>AA25:AE25</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4494,121 +4060,116 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24" customHeight="1">
+    <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="24" customHeight="1">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="24" customHeight="1">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="24" customHeight="1">
+    <row r="5" spans="1:3" ht="24" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="24" customHeight="1">
-      <c r="B6" s="16"/>
-    </row>
-    <row r="8" spans="1:4" ht="24" customHeight="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1">
+      <c r="B6" s="11"/>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="24" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="24" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="24" customHeight="1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="178" customHeight="1">
-      <c r="B11" s="16" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="24" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="178" customHeight="1">
+      <c r="B11" s="11"/>
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="24" customHeight="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="24" customHeight="1">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="24" customHeight="1">
-      <c r="B16" s="16" t="s">
-        <v>500</v>
-      </c>
-      <c r="D16" s="18"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="24" customHeight="1">
+      <c r="B16" s="11" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -4616,28 +4177,26 @@
         <v>43</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
       <c r="B20" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
-      <c r="B21" s="11" t="s">
-        <v>499</v>
-      </c>
+      <c r="B21" s="11"/>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -4645,28 +4204,26 @@
         <v>43</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
       <c r="B25" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
-      <c r="B26" s="11" t="s">
-        <v>499</v>
-      </c>
+      <c r="B26" s="11"/>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
@@ -4674,60 +4231,55 @@
         <v>43</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
-      <c r="B31" s="11" t="s">
-        <v>499</v>
-      </c>
+      <c r="B31" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -4738,21 +4290,21 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="16"/>
+      <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -4760,181 +4312,160 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11" t="s">
-        <v>513</v>
-      </c>
+      <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="24" customHeight="1">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="24" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="24" customHeight="1">
-      <c r="B19" s="16">
-        <v>-0.79</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="24" customHeight="1">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="24" customHeight="1">
+      <c r="B19" s="11"/>
+    </row>
+    <row r="21" spans="1:3" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="24" customHeight="1">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="24" customHeight="1">
-      <c r="B23" s="16">
-        <v>-5.4999999999999997E-3</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="24" customHeight="1">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="24" customHeight="1">
+      <c r="B23" s="11"/>
+    </row>
+    <row r="25" spans="1:3" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="24" customHeight="1">
+      <c r="A26" s="14" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="24" customHeight="1">
-      <c r="A26" s="14" t="s">
-        <v>347</v>
-      </c>
       <c r="B26" s="10" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="24" customHeight="1">
-      <c r="B27" s="16">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="24" customHeight="1">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="24" customHeight="1">
+      <c r="B27" s="11"/>
+    </row>
+    <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="24" customHeight="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="B31" s="13"/>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="B35" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="B35" s="11"/>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="B39" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="B39" s="11"/>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -4942,123 +4473,113 @@
         <v>43</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="B43" s="11" t="s">
-        <v>515</v>
-      </c>
+      <c r="B43" s="11"/>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="A46" s="12" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="B47" s="13" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="24" customHeight="1">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="24" customHeight="1">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="24" customHeight="1">
-      <c r="B51" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="24" customHeight="1">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="24" customHeight="1">
+      <c r="B51" s="11"/>
+    </row>
+    <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="24" customHeight="1">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="24" customHeight="1">
-      <c r="B55" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D55" s="18"/>
-    </row>
-    <row r="57" spans="1:4" ht="24" customHeight="1">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="24" customHeight="1">
+      <c r="B55" s="11"/>
+    </row>
+    <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="24" customHeight="1">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="24" customHeight="1">
       <c r="A58" s="14" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="24" customHeight="1">
-      <c r="B59" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D59" s="18"/>
-    </row>
-    <row r="62" spans="1:4" ht="24" customHeight="1">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="24" customHeight="1">
+      <c r="B59" s="11"/>
+    </row>
+    <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="24" customHeight="1">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="B63" s="13" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
@@ -5066,245 +4587,262 @@
         <v>43</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="B67" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="178" customHeight="1">
-      <c r="B68" s="11" t="s">
-        <v>509</v>
-      </c>
+      <c r="B68" s="11"/>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
       <c r="A71" s="14" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
-      <c r="B72" s="11">
-        <v>22</v>
-      </c>
+      <c r="B72" s="11"/>
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="A75" s="14" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
-      <c r="B76" s="11">
-        <v>11</v>
-      </c>
+      <c r="B76" s="11"/>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="A79" s="12" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
       <c r="B80" s="13" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="24" customHeight="1">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="24" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="24" customHeight="1">
       <c r="A83" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>501</v>
+        <v>413</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="24" customHeight="1">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="24" customHeight="1">
       <c r="B84" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="178" customHeight="1">
-      <c r="B85" s="11" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="24" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="178" customHeight="1">
+      <c r="B85" s="11"/>
+    </row>
+    <row r="87" spans="1:3" ht="24" customHeight="1">
       <c r="A87" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="24" customHeight="1">
+      <c r="A88" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="24" customHeight="1">
+      <c r="B89" s="11"/>
+    </row>
+    <row r="91" spans="1:3" ht="24" customHeight="1">
+      <c r="A91" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="24" customHeight="1">
+      <c r="A92" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="24" customHeight="1">
+      <c r="B93" s="11"/>
+    </row>
+    <row r="95" spans="1:3" ht="24" customHeight="1">
+      <c r="A95" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="24" customHeight="1">
+      <c r="A96" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="24" customHeight="1">
+      <c r="B97" s="11"/>
+    </row>
+    <row r="99" spans="1:3" ht="24" customHeight="1">
+      <c r="A99" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="24" customHeight="1">
+      <c r="A100" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="24" customHeight="1">
+      <c r="B101" s="11"/>
+    </row>
+    <row r="103" spans="1:3" ht="24" customHeight="1">
+      <c r="A103" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="B103" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="B87" s="9" t="s">
+    </row>
+    <row r="104" spans="1:3" ht="24" customHeight="1">
+      <c r="A104" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B104" s="10" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="24" customHeight="1">
-      <c r="A88" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="24" customHeight="1">
-      <c r="B89" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="24" customHeight="1">
-      <c r="A91" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="24" customHeight="1">
-      <c r="A92" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="24" customHeight="1">
-      <c r="B93" s="16">
-        <v>0</v>
-      </c>
-      <c r="D93" s="18"/>
-    </row>
-    <row r="95" spans="1:4" ht="24" customHeight="1">
-      <c r="A95" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="24" customHeight="1">
-      <c r="A96" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B96" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="24" customHeight="1">
-      <c r="B97" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D97" s="17"/>
-    </row>
-    <row r="99" spans="1:4" ht="24" customHeight="1">
-      <c r="A99" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="24" customHeight="1">
-      <c r="A100" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B100" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="24" customHeight="1">
-      <c r="B101" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="24" customHeight="1">
-      <c r="A103" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="24" customHeight="1">
-      <c r="A104" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>399</v>
-      </c>
       <c r="C104" s="10" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="24" customHeight="1">
-      <c r="B105" s="11">
-        <v>11</v>
-      </c>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="24" customHeight="1">
+      <c r="B105" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
-  <dataValidations count="3">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B27 B23" xr:uid="{00000000-0002-0000-0700-000000000000}">
-      <formula1>-1000000</formula1>
-      <formula2>1000000</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35 B101 B97 B89 B59 B55 B51 B39" xr:uid="{00000000-0002-0000-0700-000003000000}">
+  <dataValidations count="15">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72 B105 B93 B76" xr:uid="{00000000-0002-0000-0700-000008000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B89">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B101">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B105">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -5313,24 +4851,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AN55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>5</v>
@@ -5338,12 +4874,12 @@
     </row>
     <row r="2" spans="1:39" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -5354,23 +4890,21 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="24" customHeight="1">
-      <c r="B6" s="11" t="s">
-        <v>502</v>
-      </c>
+      <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:39" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:39" ht="24" customHeight="1">
@@ -5378,40 +4912,39 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:39" ht="178" customHeight="1">
-      <c r="B11" s="16" t="s">
-        <v>514</v>
-      </c>
-      <c r="D11" s="18"/>
+      <c r="B11" s="11" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="13" spans="1:39" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:39" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:39" ht="24" customHeight="1">
@@ -5421,1021 +4954,1096 @@
     </row>
     <row r="16" spans="1:39" ht="24" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="AA16" s="6" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="AE16" s="6" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="AF16" s="6" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="AH16" s="6" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="AI16" s="6" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="AJ16" s="6" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="AK16" s="6" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="AL16" s="6" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="AM16" s="6" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:39" ht="24" customHeight="1">
       <c r="B17" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="AA17" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="AB17" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="AC17" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="AD17" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="AE17" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="AF17" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="AG17" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="AH17" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="AI17" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="AJ17" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="AA17" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="AB17" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="AC17" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="AD17" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="AE17" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="AF17" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="AG17" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="AH17" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="AI17" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="AJ17" s="6" t="s">
-        <v>436</v>
-      </c>
       <c r="AK17" s="6" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="AL17" s="6" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="AM17" s="6" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
     </row>
     <row r="18" spans="1:39" ht="24" customHeight="1">
       <c r="B18" s="11" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="AA18" s="6" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="AB18" s="6" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="AC18" s="6" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="AD18" s="6" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="AE18" s="6" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="AF18" s="6" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="AG18" s="6" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="AH18" s="6" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="AI18" s="6" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="AJ18" s="6" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="AK18" s="6" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="AL18" s="6" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="AM18" s="6" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
     </row>
     <row r="19" spans="1:39" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="AF19" s="6" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="AH19" s="6" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="AI19" s="6" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="AJ19" s="6" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="AK19" s="6" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="AL19" s="6" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="AM19" s="6" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
     </row>
     <row r="20" spans="1:39" ht="24" customHeight="1">
       <c r="B20" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="AA20" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="AA20" s="6" t="s">
-        <v>437</v>
-      </c>
       <c r="AB20" s="6" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="AE20" s="6" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="AF20" s="6" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="AG20" s="6" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="AH20" s="6" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="AI20" s="6" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="AJ20" s="6" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="AK20" s="6" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="AL20" s="6" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="AM20" s="6" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
     </row>
     <row r="21" spans="1:39" ht="24" customHeight="1">
       <c r="B21" s="11" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="AA21" s="6" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="AF21" s="6" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="AG21" s="6" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="AH21" s="6" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="AI21" s="6" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="AJ21" s="6" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="AK21" s="6" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="AL21" s="6" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="AM21" s="6" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
     </row>
     <row r="22" spans="1:39" ht="24" customHeight="1">
       <c r="B22" s="11" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="AA22" s="6" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="AB22" s="6" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="AC22" s="6" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="AD22" s="6" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="AE22" s="6" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="AF22" s="6" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="AG22" s="6" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="AH22" s="6" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="AI22" s="6" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="AJ22" s="6" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="AK22" s="6" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="AL22" s="6" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="AM22" s="6" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
     </row>
     <row r="23" spans="1:39" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="AE23" s="6" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="AF23" s="6" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="AG23" s="6" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="AH23" s="6" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="AI23" s="6" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="AJ23" s="6" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="AK23" s="6" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="AL23" s="6" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="AM23" s="6" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
     </row>
     <row r="24" spans="1:39" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="AD24" s="6" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="AE24" s="6" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="AF24" s="6" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="AG24" s="6" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="AH24" s="6" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="AI24" s="6" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="AJ24" s="6" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="AK24" s="6" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="AL24" s="6" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="AM24" s="6" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
     </row>
     <row r="25" spans="1:39" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="AE25" s="6" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="AF25" s="6" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="AG25" s="6" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="AH25" s="6" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="AI25" s="6" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="AJ25" s="6" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="AK25" s="6" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="AL25" s="6" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="AM25" s="6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="26" spans="1:39" ht="24" customHeight="1">
-      <c r="B26" s="16" t="s">
-        <v>444</v>
-      </c>
-      <c r="D26" s="18"/>
-      <c r="AA26" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="AB26" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="AC26" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="AD26" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="AE26" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="AF26" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="AG26" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="AH26" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="AI26" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="AJ26" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="AK26" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="AL26" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="AM26" s="6" t="s">
-        <v>448</v>
+        <v>458</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" ht="24" customHeight="1">
+      <c r="A27" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="28" spans="1:39" ht="24" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>450</v>
+      <c r="A28" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="1:39" ht="24" customHeight="1">
-      <c r="A29" s="14" t="s">
-        <v>58</v>
-      </c>
       <c r="B29" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>452</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:39" ht="24" customHeight="1">
-      <c r="B30" s="10" t="s">
-        <v>28</v>
+      <c r="B30" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="AA30" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="AB30" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="AC30" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="AD30" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="AE30" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="AF30" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="AG30" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="AH30" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:39" ht="24" customHeight="1">
       <c r="B31" s="11" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="AA31" s="6" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="AE31" s="6" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="AF31" s="6" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="AG31" s="6" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="AH31" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:39" ht="24" customHeight="1">
       <c r="B32" s="11" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="AA32" s="6" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="AC32" s="6" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="AD32" s="6" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="AE32" s="6" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="AF32" s="6" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="AG32" s="6" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="AH32" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:35" ht="24" customHeight="1">
       <c r="B33" s="11" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="AA33" s="6" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="AB33" s="6" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="AC33" s="6" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="AD33" s="6" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="AE33" s="6" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="AF33" s="6" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="AG33" s="6" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="AH33" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:35" ht="24" customHeight="1">
-      <c r="B34" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA34" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="AB34" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="AC34" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="AD34" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="AE34" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="AF34" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="AG34" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="AH34" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:35" ht="24" customHeight="1">
-      <c r="B35" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="AA35" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="AB35" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="AC35" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="AD35" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="AE35" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="AF35" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="AG35" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="AH35" s="6" t="s">
-        <v>65</v>
+      <c r="A35" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" ht="24" customHeight="1">
+      <c r="A36" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="37" spans="1:35" ht="24" customHeight="1">
-      <c r="A37" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>460</v>
+      <c r="B37" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:35" ht="24" customHeight="1">
-      <c r="A38" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>462</v>
+      <c r="B38" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="AA38" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="AB38" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="AC38" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="AD38" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="AE38" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="AF38" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="AG38" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="AH38" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="AI38" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:35" ht="24" customHeight="1">
-      <c r="B39" s="10" t="s">
-        <v>28</v>
+      <c r="B39" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="AA39" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="AB39" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="AC39" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="AD39" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="AE39" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="AF39" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="AG39" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="AH39" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="AI39" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:35" ht="24" customHeight="1">
       <c r="B40" s="11" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="AA40" s="6" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="AC40" s="6" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="AD40" s="6" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="AE40" s="6" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="AF40" s="6" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="AG40" s="6" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="AH40" s="6" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="AI40" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:35" ht="24" customHeight="1">
-      <c r="B41" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="AA41" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="AB41" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="AC41" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="AD41" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="AE41" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="AF41" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="AG41" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="AH41" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="AI41" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:35" ht="24" customHeight="1">
-      <c r="B42" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="AA42" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="AB42" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="AC42" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="AD42" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="AE42" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="AF42" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="AG42" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="AH42" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="AI42" s="6" t="s">
-        <v>65</v>
+      <c r="A42" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35" ht="24" customHeight="1">
+      <c r="A43" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="44" spans="1:35" ht="24" customHeight="1">
-      <c r="A44" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>472</v>
+      <c r="B44" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:35" ht="24" customHeight="1">
-      <c r="A45" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>474</v>
+      <c r="B45" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="AA45" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="AB45" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="AC45" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="AD45" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:35" ht="24" customHeight="1">
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="AA46" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="AB46" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="AC46" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="AD46" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35" ht="24" customHeight="1">
+      <c r="A48" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="49" spans="1:40" ht="24" customHeight="1">
+      <c r="A49" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="50" spans="1:40" ht="24" customHeight="1">
+      <c r="B50" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:35" ht="24" customHeight="1">
-      <c r="B47" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="AA47" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="AB47" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="AC47" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="AD47" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:35" ht="24" customHeight="1">
-      <c r="B48" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="AA48" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="AB48" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="AC48" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="AD48" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:40" ht="24" customHeight="1">
-      <c r="A50" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>479</v>
-      </c>
-    </row>
     <row r="51" spans="1:40" ht="24" customHeight="1">
-      <c r="A51" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>481</v>
+      <c r="B51" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="AA51" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="AB51" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="AC51" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="AD51" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE51" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="AF51" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="AG51" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="AH51" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="AI51" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="AJ51" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="AK51" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="AL51" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="AM51" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="AN51" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:40" ht="24" customHeight="1">
-      <c r="B52" s="10" t="s">
-        <v>28</v>
+      <c r="B52" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="AA52" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="AB52" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="AC52" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="AD52" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE52" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="AF52" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="AG52" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="AH52" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="AI52" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="AJ52" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="AK52" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="AL52" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="AM52" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="AN52" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:40" ht="24" customHeight="1">
       <c r="B53" s="11" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="AA53" s="6" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="AB53" s="6" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="AC53" s="6" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="AD53" s="6" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="AE53" s="6" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="AF53" s="6" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="AG53" s="6" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="AH53" s="6" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="AI53" s="6" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="AJ53" s="6" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="AK53" s="6" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="AL53" s="6" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="AM53" s="6" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="AN53" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:40" ht="24" customHeight="1">
       <c r="B54" s="11" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="AA54" s="6" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="AB54" s="6" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="AC54" s="6" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="AD54" s="6" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="AE54" s="6" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="AF54" s="6" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="AG54" s="6" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="AH54" s="6" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="AI54" s="6" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="AJ54" s="6" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="AK54" s="6" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="AL54" s="6" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="AM54" s="6" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="AN54" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:40" ht="24" customHeight="1">
       <c r="B55" s="11" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="AA55" s="6" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="AC55" s="6" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="AD55" s="6" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="AE55" s="6" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="AF55" s="6" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="AG55" s="6" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="AH55" s="6" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="AI55" s="6" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="AJ55" s="6" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="AK55" s="6" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="AL55" s="6" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="AM55" s="6" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="AN55" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:B26" xr:uid="{00000000-0002-0000-0800-000000000000}">
+  <dataValidations count="24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
       <formula1>AA16:AM16</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31:B35" xr:uid="{00000000-0002-0000-0800-00000A000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+      <formula1>AA17:AM17</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
+      <formula1>AA18:AM18</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+      <formula1>AA19:AM19</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+      <formula1>AA20:AM20</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
+      <formula1>AA21:AM21</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
+      <formula1>AA22:AM22</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+      <formula1>AA23:AM23</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
+      <formula1>AA24:AM24</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+      <formula1>AA25:AM25</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
+      <formula1>AA30:AH30</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
       <formula1>AA31:AH31</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40:B42" xr:uid="{00000000-0002-0000-0800-00000E000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
+      <formula1>AA32:AH32</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
+      <formula1>AA33:AH33</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
+      <formula1>AA38:AI38</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
+      <formula1>AA39:AI39</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40">
       <formula1>AA40:AI40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B47:B48" xr:uid="{00000000-0002-0000-0800-000011000000}">
-      <formula1>AA47:AD47</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53:B55" xr:uid="{00000000-0002-0000-0800-000013000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45">
+      <formula1>AA45:AD45</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46">
+      <formula1>AA46:AD46</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51">
+      <formula1>AA51:AN51</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52">
+      <formula1>AA52:AN52</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
       <formula1>AA53:AN53</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54">
+      <formula1>AA54:AN54</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55">
+      <formula1>AA55:AN55</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_aerosol.xlsx
+++ b/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_aerosol.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yukimoto/Documents/研究計画・プロジェクト/CMIP6/Documentation/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BDC296-0613-3F48-BF4F-F7911DA1BC4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -23,12 +17,12 @@
     <sheet name="6. Optical Radiative Properties" sheetId="8" r:id="rId8"/>
     <sheet name="7. Model" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="520">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -168,6 +162,9 @@
     <t>cmip6.aerosol.key_properties.name</t>
   </si>
   <si>
+    <t>MASINGAR mk-2r4c</t>
+  </si>
+  <si>
     <t>1.1.1.2 *</t>
   </si>
   <si>
@@ -198,6 +195,11 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
+    <t xml:space="preserve">Model of Aerosol Species in the Global Atmosphere mark-2 revision 4-climate (MASINGAR mk-2r4c) treats atmospheric aerosol physical and chemical processes (e.g., emission, transport, diffusion, chemical reactions, and dry and wet depositions) and includes the following species: non-sea-salt sulfate, black carbon, organic carbon, sea salt, mineral dust, and aerosol precursor gases (e.g., sulfur dioxide and dimethyl sulfide).
+References: Tanaka et al. 2003; Yukimoto et al. submitted; Oshima et al., in preparation
+</t>
+  </si>
+  <si>
     <t>1.1.1.4 *</t>
   </si>
   <si>
@@ -216,18 +218,24 @@
     <t>Stratosphere</t>
   </si>
   <si>
+    <t>troposphere</t>
+  </si>
+  <si>
+    <t>stratosphere</t>
+  </si>
+  <si>
+    <t>mesosphere</t>
+  </si>
+  <si>
+    <t>whole atmosphere</t>
+  </si>
+  <si>
+    <t>Other: document in cell to the right</t>
+  </si>
+  <si>
     <t>Troposphere</t>
   </si>
   <si>
-    <t>Mesosphere</t>
-  </si>
-  <si>
-    <t>Whole atmosphere</t>
-  </si>
-  <si>
-    <t>Other: document in cell to the right</t>
-  </si>
-  <si>
     <t>1.1.1.5 *</t>
   </si>
   <si>
@@ -240,6 +248,9 @@
     <t>cmip6.aerosol.key_properties.basic_approximations</t>
   </si>
   <si>
+    <t>Ideal gas, primitive equations, external mixture</t>
+  </si>
+  <si>
     <t>1.1.1.6 *</t>
   </si>
   <si>
@@ -321,6 +332,9 @@
     <t>cmip6.aerosol.key_properties.software_properties.code_version</t>
   </si>
   <si>
+    <t>masingar_mk2r4_ESM2</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.2.1.3 </t>
   </si>
   <si>
@@ -333,6 +347,9 @@
     <t>cmip6.aerosol.key_properties.software_properties.code_languages</t>
   </si>
   <si>
+    <t>Fortran 95</t>
+  </si>
+  <si>
     <t>1.3.1</t>
   </si>
   <si>
@@ -354,12 +371,12 @@
     <t>cmip6.aerosol.key_properties.timestep_framework.method</t>
   </si>
   <si>
+    <t>Specific timestepping (operator splitting)</t>
+  </si>
+  <si>
     <t>Uses atmospheric chemistry time stepping</t>
   </si>
   <si>
-    <t>Specific timestepping (operator splitting)</t>
-  </si>
-  <si>
     <t>Specific timestepping (integrated)</t>
   </si>
   <si>
@@ -411,6 +428,9 @@
     <t>cmip6.aerosol.key_properties.timestep_framework.integrated_scheme_type</t>
   </si>
   <si>
+    <t>Back Euler</t>
+  </si>
+  <si>
     <t>Explicit</t>
   </si>
   <si>
@@ -426,9 +446,6 @@
     <t>Impact solver</t>
   </si>
   <si>
-    <t>Back Euler</t>
-  </si>
-  <si>
     <t>Newton Raphson</t>
   </si>
   <si>
@@ -453,6 +470,10 @@
     <t>cmip6.aerosol.key_properties.meteorological_forcings.variables_3D</t>
   </si>
   <si>
+    <t xml:space="preserve">U, V, T, Q, divergence, cloud droplet to rain conversion rate (convective cloud), cloud droplet to rain conversion rate (large-scale cloud), rain to vapor (convective cloud), rain to vapor (large-scale cloud), RH, organized entrainment rate, organized detrainment rate, upward mass flux in cumulus, cloud water content in cumulus, conversion from cloud water to precipitation in cumulus, cloud water content, cloud cover, eddy diffusion coefficient, ozone
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.4.1.2 </t>
   </si>
   <si>
@@ -465,6 +486,9 @@
     <t>cmip6.aerosol.key_properties.meteorological_forcings.variables_2D</t>
   </si>
   <si>
+    <t>SST, U(10m), V(10m), T(2m), Q(2m), zonal surface stress, meridional surface stress, friction velocity, sea ice fraction, roughness length, convective precipitation, large-scale precipitation, sensible heat flux, latent heat flux, ground temperature, snow cover, soil ice, vegetation cover (canopy), vegetation cover (grass), LAI (canopy), LAI (grass), volumetric soil water content, landmask type definitions, land-sea mask ratio, surface pressure, longitude derivative of surface pressure, latitude derivative of surface pressure</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.4.1.3 </t>
   </si>
   <si>
@@ -495,6 +519,9 @@
     <t>cmip6.aerosol.key_properties.resolution.name</t>
   </si>
   <si>
+    <t>TL95L80</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.5.1.2 </t>
   </si>
   <si>
@@ -507,6 +534,9 @@
     <t>cmip6.aerosol.key_properties.resolution.canonical_horizontal_resolution</t>
   </si>
   <si>
+    <t>180km or 1.875 degree</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.5.1.3 </t>
   </si>
   <si>
@@ -564,6 +594,9 @@
     <t>cmip6.aerosol.key_properties.tuning_applied.description</t>
   </si>
   <si>
+    <t>No tuning.</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.6.1.2 </t>
   </si>
   <si>
@@ -627,6 +660,10 @@
     <t>cmip6.aerosol.grid.overview</t>
   </si>
   <si>
+    <t>Horizontal: Gaussian grids of 192 x 96 in longitude and latitude (approximately 180 km or 1.875 degree)
+Vertical: sigma-pressure hybrid coordinate with 80 vertical layers up to the 0.01 hPa lavel (same as the atmospheric model)</t>
+  </si>
+  <si>
     <t>2.1.1.3 *</t>
   </si>
   <si>
@@ -709,851 +746,6 @@
   </si>
   <si>
     <t>cmip6.aerosol.transport.overview</t>
-  </si>
-  <si>
-    <t>3.1.1.3 *</t>
-  </si>
-  <si>
-    <t>Scheme</t>
-  </si>
-  <si>
-    <t>Method for aerosol transport modelling</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.transport.scheme</t>
-  </si>
-  <si>
-    <t>Uses atmospheric chemistry transport scheme</t>
-  </si>
-  <si>
-    <t>Specific transport scheme (eulerian)</t>
-  </si>
-  <si>
-    <t>Specific transport scheme (semi-lagrangian)</t>
-  </si>
-  <si>
-    <t>Specific transport scheme (eulerian and semi-lagrangian)</t>
-  </si>
-  <si>
-    <t>Specific transport scheme (lagrangian)</t>
-  </si>
-  <si>
-    <t>3.1.1.4 *</t>
-  </si>
-  <si>
-    <t>Mass Conservation Scheme</t>
-  </si>
-  <si>
-    <t>Methods used to ensure mass conservation.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.transport.mass_conservation_scheme</t>
-  </si>
-  <si>
-    <t>Concentrations positivity</t>
-  </si>
-  <si>
-    <t>Mass adjustment</t>
-  </si>
-  <si>
-    <t>Gradients monotonicity</t>
-  </si>
-  <si>
-    <t>3.1.1.5 *</t>
-  </si>
-  <si>
-    <t>Convention</t>
-  </si>
-  <si>
-    <t>Transport by convention</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.transport.convention</t>
-  </si>
-  <si>
-    <t>Convective fluxes connected to tracers</t>
-  </si>
-  <si>
-    <t>Vertical velocities connected to tracers</t>
-  </si>
-  <si>
-    <t>4.1.1</t>
-  </si>
-  <si>
-    <t>Emissions</t>
-  </si>
-  <si>
-    <t>Atmospheric aerosol emissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1.1.1 </t>
-  </si>
-  <si>
-    <t>Commonly used name for the emissions in aerosol model.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.emissions.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1.1.2 </t>
-  </si>
-  <si>
-    <t>Overview of atmospheric aerosol emissions in aerosol model.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.emissions.overview</t>
-  </si>
-  <si>
-    <t>4.1.1.3 *</t>
-  </si>
-  <si>
-    <t>Method used to define aerosol species (several methods allowed because the different species may not use the same method).</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.emissions.method</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Prescribed (climatology)</t>
-  </si>
-  <si>
-    <t>Prescribed CMIP6</t>
-  </si>
-  <si>
-    <t>Prescribed above surface</t>
-  </si>
-  <si>
-    <t>Interactive</t>
-  </si>
-  <si>
-    <t>Interactive above surface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1.1.4 </t>
-  </si>
-  <si>
-    <t>Sources</t>
-  </si>
-  <si>
-    <t>Sources of the aerosol species are taken into account in the emissions scheme</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.emissions.sources</t>
-  </si>
-  <si>
-    <t>Vegetation</t>
-  </si>
-  <si>
-    <t>Volcanos</t>
-  </si>
-  <si>
-    <t>Bare ground</t>
-  </si>
-  <si>
-    <t>Sea surface</t>
-  </si>
-  <si>
-    <t>Lightning</t>
-  </si>
-  <si>
-    <t>Fires</t>
-  </si>
-  <si>
-    <t>Aircraft</t>
-  </si>
-  <si>
-    <t>Anthropogenic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1.1.5 </t>
-  </si>
-  <si>
-    <t>Prescribed Climatology</t>
-  </si>
-  <si>
-    <t>Specify the climatology type for aerosol emissions</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.emissions.prescribed_climatology</t>
-  </si>
-  <si>
-    <t>Constant</t>
-  </si>
-  <si>
-    <t>Interannual</t>
-  </si>
-  <si>
-    <t>Annual</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>Daily</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1.1.6 </t>
-  </si>
-  <si>
-    <t>Prescribed Climatology Emitted Species</t>
-  </si>
-  <si>
-    <t>List of aerosol species emitted and prescribed via a climatology</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.emissions.prescribed_climatology_emitted_species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1.1.7 </t>
-  </si>
-  <si>
-    <t>Prescribed Spatially Uniform Emitted Species</t>
-  </si>
-  <si>
-    <t>List of aerosol species emitted  and prescribed as spatially uniform</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.emissions.prescribed_spatially_uniform_emitted_species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1.1.8 </t>
-  </si>
-  <si>
-    <t>Interactive Emitted Species</t>
-  </si>
-  <si>
-    <t>List of aerosol species emitted and specified via an interactive method</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.emissions.interactive_emitted_species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1.1.9 </t>
-  </si>
-  <si>
-    <t>Other Emitted Species</t>
-  </si>
-  <si>
-    <t>List of aerosol species emitted and specified via an "other method"</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.emissions.other_emitted_species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1.1.10 </t>
-  </si>
-  <si>
-    <t>Other Method Characteristics</t>
-  </si>
-  <si>
-    <t>Characteristics of the "other method" used for aerosol emissions</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.emissions.other_method_characteristics</t>
-  </si>
-  <si>
-    <t>5.1.1</t>
-  </si>
-  <si>
-    <t>Concentrations</t>
-  </si>
-  <si>
-    <t>Atmospheric aerosol concentrations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.1 </t>
-  </si>
-  <si>
-    <t>Commonly used name for the concentrations in aerosol model.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.concentrations.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.2 </t>
-  </si>
-  <si>
-    <t>Overview of atmospheric aerosol concentrations in aerosol model.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.concentrations.overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.3 </t>
-  </si>
-  <si>
-    <t>Prescribed Lower Boundary</t>
-  </si>
-  <si>
-    <t>List of species prescribed at the lower boundary.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.concentrations.prescribed_lower_boundary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.4 </t>
-  </si>
-  <si>
-    <t>Prescribed Upper Boundary</t>
-  </si>
-  <si>
-    <t>List of species prescribed at the upper boundary.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.concentrations.prescribed_upper_boundary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.5 </t>
-  </si>
-  <si>
-    <t>Prescribed Fields Mmr</t>
-  </si>
-  <si>
-    <t>List of species prescribed as mass mixing ratios.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.concentrations.prescribed_fields_mmr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.6 </t>
-  </si>
-  <si>
-    <t>Prescribed Fields Aod Plus Ccn</t>
-  </si>
-  <si>
-    <t>List of species prescribed as AOD plus CCNs.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.concentrations.prescribed_fields_aod_plus_ccn</t>
-  </si>
-  <si>
-    <t>6.1.1</t>
-  </si>
-  <si>
-    <t>Optical Radiative Properties</t>
-  </si>
-  <si>
-    <t>Aerosol optical and radiative properties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1.1.1 </t>
-  </si>
-  <si>
-    <t>Commonly used name for the optical radiative properties in aerosol model.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1.1.2 </t>
-  </si>
-  <si>
-    <t>Overview of aerosol optical and radiative properties in aerosol model.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.overview</t>
-  </si>
-  <si>
-    <t>6.2.1</t>
-  </si>
-  <si>
-    <t>Optical Radiative Properties --&gt; Absorption</t>
-  </si>
-  <si>
-    <t>Absortion properties in aerosol scheme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2.1.1 </t>
-  </si>
-  <si>
-    <t>Black Carbon</t>
-  </si>
-  <si>
-    <t>FLOAT</t>
-  </si>
-  <si>
-    <t>Absorption mass coefficient of black carbon at 550nm (if non-absorbing enter 0)</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.absorption.black_carbon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2.1.2 </t>
-  </si>
-  <si>
-    <t>Dust</t>
-  </si>
-  <si>
-    <t>Absorption mass coefficient of dust at 550nm (if non-absorbing enter 0)</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.absorption.dust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2.1.3 </t>
-  </si>
-  <si>
-    <t>Organics</t>
-  </si>
-  <si>
-    <t>Absorption mass coefficient of organics at 550nm (if non-absorbing enter 0)</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.absorption.organics</t>
-  </si>
-  <si>
-    <t>6.3.1</t>
-  </si>
-  <si>
-    <t>Optical Radiative Properties --&gt; Mixtures</t>
-  </si>
-  <si>
-    <t>6.3.1.1 *</t>
-  </si>
-  <si>
-    <t>External</t>
-  </si>
-  <si>
-    <t>Is there external mixing with respect to chemical composition?</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.mixtures.external</t>
-  </si>
-  <si>
-    <t>6.3.1.2 *</t>
-  </si>
-  <si>
-    <t>Internal</t>
-  </si>
-  <si>
-    <t>Is there internal mixing with respect to chemical composition?</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.mixtures.internal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3.1.3 </t>
-  </si>
-  <si>
-    <t>Mixing Rule</t>
-  </si>
-  <si>
-    <t>If there is internal mixing with respect to chemical composition then indicate the mixing rule</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.mixtures.mixing_rule</t>
-  </si>
-  <si>
-    <t>6.4.1</t>
-  </si>
-  <si>
-    <t>Optical Radiative Properties --&gt; Impact Of H2o</t>
-  </si>
-  <si>
-    <t>The impact of H2O on aerosols</t>
-  </si>
-  <si>
-    <t>6.4.1.1 *</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Does H2O impact size?</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.impact_of_h2o.size</t>
-  </si>
-  <si>
-    <t>6.4.1.2 *</t>
-  </si>
-  <si>
-    <t>Internal Mixture</t>
-  </si>
-  <si>
-    <t>Does H2O impact aerosol internal mixture?</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.impact_of_h2o.internal_mixture</t>
-  </si>
-  <si>
-    <t>6.4.1.3 *</t>
-  </si>
-  <si>
-    <t>External Mixture</t>
-  </si>
-  <si>
-    <t>Does H2O impact aerosol external mixture?</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.impact_of_h2o.external_mixture</t>
-  </si>
-  <si>
-    <t>6.5.1</t>
-  </si>
-  <si>
-    <t>Optical Radiative Properties --&gt; Radiative Scheme</t>
-  </si>
-  <si>
-    <t>Radiative scheme for aerosol</t>
-  </si>
-  <si>
-    <t>6.5.1.1 *</t>
-  </si>
-  <si>
-    <t>Overview of radiative scheme</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.radiative_scheme.overview</t>
-  </si>
-  <si>
-    <t>6.5.1.2 *</t>
-  </si>
-  <si>
-    <t>Shortwave Bands</t>
-  </si>
-  <si>
-    <t>Number of shortwave bands</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.radiative_scheme.shortwave_bands</t>
-  </si>
-  <si>
-    <t>6.5.1.3 *</t>
-  </si>
-  <si>
-    <t>Longwave Bands</t>
-  </si>
-  <si>
-    <t>Number of longwave bands</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.radiative_scheme.longwave_bands</t>
-  </si>
-  <si>
-    <t>6.6.1</t>
-  </si>
-  <si>
-    <t>Optical Radiative Properties --&gt; Cloud Interactions</t>
-  </si>
-  <si>
-    <t>Aerosol-cloud interactions</t>
-  </si>
-  <si>
-    <t>6.6.1.1 *</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.overview</t>
-  </si>
-  <si>
-    <t>6.6.1.2 *</t>
-  </si>
-  <si>
-    <t>Twomey</t>
-  </si>
-  <si>
-    <t>Is the Twomey effect included?</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.twomey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6.1.3 </t>
-  </si>
-  <si>
-    <t>Twomey Minimum Ccn</t>
-  </si>
-  <si>
-    <t>If the Twomey effect is included, then what is the minimum CCN number?</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.twomey_minimum_ccn</t>
-  </si>
-  <si>
-    <t>6.6.1.4 *</t>
-  </si>
-  <si>
-    <t>Drizzle</t>
-  </si>
-  <si>
-    <t>Does the scheme affect drizzle?</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.drizzle</t>
-  </si>
-  <si>
-    <t>6.6.1.5 *</t>
-  </si>
-  <si>
-    <t>Cloud Lifetime</t>
-  </si>
-  <si>
-    <t>Does the scheme affect cloud lifetime?</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.cloud_lifetime</t>
-  </si>
-  <si>
-    <t>6.6.1.6 *</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.longwave_bands</t>
-  </si>
-  <si>
-    <t>7.1.1</t>
-  </si>
-  <si>
-    <t>Aerosol model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1.1.1 </t>
-  </si>
-  <si>
-    <t>Commonly used name for the model in aerosol model.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.model.name</t>
-  </si>
-  <si>
-    <t>7.1.1.2 *</t>
-  </si>
-  <si>
-    <t>Overview of atmospheric aerosol model</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.model.overview</t>
-  </si>
-  <si>
-    <t>7.1.1.3 *</t>
-  </si>
-  <si>
-    <t>Processes</t>
-  </si>
-  <si>
-    <t>Processes included in the aerosol model.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.model.processes</t>
-  </si>
-  <si>
-    <t>Advection (horizontal)</t>
-  </si>
-  <si>
-    <t>Dry deposition</t>
-  </si>
-  <si>
-    <t>Sedimentation</t>
-  </si>
-  <si>
-    <t>Wet deposition (impaction scavenging)</t>
-  </si>
-  <si>
-    <t>Wet deposition (nucleation scavenging)</t>
-  </si>
-  <si>
-    <t>Coagulation</t>
-  </si>
-  <si>
-    <t>Oxidation (gas phase)</t>
-  </si>
-  <si>
-    <t>Oxidation (in cloud)</t>
-  </si>
-  <si>
-    <t>Condensation</t>
-  </si>
-  <si>
-    <t>Ageing</t>
-  </si>
-  <si>
-    <t>Advection (vertical)</t>
-  </si>
-  <si>
-    <t>Heterogeneous chemistry</t>
-  </si>
-  <si>
-    <t>Nucleation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1.1.4 </t>
-  </si>
-  <si>
-    <t>Coupling</t>
-  </si>
-  <si>
-    <t>Other model components coupled to the aerosol model</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.model.coupling</t>
-  </si>
-  <si>
-    <t>Clouds</t>
-  </si>
-  <si>
-    <t>Radiation</t>
-  </si>
-  <si>
-    <t>Land surface</t>
-  </si>
-  <si>
-    <t>Ocean</t>
-  </si>
-  <si>
-    <t>Cryosphere</t>
-  </si>
-  <si>
-    <t>Gas phase chemistry</t>
-  </si>
-  <si>
-    <t>7.1.1.5 *</t>
-  </si>
-  <si>
-    <t>Gas Phase Precursors</t>
-  </si>
-  <si>
-    <t>Gas phase aerosol precursors.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.model.gas_phase_precursors</t>
-  </si>
-  <si>
-    <t>DMS</t>
-  </si>
-  <si>
-    <t>SO2</t>
-  </si>
-  <si>
-    <t>Ammonia</t>
-  </si>
-  <si>
-    <t>Iodine</t>
-  </si>
-  <si>
-    <t>Terpene</t>
-  </si>
-  <si>
-    <t>Isoprene</t>
-  </si>
-  <si>
-    <t>VOC</t>
-  </si>
-  <si>
-    <t>NOx</t>
-  </si>
-  <si>
-    <t>7.1.1.6 *</t>
-  </si>
-  <si>
-    <t>Scheme Type</t>
-  </si>
-  <si>
-    <t>Type(s) of aerosol scheme used by the aerosol model (potentially multiple: some species may be covered by one type of aerosol scheme and other species covered by another type).</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.model.scheme_type</t>
-  </si>
-  <si>
-    <t>Bin</t>
-  </si>
-  <si>
-    <t>Bulk</t>
-  </si>
-  <si>
-    <t>Modal</t>
-  </si>
-  <si>
-    <t>7.1.1.7 *</t>
-  </si>
-  <si>
-    <t>Bulk Scheme Species</t>
-  </si>
-  <si>
-    <t>Species covered by the bulk scheme.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.model.bulk_scheme_species</t>
-  </si>
-  <si>
-    <t>Black carbon / soot</t>
-  </si>
-  <si>
-    <t>Sulphate</t>
-  </si>
-  <si>
-    <t>Nitrate</t>
-  </si>
-  <si>
-    <t>Sea salt</t>
-  </si>
-  <si>
-    <t>Ice</t>
-  </si>
-  <si>
-    <t>Organic</t>
-  </si>
-  <si>
-    <t>SOA (secondary organic aerosols)</t>
-  </si>
-  <si>
-    <t>POM (particulate organic matter)</t>
-  </si>
-  <si>
-    <t>Polar stratospheric ice</t>
-  </si>
-  <si>
-    <t>NAT (Nitric acid trihydrate)</t>
-  </si>
-  <si>
-    <t>NAD (Nitric acid dihydrate)</t>
-  </si>
-  <si>
-    <t>STS (supercooled ternary solution aerosol particule)</t>
-  </si>
-  <si>
-    <t>MASINGAR mk-2r4c</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Ideal gas, primitive equations, external mixture</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>masingar_mk2r4_ESM2</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>TL95L80</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>No tuning.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>OCS</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Overview of aerosol-cloud interactions</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>MASINGAR</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Imaginary part of complex refractive index for dry aerosol</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>180km or 1.875 degree</t>
-    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>Grid-scale transport: 
@@ -1561,48 +753,99 @@
 Subgrid-scale transport/mixing:
    Vertical mixing due to turbulence
    Vertical transport due to (deep) convection</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Aerosol concentrations are calculated by aerosol physical and chemical processes (e.g., emission, transport, diffusion, chemical reactions, and dry and wet depositions) in the aerosol model.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Volcanos</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>SO2 from continuously degassing volcanoes</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Radiation is calculated in the atmospheric model and there is no radiative scheme in the aerosol model. Descriptions shown in below are used in the atmospheric model.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Aerosol-cloud interactions are calculated in the atmospheric model and there is no aerosol-cloud interaction scheme in the aerosol model. Descriptions shown in below are used in the atmospheric model.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>SST, U(10m), V(10m), T(2m), Q(2m), zonal surface stress, meridional surface stress, friction velocity, sea ice fraction, roughness length, convective precipitation, large-scale precipitation, sensible heat flux, latent heat flux, ground temperature, snow cover, soil ice, vegetation cover (canopy), vegetation cover (grass), LAI (canopy), LAI (grass), volumetric soil water content, landmask type definitions, land-sea mask ratio, surface pressure, longitude derivative of surface pressure, latitude derivative of surface pressure</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Fortran 95</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Aerosol optical and radiative properties are calculated in the aerosol-radiation scheme in the atmospheric model using mass concentrations of aerosols, which are provided by the aerosol model. Descriptions shown in below are used in the atmospheric model.
-</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>MASINGAR (Model of Aerosol Species IN the Global AtmospheRe) treats the main five aerosol species (sulfates, organic aerosols, black carbon, sea salt, and mineral dust) and their precursors. It is developed in the Meteorological Research Institute (MRI) of Japan Meteorological Agency and used for the aerosol forecasting and climate researches. Log-normal size distributions are assumed for sulfates, BC, and OA, and size-bin method is used for the sea salt and mineral dust. Precursor gases of sulfates include dimethyl sulfide, sulfur dioxide, and sulfur trioxide, and oxidized to sulfates via gas- and aqueous-phase reactions. Oxidants of sulfur reactions include OH, NO2, O3, and provided by the chemistry model MRI-CCM2. BC and OA are separated into hydrophobic and hydrophilic particles and their conversion rate is calculated based on the abundance of sulfates. Aerosol concentrations are passed to the atmospheric model MRI-AGCM and aerosol-radiation and aerosol-cloud interactions are calculated in the atmospheric model. Deposition fluxes of the light absorbing aerosols (BC and mineral dust) are also passed to the atmospheric model and used for the calculation of snow darkening effect of snow and sea ice.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Core-shell aerosol treatment for hydrophilic-BC/SO4 mixture, volume-weighted averaging for other aerosol species</t>
-    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>3.1.1.3 *</t>
+  </si>
+  <si>
+    <t>Scheme</t>
+  </si>
+  <si>
+    <t>Method for aerosol transport modelling</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.transport.scheme</t>
+  </si>
+  <si>
+    <t>Specific transport scheme (semi-lagrangian)</t>
+  </si>
+  <si>
+    <t>Uses atmospheric chemistry transport scheme</t>
+  </si>
+  <si>
+    <t>Specific transport scheme (eulerian)</t>
+  </si>
+  <si>
+    <t>Specific transport scheme (eulerian and semi-lagrangian)</t>
+  </si>
+  <si>
+    <t>Specific transport scheme (lagrangian)</t>
+  </si>
+  <si>
+    <t>3.1.1.4 *</t>
+  </si>
+  <si>
+    <t>Mass Conservation Scheme</t>
+  </si>
+  <si>
+    <t>Methods used to ensure mass conservation.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.transport.mass_conservation_scheme</t>
+  </si>
+  <si>
+    <t>Concentrations positivity</t>
+  </si>
+  <si>
+    <t>Mass adjustment</t>
+  </si>
+  <si>
+    <t>Gradients monotonicity</t>
+  </si>
+  <si>
+    <t>3.1.1.5 *</t>
+  </si>
+  <si>
+    <t>Convention</t>
+  </si>
+  <si>
+    <t>Transport by convention</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.transport.convention</t>
+  </si>
+  <si>
+    <t>Convective fluxes connected to tracers</t>
+  </si>
+  <si>
+    <t>Vertical velocities connected to tracers</t>
+  </si>
+  <si>
+    <t>4.1.1</t>
+  </si>
+  <si>
+    <t>Emissions</t>
+  </si>
+  <si>
+    <t>Atmospheric aerosol emissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.1.1 </t>
+  </si>
+  <si>
+    <t>Commonly used name for the emissions in aerosol model.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.emissions.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.1.2 </t>
+  </si>
+  <si>
+    <t>Overview of atmospheric aerosol emissions in aerosol model.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.emissions.overview</t>
   </si>
   <si>
     <t xml:space="preserve">Anthropogenic and biomass burning emissions (SO2, BC, OC) from the surface are obtained from the CMIP6 forcing data.
@@ -1610,58 +853,759 @@
 Sulfur species originating from natural source and sea salt and dust are interactively calculated in the model.
 SO2 originating from continuous volcanic eruptions are calculated from the Global Emissions Inventory Activity database SO2 emission inventory (Andres and Kasgnoc 1998). 
 </t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Horizontal: Gaussian grids of 192 x 96 in longitude and latitude (approximately 180 km or 1.875 degree)
-Vertical: sigma-pressure hybrid coordinate with 80 vertical layers up to the 0.01 hPa lavel (same as the atmospheric model)</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Model of Aerosol Species in the Global Atmosphere mark-2 revision 4-climate (MASINGAR mk-2r4c) treats atmospheric aerosol physical and chemical processes (e.g., emission, transport, diffusion, chemical reactions, and dry and wet depositions) and includes the following species: non-sea-salt sulfate, black carbon, organic carbon, sea salt, mineral dust, and aerosol precursor gases (e.g., sulfur dioxide and dimethyl sulfide).
-References: Tanaka et al. 2003; Yukimoto et al. submitted; Oshima et al., in preparation
+  </si>
+  <si>
+    <t>4.1.1.3 *</t>
+  </si>
+  <si>
+    <t>Method used to define aerosol species (several methods allowed because the different species may not use the same method).</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.emissions.method</t>
+  </si>
+  <si>
+    <t>Interactive</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Prescribed (climatology)</t>
+  </si>
+  <si>
+    <t>Prescribed CMIP6</t>
+  </si>
+  <si>
+    <t>Prescribed above surface</t>
+  </si>
+  <si>
+    <t>Interactive above surface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.1.4 </t>
+  </si>
+  <si>
+    <t>Sources</t>
+  </si>
+  <si>
+    <t>Sources of the aerosol species are taken into account in the emissions scheme</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.emissions.sources</t>
+  </si>
+  <si>
+    <t>Volcanos</t>
+  </si>
+  <si>
+    <t>Vegetation</t>
+  </si>
+  <si>
+    <t>Bare ground</t>
+  </si>
+  <si>
+    <t>Sea surface</t>
+  </si>
+  <si>
+    <t>Lightning</t>
+  </si>
+  <si>
+    <t>Fires</t>
+  </si>
+  <si>
+    <t>Aircraft</t>
+  </si>
+  <si>
+    <t>Anthropogenic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.1.5 </t>
+  </si>
+  <si>
+    <t>Prescribed Climatology</t>
+  </si>
+  <si>
+    <t>Specify the climatology type for aerosol emissions</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.emissions.prescribed_climatology</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>Interannual</t>
+  </si>
+  <si>
+    <t>Annual</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.1.6 </t>
+  </si>
+  <si>
+    <t>Prescribed Climatology Emitted Species</t>
+  </si>
+  <si>
+    <t>List of aerosol species emitted and prescribed via a climatology</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.emissions.prescribed_climatology_emitted_species</t>
+  </si>
+  <si>
+    <t>SO2 from continuously degassing volcanoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.1.7 </t>
+  </si>
+  <si>
+    <t>Prescribed Spatially Uniform Emitted Species</t>
+  </si>
+  <si>
+    <t>List of aerosol species emitted  and prescribed as spatially uniform</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.emissions.prescribed_spatially_uniform_emitted_species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.1.8 </t>
+  </si>
+  <si>
+    <t>Interactive Emitted Species</t>
+  </si>
+  <si>
+    <t>List of aerosol species emitted and specified via an interactive method</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.emissions.interactive_emitted_species</t>
+  </si>
+  <si>
+    <t>Mineral dust, sea salt, dimethyl sulfide from the ocean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.1.9 </t>
+  </si>
+  <si>
+    <t>Other Emitted Species</t>
+  </si>
+  <si>
+    <t>List of aerosol species emitted and specified via an "other method"</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.emissions.other_emitted_species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.1.10 </t>
+  </si>
+  <si>
+    <t>Other Method Characteristics</t>
+  </si>
+  <si>
+    <t>Characteristics of the "other method" used for aerosol emissions</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.emissions.other_method_characteristics</t>
+  </si>
+  <si>
+    <t>5.1.1</t>
+  </si>
+  <si>
+    <t>Concentrations</t>
+  </si>
+  <si>
+    <t>Atmospheric aerosol concentrations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.1 </t>
+  </si>
+  <si>
+    <t>Commonly used name for the concentrations in aerosol model.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.concentrations.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.2 </t>
+  </si>
+  <si>
+    <t>Overview of atmospheric aerosol concentrations in aerosol model.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.concentrations.overview</t>
+  </si>
+  <si>
+    <t>Aerosol concentrations are calculated by aerosol physical and chemical processes (e.g., emission, transport, diffusion, chemical reactions, and dry and wet depositions) in the aerosol model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.3 </t>
+  </si>
+  <si>
+    <t>Prescribed Lower Boundary</t>
+  </si>
+  <si>
+    <t>List of species prescribed at the lower boundary.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.concentrations.prescribed_lower_boundary</t>
+  </si>
+  <si>
+    <t>OCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.4 </t>
+  </si>
+  <si>
+    <t>Prescribed Upper Boundary</t>
+  </si>
+  <si>
+    <t>List of species prescribed at the upper boundary.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.concentrations.prescribed_upper_boundary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.5 </t>
+  </si>
+  <si>
+    <t>Prescribed Fields Mmr</t>
+  </si>
+  <si>
+    <t>List of species prescribed as mass mixing ratios.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.concentrations.prescribed_fields_mmr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.6 </t>
+  </si>
+  <si>
+    <t>Prescribed Fields Aod Plus Ccn</t>
+  </si>
+  <si>
+    <t>List of species prescribed as AOD plus CCNs.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.concentrations.prescribed_fields_aod_plus_ccn</t>
+  </si>
+  <si>
+    <t>6.1.1</t>
+  </si>
+  <si>
+    <t>Optical Radiative Properties</t>
+  </si>
+  <si>
+    <t>Aerosol optical and radiative properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1.1.1 </t>
+  </si>
+  <si>
+    <t>Commonly used name for the optical radiative properties in aerosol model.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.optical_radiative_properties.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1.1.2 </t>
+  </si>
+  <si>
+    <t>Overview of aerosol optical and radiative properties in aerosol model.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.optical_radiative_properties.overview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aerosol optical and radiative properties are calculated in the aerosol-radiation scheme in the atmospheric model using mass concentrations of aerosols, which are provided by the aerosol model. Descriptions shown in below are used in the atmospheric model.
 </t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>U, V, T, Q, divergence, cloud droplet to rain conversion rate (convective cloud), cloud droplet to rain conversion rate (large-scale cloud), rain to vapor (convective cloud), rain to vapor (large-scale cloud), RH, organized entrainment rate, organized detrainment rate, upward mass flux in cumulus, cloud water content in cumulus, conversion from cloud water to precipitation in cumulus, cloud water content, cloud cover, eddy diffusion coefficient, ozone</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Mineral dust, sea salt, dimethyl sulfide from the ocean</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>MRI</t>
-    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>6.2.1</t>
+  </si>
+  <si>
+    <t>Optical Radiative Properties --&gt; Absorption</t>
+  </si>
+  <si>
+    <t>Absortion properties in aerosol scheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2.1.1 </t>
+  </si>
+  <si>
+    <t>Black Carbon</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t>Absorption mass coefficient of black carbon at 550nm (if non-absorbing enter 0)</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.optical_radiative_properties.absorption.black_carbon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2.1.2 </t>
+  </si>
+  <si>
+    <t>Dust</t>
+  </si>
+  <si>
+    <t>Absorption mass coefficient of dust at 550nm (if non-absorbing enter 0)</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.optical_radiative_properties.absorption.dust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2.1.3 </t>
+  </si>
+  <si>
+    <t>Organics</t>
+  </si>
+  <si>
+    <t>Absorption mass coefficient of organics at 550nm (if non-absorbing enter 0)</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.optical_radiative_properties.absorption.organics</t>
+  </si>
+  <si>
+    <t>6.3.1</t>
+  </si>
+  <si>
+    <t>Optical Radiative Properties --&gt; Mixtures</t>
+  </si>
+  <si>
+    <t>6.3.1.1 *</t>
+  </si>
+  <si>
+    <t>External</t>
+  </si>
+  <si>
+    <t>Is there external mixing with respect to chemical composition?</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.optical_radiative_properties.mixtures.external</t>
+  </si>
+  <si>
+    <t>6.3.1.2 *</t>
+  </si>
+  <si>
+    <t>Internal</t>
+  </si>
+  <si>
+    <t>Is there internal mixing with respect to chemical composition?</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.optical_radiative_properties.mixtures.internal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3.1.3 </t>
+  </si>
+  <si>
+    <t>Mixing Rule</t>
+  </si>
+  <si>
+    <t>If there is internal mixing with respect to chemical composition then indicate the mixing rule</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.optical_radiative_properties.mixtures.mixing_rule</t>
+  </si>
+  <si>
+    <t>Core-shell aerosol treatment for hydrophilic-BC/SO4 mixture, volume-weighted averaging for other aerosol species</t>
+  </si>
+  <si>
+    <t>6.4.1</t>
+  </si>
+  <si>
+    <t>Optical Radiative Properties --&gt; Impact Of H2o</t>
+  </si>
+  <si>
+    <t>The impact of H2O on aerosols</t>
+  </si>
+  <si>
+    <t>6.4.1.1 *</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Does H2O impact size?</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.optical_radiative_properties.impact_of_h2o.size</t>
+  </si>
+  <si>
+    <t>6.4.1.2 *</t>
+  </si>
+  <si>
+    <t>Internal Mixture</t>
+  </si>
+  <si>
+    <t>Does H2O impact aerosol internal mixture?</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.optical_radiative_properties.impact_of_h2o.internal_mixture</t>
+  </si>
+  <si>
+    <t>6.4.1.3 *</t>
+  </si>
+  <si>
+    <t>External Mixture</t>
+  </si>
+  <si>
+    <t>Does H2O impact aerosol external mixture?</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.optical_radiative_properties.impact_of_h2o.external_mixture</t>
+  </si>
+  <si>
+    <t>6.5.1</t>
+  </si>
+  <si>
+    <t>Optical Radiative Properties --&gt; Radiative Scheme</t>
+  </si>
+  <si>
+    <t>Radiative scheme for aerosol</t>
+  </si>
+  <si>
+    <t>6.5.1.1 *</t>
+  </si>
+  <si>
+    <t>Overview of radiative scheme</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.optical_radiative_properties.radiative_scheme.overview</t>
+  </si>
+  <si>
+    <t>Radiation is calculated in the atmospheric model and there is no radiative scheme in the aerosol model. Descriptions shown in below are used in the atmospheric model.</t>
+  </si>
+  <si>
+    <t>6.5.1.2 *</t>
+  </si>
+  <si>
+    <t>Shortwave Bands</t>
+  </si>
+  <si>
+    <t>Number of shortwave bands</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.optical_radiative_properties.radiative_scheme.shortwave_bands</t>
+  </si>
+  <si>
+    <t>6.5.1.3 *</t>
+  </si>
+  <si>
+    <t>Longwave Bands</t>
+  </si>
+  <si>
+    <t>Number of longwave bands</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.optical_radiative_properties.radiative_scheme.longwave_bands</t>
+  </si>
+  <si>
+    <t>6.6.1</t>
+  </si>
+  <si>
+    <t>Optical Radiative Properties --&gt; Cloud Interactions</t>
+  </si>
+  <si>
+    <t>Aerosol-cloud interactions</t>
+  </si>
+  <si>
+    <t>6.6.1.1 *</t>
+  </si>
+  <si>
+    <t>Overview of aerosol-cloud interactions</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.overview</t>
+  </si>
+  <si>
+    <t>Aerosol-cloud interactions are calculated in the atmospheric model and there is no aerosol-cloud interaction scheme in the aerosol model. Descriptions shown in below are used in the atmospheric model.</t>
+  </si>
+  <si>
+    <t>6.6.1.2 *</t>
+  </si>
+  <si>
+    <t>Twomey</t>
+  </si>
+  <si>
+    <t>Is the Twomey effect included?</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.twomey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6.1.3 </t>
+  </si>
+  <si>
+    <t>Twomey Minimum Ccn</t>
+  </si>
+  <si>
+    <t>If the Twomey effect is included, then what is the minimum CCN number?</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.twomey_minimum_ccn</t>
+  </si>
+  <si>
+    <t>6.6.1.4 *</t>
+  </si>
+  <si>
+    <t>Drizzle</t>
+  </si>
+  <si>
+    <t>Does the scheme affect drizzle?</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.drizzle</t>
+  </si>
+  <si>
+    <t>6.6.1.5 *</t>
+  </si>
+  <si>
+    <t>Cloud Lifetime</t>
+  </si>
+  <si>
+    <t>Does the scheme affect cloud lifetime?</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.cloud_lifetime</t>
+  </si>
+  <si>
+    <t>6.6.1.6 *</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.longwave_bands</t>
+  </si>
+  <si>
+    <t>7.1.1</t>
+  </si>
+  <si>
+    <t>Aerosol model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1.1.1 </t>
+  </si>
+  <si>
+    <t>Commonly used name for the model in aerosol model.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.model.name</t>
+  </si>
+  <si>
+    <t>MASINGAR</t>
+  </si>
+  <si>
+    <t>7.1.1.2 *</t>
+  </si>
+  <si>
+    <t>Overview of atmospheric aerosol model</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.model.overview</t>
+  </si>
+  <si>
+    <t>MASINGAR (Model of Aerosol Species IN the Global AtmospheRe) treats the main five aerosol species (sulfates, organic aerosols, black carbon, sea salt, and mineral dust) and their precursors. It is developed in the Meteorological Research Institute (MRI) of Japan Meteorological Agency and used for the aerosol forecasting and climate researches. Log-normal size distributions are assumed for sulfates, BC, and OA, and size-bin method is used for the sea salt and mineral dust. Precursor gases of sulfates include dimethyl sulfide, sulfur dioxide, and sulfur trioxide, and oxidized to sulfates via gas- and aqueous-phase reactions. Oxidants of sulfur reactions include OH, NO2, O3, and provided by the chemistry model MRI-CCM2. BC and OA are separated into hydrophobic and hydrophilic particles and their conversion rate is calculated based on the abundance of sulfates. Aerosol concentrations are passed to the atmospheric model MRI-AGCM and aerosol-radiation and aerosol-cloud interactions are calculated in the atmospheric model. Deposition fluxes of the light absorbing aerosols (BC and mineral dust) are also passed to the atmospheric model and used for the calculation of snow darkening effect of snow and sea ice.</t>
+  </si>
+  <si>
+    <t>7.1.1.3 *</t>
+  </si>
+  <si>
+    <t>Processes</t>
+  </si>
+  <si>
+    <t>Processes included in the aerosol model.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.model.processes</t>
+  </si>
+  <si>
+    <t>Advection (horizontal)</t>
+  </si>
+  <si>
+    <t>Dry deposition</t>
+  </si>
+  <si>
+    <t>Sedimentation</t>
+  </si>
+  <si>
+    <t>Wet deposition (impaction scavenging)</t>
+  </si>
+  <si>
+    <t>Wet deposition (nucleation scavenging)</t>
+  </si>
+  <si>
+    <t>Coagulation</t>
+  </si>
+  <si>
+    <t>Oxidation (gas phase)</t>
+  </si>
+  <si>
+    <t>Oxidation (in cloud)</t>
+  </si>
+  <si>
+    <t>Condensation</t>
+  </si>
+  <si>
+    <t>Ageing</t>
+  </si>
+  <si>
+    <t>Advection (vertical)</t>
+  </si>
+  <si>
+    <t>Heterogeneous chemistry</t>
+  </si>
+  <si>
+    <t>Nucleation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1.1.4 </t>
+  </si>
+  <si>
+    <t>Coupling</t>
+  </si>
+  <si>
+    <t>Other model components coupled to the aerosol model</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.model.coupling</t>
+  </si>
+  <si>
+    <t>Radiation</t>
+  </si>
+  <si>
+    <t>Land surface</t>
+  </si>
+  <si>
+    <t>Clouds</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>Cryosphere</t>
+  </si>
+  <si>
+    <t>Gas phase chemistry</t>
+  </si>
+  <si>
+    <t>7.1.1.5 *</t>
+  </si>
+  <si>
+    <t>Gas Phase Precursors</t>
+  </si>
+  <si>
+    <t>Gas phase aerosol precursors.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.model.gas_phase_precursors</t>
+  </si>
+  <si>
+    <t>DMS</t>
+  </si>
+  <si>
+    <t>SO2</t>
+  </si>
+  <si>
+    <t>Ammonia</t>
+  </si>
+  <si>
+    <t>Iodine</t>
+  </si>
+  <si>
+    <t>Terpene</t>
+  </si>
+  <si>
+    <t>Isoprene</t>
+  </si>
+  <si>
+    <t>VOC</t>
+  </si>
+  <si>
+    <t>NOx</t>
+  </si>
+  <si>
+    <t>7.1.1.6 *</t>
+  </si>
+  <si>
+    <t>Scheme Type</t>
+  </si>
+  <si>
+    <t>Type(s) of aerosol scheme used by the aerosol model (potentially multiple: some species may be covered by one type of aerosol scheme and other species covered by another type).</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.model.scheme_type</t>
+  </si>
+  <si>
+    <t>Bin</t>
+  </si>
+  <si>
+    <t>Bulk</t>
+  </si>
+  <si>
+    <t>Modal</t>
+  </si>
+  <si>
+    <t>7.1.1.7 *</t>
+  </si>
+  <si>
+    <t>Bulk Scheme Species</t>
+  </si>
+  <si>
+    <t>Species covered by the bulk scheme.</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.model.bulk_scheme_species</t>
+  </si>
+  <si>
+    <t>Sulphate</t>
+  </si>
+  <si>
+    <t>Nitrate</t>
+  </si>
+  <si>
+    <t>Sea salt</t>
+  </si>
+  <si>
+    <t>Ice</t>
+  </si>
+  <si>
+    <t>Organic</t>
+  </si>
+  <si>
+    <t>Black carbon / soot</t>
+  </si>
+  <si>
+    <t>SOA (secondary organic aerosols)</t>
+  </si>
+  <si>
+    <t>POM (particulate organic matter)</t>
+  </si>
+  <si>
+    <t>Polar stratospheric ice</t>
+  </si>
+  <si>
+    <t>NAT (Nitric acid trihydrate)</t>
+  </si>
+  <si>
+    <t>NAD (Nitric acid dihydrate)</t>
+  </si>
+  <si>
+    <t>STS (supercooled ternary solution aerosol particule)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1758,31 +1702,6 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1828,7 +1747,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1872,37 +1791,17 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1944,7 +1843,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1976,27 +1875,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2028,24 +1909,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2221,24 +2084,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="180.6640625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="180.7109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="33">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2246,7 +2109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2254,7 +2117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="20">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2262,7 +2125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="20">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -2270,7 +2133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20">
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -2278,37 +2141,37 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20">
+    <row r="9" spans="1:2">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="20">
+    <row r="10" spans="1:2">
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="20">
+    <row r="11" spans="1:2">
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="20">
+    <row r="12" spans="1:2">
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="20">
+    <row r="13" spans="1:2">
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="20">
+    <row r="14" spans="1:2">
       <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18">
+    <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
@@ -2316,7 +2179,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18">
+    <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -2324,7 +2187,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18">
+    <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
@@ -2332,7 +2195,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18">
+    <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -2340,44 +2203,41 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="20">
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:2" ht="20">
+    <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
   <hyperlinks>
-    <hyperlink ref="B16" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B17" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B16" r:id="rId1"/>
+    <hyperlink ref="B17" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="80.6640625" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="6"/>
+    <col min="1" max="1" width="80.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30">
+    <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
         <v>27</v>
       </c>
@@ -2388,7 +2248,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18">
+    <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
@@ -2412,13 +2272,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="19">
-      <c r="A9" s="16" t="s">
-        <v>521</v>
-      </c>
+    <row r="9" spans="1:2">
+      <c r="A9" s="11"/>
       <c r="B9" s="11"/>
     </row>
-    <row r="12" spans="1:2" ht="18">
+    <row r="12" spans="1:2">
       <c r="A12" s="9" t="s">
         <v>34</v>
       </c>
@@ -2442,42 +2300,39 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18">
-      <c r="A17" s="16"/>
+    <row r="17" spans="1:2">
+      <c r="A17" s="11"/>
       <c r="B17" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
       <formula1>"Top Level,Key Properties,Grid,Transport,Emissions,Concentrations,Optical Radiative Properties,Model"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A13" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A6" r:id="rId1"/>
+    <hyperlink ref="A13" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AI147"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD146"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
@@ -2514,15 +2369,15 @@
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>494</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -2530,26 +2385,26 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
-      <c r="B11" s="16"/>
+      <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -2557,39 +2412,39 @@
         <v>43</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>518</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
@@ -2599,808 +2454,806 @@
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="B21" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AA21" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="B22" s="11" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AA22" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AB22" s="6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AC22" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AD22" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AE22" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" ht="24" customHeight="1">
-      <c r="B23" s="15"/>
-      <c r="D23" s="18"/>
-      <c r="AA23" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB23" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC23" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD23" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE23" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" ht="24" customHeight="1">
+      <c r="A24" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
-      <c r="A25" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>67</v>
+      <c r="A25" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="24" customHeight="1">
-      <c r="A26" s="14" t="s">
+      <c r="B26" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" ht="24" customHeight="1">
+      <c r="A28" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" ht="24" customHeight="1">
+      <c r="A29" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" ht="24" customHeight="1">
+      <c r="B30" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" ht="24" customHeight="1">
+      <c r="B31" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA31" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB31" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC31" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="24" customHeight="1">
+      <c r="A33" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="24" customHeight="1">
+      <c r="A34" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="24" customHeight="1">
+      <c r="B35" s="11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="24" customHeight="1">
+      <c r="A37" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="24" customHeight="1">
+      <c r="A38" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="24" customHeight="1">
+      <c r="B39" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="24" customHeight="1">
+      <c r="A42" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="24" customHeight="1">
+      <c r="B43" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="24" customHeight="1">
+      <c r="A45" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="24" customHeight="1">
+      <c r="A46" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B46" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="24" customHeight="1">
+      <c r="B47" s="11"/>
+    </row>
+    <row r="49" spans="1:30" ht="24" customHeight="1">
+      <c r="A49" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" ht="24" customHeight="1">
+      <c r="A50" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" ht="24" customHeight="1">
+      <c r="B51" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" ht="24" customHeight="1">
+      <c r="A53" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" ht="24" customHeight="1">
+      <c r="A54" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" ht="24" customHeight="1">
+      <c r="B55" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" ht="24" customHeight="1">
+      <c r="B56" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" ht="24" customHeight="1">
+      <c r="A59" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" ht="24" customHeight="1">
+      <c r="B60" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" ht="24" customHeight="1">
+      <c r="A62" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" ht="24" customHeight="1">
+      <c r="A63" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" ht="24" customHeight="1">
+      <c r="B64" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA64" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB64" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC64" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD64" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" ht="24" customHeight="1">
-      <c r="B27" s="16" t="s">
-        <v>495</v>
-      </c>
-      <c r="D27" s="18"/>
-    </row>
-    <row r="29" spans="1:31" ht="24" customHeight="1">
-      <c r="A29" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" ht="24" customHeight="1">
-      <c r="A30" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" ht="24" customHeight="1">
-      <c r="B31" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" ht="24" customHeight="1">
-      <c r="B32" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA32" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB32" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC32" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="A35" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="10" t="s">
+    </row>
+    <row r="66" spans="1:35" ht="24" customHeight="1">
+      <c r="A66" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:35" ht="24" customHeight="1">
+      <c r="A67" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35" ht="24" customHeight="1">
+      <c r="B68" s="11">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35" ht="24" customHeight="1">
+      <c r="A70" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" ht="24" customHeight="1">
+      <c r="A71" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:35" ht="24" customHeight="1">
+      <c r="B72" s="11">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="74" spans="1:35" ht="24" customHeight="1">
+      <c r="A74" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="1:35" ht="24" customHeight="1">
+      <c r="A75" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="76" spans="1:35" ht="24" customHeight="1">
+      <c r="B76" s="11">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="78" spans="1:35" ht="24" customHeight="1">
+      <c r="A78" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:35" ht="24" customHeight="1">
+      <c r="A79" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="80" spans="1:35" ht="24" customHeight="1">
+      <c r="B80" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA80" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB80" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC80" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD80" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE80" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF80" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG80" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH80" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI80" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="24" customHeight="1">
+      <c r="A83" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="24" customHeight="1">
+      <c r="B84" s="13"/>
+    </row>
+    <row r="86" spans="1:3" ht="24" customHeight="1">
+      <c r="A86" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="24" customHeight="1">
+      <c r="A87" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="24" customHeight="1">
+      <c r="B88" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="24" customHeight="1">
+      <c r="B89" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="24" customHeight="1">
+      <c r="A91" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="24" customHeight="1">
+      <c r="A92" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="24" customHeight="1">
+      <c r="B93" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="24" customHeight="1">
+      <c r="B94" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="24" customHeight="1">
+      <c r="A96" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="24" customHeight="1">
+      <c r="A97" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="24" customHeight="1">
+      <c r="B98" s="11">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="24" customHeight="1">
+      <c r="A101" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="24" customHeight="1">
+      <c r="B102" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="24" customHeight="1">
+      <c r="A104" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="24" customHeight="1">
+      <c r="A105" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="24" customHeight="1">
+      <c r="B106" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="24" customHeight="1">
+      <c r="A108" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="24" customHeight="1">
+      <c r="A109" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="24" customHeight="1">
+      <c r="B110" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="24" customHeight="1">
+      <c r="A112" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="24" customHeight="1">
+      <c r="A113" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="24" customHeight="1">
+      <c r="B114" s="11">
+        <v>18432</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="24" customHeight="1">
+      <c r="A116" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="24" customHeight="1">
+      <c r="A117" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="24" customHeight="1">
+      <c r="B118" s="11">
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="24" customHeight="1">
-      <c r="B36" s="16">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="A39" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="24" customHeight="1">
-      <c r="B40" s="16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="A43" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="24" customHeight="1">
-      <c r="B44" s="13" t="s">
+    <row r="120" spans="1:3" ht="24" customHeight="1">
+      <c r="A120" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="24" customHeight="1">
+      <c r="A121" s="14" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="24" customHeight="1">
-      <c r="A46" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="24" customHeight="1">
-      <c r="A47" s="14" t="s">
+      <c r="B121" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="24" customHeight="1">
+      <c r="B122" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="24" customHeight="1">
+      <c r="A125" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="24" customHeight="1">
+      <c r="B126" s="13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="24" customHeight="1">
+      <c r="A128" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="24" customHeight="1">
+      <c r="A129" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="B48" s="16"/>
-    </row>
-    <row r="50" spans="1:4" ht="24" customHeight="1">
-      <c r="A50" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="24" customHeight="1">
-      <c r="A51" s="14" t="s">
+      <c r="B129" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="24" customHeight="1">
+      <c r="B130" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="178" customHeight="1">
+      <c r="B131" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="24" customHeight="1">
+      <c r="A133" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="24" customHeight="1">
+      <c r="A134" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="24" customHeight="1">
-      <c r="B52" s="16" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="24" customHeight="1">
-      <c r="A54" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="24" customHeight="1">
-      <c r="A55" s="14" t="s">
+      <c r="B134" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="24" customHeight="1">
+      <c r="B135" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="24" customHeight="1">
+      <c r="B136" s="11"/>
+    </row>
+    <row r="138" spans="1:3" ht="24" customHeight="1">
+      <c r="A138" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="24" customHeight="1">
+      <c r="A139" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="24" customHeight="1">
-      <c r="B56" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="24" customHeight="1">
-      <c r="B57" s="16" t="s">
-        <v>512</v>
-      </c>
-      <c r="D57" s="17"/>
-    </row>
-    <row r="60" spans="1:4" ht="24" customHeight="1">
-      <c r="A60" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="24" customHeight="1">
-      <c r="B61" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="24" customHeight="1">
-      <c r="A63" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="24" customHeight="1">
-      <c r="A64" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="65" spans="1:30" ht="24" customHeight="1">
-      <c r="B65" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA65" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB65" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC65" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD65" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:30" ht="24" customHeight="1">
-      <c r="A67" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="68" spans="1:30" ht="24" customHeight="1">
-      <c r="A68" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="69" spans="1:30" ht="24" customHeight="1">
-      <c r="B69" s="16">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="71" spans="1:30" ht="24" customHeight="1">
-      <c r="A71" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="72" spans="1:30" ht="24" customHeight="1">
-      <c r="A72" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="73" spans="1:30" ht="24" customHeight="1">
-      <c r="B73" s="16">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="75" spans="1:30" ht="24" customHeight="1">
-      <c r="A75" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="76" spans="1:30" ht="24" customHeight="1">
-      <c r="A76" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="77" spans="1:30" ht="24" customHeight="1">
-      <c r="B77" s="16">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="79" spans="1:30" ht="24" customHeight="1">
-      <c r="A79" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="80" spans="1:30" ht="24" customHeight="1">
-      <c r="A80" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="81" spans="1:35" ht="24" customHeight="1">
-      <c r="B81" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D81" s="18"/>
-      <c r="AA81" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB81" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC81" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="AD81" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE81" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF81" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="AG81" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="AH81" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI81" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="84" spans="1:35" ht="24" customHeight="1">
-      <c r="A84" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="B84" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="85" spans="1:35" ht="24" customHeight="1">
-      <c r="B85" s="13"/>
-    </row>
-    <row r="87" spans="1:35" ht="24" customHeight="1">
-      <c r="A87" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="88" spans="1:35" ht="24" customHeight="1">
-      <c r="A88" s="14" t="s">
+      <c r="B139" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="24" customHeight="1">
+      <c r="B140" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="24" customHeight="1">
+      <c r="B141" s="11"/>
+    </row>
+    <row r="143" spans="1:3" ht="24" customHeight="1">
+      <c r="A143" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="24" customHeight="1">
+      <c r="A144" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B88" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="89" spans="1:35" ht="24" customHeight="1">
-      <c r="B89" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="90" spans="1:35" ht="81.75" customHeight="1">
-      <c r="B90" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="D90" s="18"/>
-    </row>
-    <row r="92" spans="1:35" ht="24" customHeight="1">
-      <c r="A92" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="93" spans="1:35" ht="24" customHeight="1">
-      <c r="A93" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="94" spans="1:35" ht="24" customHeight="1">
-      <c r="B94" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="95" spans="1:35" ht="73.5" customHeight="1">
-      <c r="B95" s="16" t="s">
-        <v>511</v>
-      </c>
-      <c r="D95" s="18"/>
-    </row>
-    <row r="97" spans="1:4" ht="24" customHeight="1">
-      <c r="A97" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="24" customHeight="1">
-      <c r="A98" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="24" customHeight="1">
-      <c r="B99" s="16">
-        <v>3600</v>
-      </c>
-      <c r="D99" s="17"/>
-    </row>
-    <row r="102" spans="1:4" ht="24" customHeight="1">
-      <c r="A102" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B102" s="12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="24" customHeight="1">
-      <c r="B103" s="13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="24" customHeight="1">
-      <c r="A105" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="24" customHeight="1">
-      <c r="A106" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B106" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="24" customHeight="1">
-      <c r="B107" s="11" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="24" customHeight="1">
-      <c r="A109" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="24" customHeight="1">
-      <c r="A110" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B110" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="24" customHeight="1">
-      <c r="B111" s="11" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="24" customHeight="1">
-      <c r="A113" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="24" customHeight="1">
-      <c r="A114" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="24" customHeight="1">
-      <c r="B115" s="11">
-        <v>18432</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="24" customHeight="1">
-      <c r="A117" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="24" customHeight="1">
-      <c r="A118" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B118" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="24" customHeight="1">
-      <c r="B119" s="11">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="A121" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="24" customHeight="1">
-      <c r="A122" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B122" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="24" customHeight="1">
-      <c r="B123" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="24" customHeight="1">
-      <c r="A126" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="B126" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="24" customHeight="1">
-      <c r="B127" s="13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="24" customHeight="1">
-      <c r="A129" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="B129" s="9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="24" customHeight="1">
-      <c r="A130" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B130" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="24" customHeight="1">
-      <c r="B131" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="178" customHeight="1">
-      <c r="B132" s="16" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="24" customHeight="1">
-      <c r="A134" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="B134" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="24" customHeight="1">
-      <c r="A135" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B135" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C135" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="24" customHeight="1">
-      <c r="B136" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="24" customHeight="1">
-      <c r="B137" s="11"/>
-    </row>
-    <row r="139" spans="1:3" ht="24" customHeight="1">
-      <c r="A139" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="24" customHeight="1">
-      <c r="A140" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B140" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C140" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="24" customHeight="1">
-      <c r="B141" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="24" customHeight="1">
-      <c r="B142" s="11"/>
-    </row>
-    <row r="144" spans="1:3" ht="24" customHeight="1">
-      <c r="A144" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="24" customHeight="1">
-      <c r="A145" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B145" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C145" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="24" customHeight="1">
-      <c r="B146" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="24" customHeight="1">
-      <c r="B147" s="11"/>
+      <c r="B144" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" ht="24" customHeight="1">
+      <c r="B145" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" ht="24" customHeight="1">
+      <c r="B146" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B23" xr:uid="{00000000-0002-0000-0200-000000000000}">
+  <dataValidations count="14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
       <formula1>AA21:AE21</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32" xr:uid="{00000000-0002-0000-0200-000002000000}">
-      <formula1>AA32:AC32</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36 B119 B115 B99 B77 B73 B69" xr:uid="{00000000-0002-0000-0200-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
+      <formula1>AA22:AE22</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+      <formula1>AA31:AC31</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40 B123" xr:uid="{00000000-0002-0000-0200-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B65" xr:uid="{00000000-0002-0000-0200-000005000000}">
-      <formula1>AA65:AD65</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81" xr:uid="{00000000-0002-0000-0200-000009000000}">
-      <formula1>AA81:AI81</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B64">
+      <formula1>AA64:AD64</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B80">
+      <formula1>AA80:AI80</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B98">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B114">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B118">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B122">
+      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3408,37 +3261,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -3449,23 +3300,23 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>497</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3473,39 +3324,39 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>517</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3515,20 +3366,20 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>42</v>
@@ -3539,23 +3390,23 @@
         <v>43</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>497</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
@@ -3563,34 +3414,34 @@
         <v>43</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="B27" s="11" t="s">
-        <v>504</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
@@ -3600,21 +3451,21 @@
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -3624,36 +3475,39 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="B39" s="11" t="b">
-        <v>0</v>
-      </c>
+      <c r="B39" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B39" xr:uid="{00000000-0002-0000-0300-000000000000}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31 B35" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
       <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
+      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3661,37 +3515,35 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AE29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -3702,21 +3554,21 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="24" customHeight="1">
-      <c r="B6" s="15"/>
+      <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:31" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="24" customHeight="1">
@@ -3724,78 +3576,78 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="178" customHeight="1">
-      <c r="B11" s="16" t="s">
-        <v>505</v>
+      <c r="B11" s="11" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="24" customHeight="1">
-      <c r="B15" s="16" t="s">
-        <v>233</v>
+      <c r="B15" s="11" t="s">
+        <v>245</v>
       </c>
       <c r="AA15" s="6" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="AE15" s="6" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
@@ -3804,82 +3656,82 @@
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
-      <c r="B20" s="16" t="s">
-        <v>240</v>
+      <c r="B20" s="11" t="s">
+        <v>254</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="AE20" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
-      <c r="B21" s="16" t="s">
-        <v>241</v>
+      <c r="B21" s="11" t="s">
+        <v>255</v>
       </c>
       <c r="AA21" s="6" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
-      <c r="B22" s="16" t="s">
-        <v>242</v>
+      <c r="B22" s="11" t="s">
+        <v>256</v>
       </c>
       <c r="AA22" s="6" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="AB22" s="6" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="AC22" s="6" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AD22" s="6" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="AE22" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="A25" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="24" customHeight="1">
@@ -3888,63 +3740,35 @@
       </c>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
-      <c r="B27" s="16" t="s">
-        <v>231</v>
-      </c>
+      <c r="B27" s="11"/>
       <c r="AA27" s="6" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" ht="24" customHeight="1">
-      <c r="B28" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="AA28" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="AB28" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="AC28" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="AD28" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" ht="24" customHeight="1">
-      <c r="B29" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="AA29" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="AB29" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="AC29" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="AD29" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B20:B22" xr:uid="{00000000-0002-0000-0400-000000000000}">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>AA15:AE15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27:B29" xr:uid="{00000000-0002-0000-0400-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+      <formula1>AA20:AE20</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
+      <formula1>AA21:AE21</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
+      <formula1>AA22:AE22</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
       <formula1>AA27:AD27</formula1>
     </dataValidation>
   </dataValidations>
@@ -3953,37 +3777,35 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AI54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -3994,21 +3816,21 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="24" customHeight="1">
-      <c r="B6" s="15"/>
+      <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:33" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="24" customHeight="1">
@@ -4016,39 +3838,39 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:33" ht="178" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>516</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:33" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:33" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:33" ht="24" customHeight="1">
@@ -4057,49 +3879,48 @@
       </c>
     </row>
     <row r="16" spans="1:33" ht="24" customHeight="1">
-      <c r="B16" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="D16" s="17"/>
+      <c r="B16" s="11" t="s">
+        <v>276</v>
+      </c>
       <c r="AA16" s="6" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="AE16" s="6" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="AF16" s="6" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="24" customHeight="1">
@@ -4109,346 +3930,344 @@
     </row>
     <row r="21" spans="1:35" ht="24" customHeight="1">
       <c r="B21" s="11" t="s">
-        <v>507</v>
+        <v>286</v>
       </c>
       <c r="AA21" s="6" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="AF21" s="6" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="AG21" s="6" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="AH21" s="6" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="AI21" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:35" ht="24" customHeight="1">
       <c r="B22" s="11" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="AA22" s="6" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="AB22" s="6" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="AC22" s="6" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="AD22" s="6" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="AE22" s="6" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="AF22" s="6" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="AG22" s="6" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="AH22" s="6" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="AI22" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="AE23" s="6" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="AF23" s="6" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="AG23" s="6" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="AH23" s="6" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="AI23" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:35" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="AD24" s="6" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="AE24" s="6" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="AF24" s="6" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="AG24" s="6" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="AH24" s="6" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="AI24" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="AE25" s="6" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="AF25" s="6" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="AG25" s="6" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="AH25" s="6" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="AI25" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:35" ht="24" customHeight="1">
       <c r="B26" s="11" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="AA26" s="6" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="AB26" s="6" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="AC26" s="6" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="AD26" s="6" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="AE26" s="6" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="AF26" s="6" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="AG26" s="6" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="AH26" s="6" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="AI26" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="24" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="24" customHeight="1">
       <c r="A29" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="24" customHeight="1">
       <c r="B30" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="D30" s="18"/>
+        <v>298</v>
+      </c>
       <c r="AA30" s="6" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="AB30" s="6" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="AC30" s="6" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="AD30" s="6" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="AE30" s="6" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" spans="1:35" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="24" customHeight="1">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="24" customHeight="1">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="24" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="B35" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="D35" s="17"/>
-    </row>
-    <row r="37" spans="1:4" ht="24" customHeight="1">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="24" customHeight="1">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="24" customHeight="1">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="24" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="B40" s="11" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="24" customHeight="1">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="24" customHeight="1">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="24" customHeight="1">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="B44" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="24" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="B45" s="11" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="24" customHeight="1">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="24" customHeight="1">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="A48" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="B49" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
@@ -4456,10 +4275,10 @@
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
@@ -4467,25 +4286,39 @@
         <v>43</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="B54" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16" xr:uid="{00000000-0002-0000-0500-000000000000}">
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
       <formula1>AA16:AG16</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B26" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
       <formula1>AA21:AI21</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30" xr:uid="{00000000-0002-0000-0500-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
+      <formula1>AA22:AI22</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+      <formula1>AA23:AI23</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
+      <formula1>AA24:AI24</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+      <formula1>AA25:AI25</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
+      <formula1>AA26:AI26</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
       <formula1>AA30:AE30</formula1>
     </dataValidation>
   </dataValidations>
@@ -4494,121 +4327,118 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24" customHeight="1">
+    <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="24" customHeight="1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="24" customHeight="1">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="24" customHeight="1">
+    <row r="5" spans="1:3" ht="24" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="24" customHeight="1">
-      <c r="B6" s="16"/>
-    </row>
-    <row r="8" spans="1:4" ht="24" customHeight="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1">
+      <c r="B6" s="11"/>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="24" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="24" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="24" customHeight="1">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="178" customHeight="1">
-      <c r="B11" s="16" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="24" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="178" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="24" customHeight="1">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="24" customHeight="1">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="24" customHeight="1">
-      <c r="B16" s="16" t="s">
-        <v>500</v>
-      </c>
-      <c r="D16" s="18"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="24" customHeight="1">
+      <c r="B16" s="11" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -4616,28 +4446,28 @@
         <v>43</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
       <c r="B20" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
       <c r="B21" s="11" t="s">
-        <v>499</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -4645,28 +4475,28 @@
         <v>43</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
       <c r="B25" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
       <c r="B26" s="11" t="s">
-        <v>499</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
@@ -4674,60 +4504,55 @@
         <v>43</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
-      <c r="B31" s="11" t="s">
-        <v>499</v>
-      </c>
+      <c r="B31" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -4738,21 +4563,21 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="16"/>
+      <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -4760,144 +4585,135 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>513</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="24" customHeight="1">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="24" customHeight="1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="24" customHeight="1">
-      <c r="B19" s="16">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="24" customHeight="1">
+      <c r="B19" s="11">
         <v>-0.79</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="24" customHeight="1">
+    </row>
+    <row r="21" spans="1:3" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="24" customHeight="1">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="24" customHeight="1">
-      <c r="B23" s="16">
-        <v>-5.4999999999999997E-3</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="24" customHeight="1">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="24" customHeight="1">
+      <c r="B23" s="11">
+        <v>-0.0055</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="24" customHeight="1">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="24" customHeight="1">
-      <c r="B27" s="16">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="24" customHeight="1">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="24" customHeight="1">
+      <c r="B27" s="11">
+        <v>-0.006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="24" customHeight="1">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="B31" s="13"/>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -4907,21 +4723,21 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
@@ -4931,10 +4747,10 @@
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -4942,123 +4758,121 @@
         <v>43</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="B43" s="11" t="s">
-        <v>515</v>
+        <v>392</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="A46" s="12" t="s">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="B47" s="13" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="24" customHeight="1">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="24" customHeight="1">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="24" customHeight="1">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="B51" s="11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="24" customHeight="1">
+    <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="24" customHeight="1">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="24" customHeight="1">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="24" customHeight="1">
       <c r="B55" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D55" s="18"/>
-    </row>
-    <row r="57" spans="1:4" ht="24" customHeight="1">
+    </row>
+    <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="24" customHeight="1">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="24" customHeight="1">
       <c r="A58" s="14" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="24" customHeight="1">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="B59" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D59" s="18"/>
-    </row>
-    <row r="62" spans="1:4" ht="24" customHeight="1">
+    </row>
+    <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="24" customHeight="1">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="B63" s="13" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
@@ -5066,39 +4880,39 @@
         <v>43</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="B67" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="178" customHeight="1">
       <c r="B68" s="11" t="s">
-        <v>509</v>
+        <v>414</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
       <c r="A71" s="14" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>396</v>
+        <v>418</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
@@ -5108,21 +4922,21 @@
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>397</v>
+        <v>419</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>398</v>
+        <v>420</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="A75" s="14" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>400</v>
+        <v>422</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
@@ -5132,179 +4946,212 @@
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="A79" s="12" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
       <c r="B80" s="13" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="24" customHeight="1">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>404</v>
+        <v>426</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="24" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="24" customHeight="1">
       <c r="A83" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>501</v>
+        <v>427</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="24" customHeight="1">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="24" customHeight="1">
       <c r="B84" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="178" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="178" customHeight="1">
       <c r="B85" s="11" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="24" customHeight="1">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="24" customHeight="1">
       <c r="A87" s="9" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="24" customHeight="1">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="A88" s="14" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="24" customHeight="1">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="24" customHeight="1">
       <c r="B89" s="11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="24" customHeight="1">
+    <row r="91" spans="1:3" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="24" customHeight="1">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="24" customHeight="1">
       <c r="A92" s="14" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="24" customHeight="1">
-      <c r="B93" s="16">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="24" customHeight="1">
+      <c r="B93" s="11">
         <v>0</v>
       </c>
-      <c r="D93" s="18"/>
-    </row>
-    <row r="95" spans="1:4" ht="24" customHeight="1">
+    </row>
+    <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="24" customHeight="1">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="24" customHeight="1">
       <c r="A96" s="14" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="24" customHeight="1">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="B97" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D97" s="17"/>
-    </row>
-    <row r="99" spans="1:4" ht="24" customHeight="1">
+    </row>
+    <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="24" customHeight="1">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="A100" s="14" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="24" customHeight="1">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="B101" s="11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="24" customHeight="1">
+    <row r="103" spans="1:3" ht="24" customHeight="1">
       <c r="A103" s="9" t="s">
-        <v>422</v>
+        <v>446</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="24" customHeight="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="A104" s="14" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="24" customHeight="1">
-      <c r="B105" s="11">
-        <v>11</v>
-      </c>
+        <v>447</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="24" customHeight="1">
+      <c r="B105" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
-  <dataValidations count="3">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B27 B23" xr:uid="{00000000-0002-0000-0700-000000000000}">
-      <formula1>-1000000</formula1>
-      <formula2>1000000</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35 B101 B97 B89 B59 B55 B51 B39" xr:uid="{00000000-0002-0000-0700-000003000000}">
+  <dataValidations count="15">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72 B105 B93 B76" xr:uid="{00000000-0002-0000-0700-000008000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B89">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B101">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B105">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -5313,24 +5160,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AN55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>5</v>
@@ -5338,12 +5183,12 @@
     </row>
     <row r="2" spans="1:39" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>426</v>
+        <v>450</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -5354,23 +5199,23 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>502</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8" spans="1:39" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>429</v>
+        <v>454</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:39" ht="24" customHeight="1">
@@ -5378,40 +5223,39 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>430</v>
+        <v>455</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>431</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:39" ht="178" customHeight="1">
-      <c r="B11" s="16" t="s">
-        <v>514</v>
-      </c>
-      <c r="D11" s="18"/>
+      <c r="B11" s="11" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="13" spans="1:39" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
     </row>
     <row r="14" spans="1:39" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>435</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:39" ht="24" customHeight="1">
@@ -5421,506 +5265,505 @@
     </row>
     <row r="16" spans="1:39" ht="24" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="AA16" s="6" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="AE16" s="6" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="AF16" s="6" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="AH16" s="6" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="AI16" s="6" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="AJ16" s="6" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="AK16" s="6" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="AL16" s="6" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="AM16" s="6" t="s">
-        <v>448</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17" spans="1:39" ht="24" customHeight="1">
       <c r="B17" s="11" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="AA17" s="6" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="AB17" s="6" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="AC17" s="6" t="s">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="AD17" s="6" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="AE17" s="6" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="AF17" s="6" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="AG17" s="6" t="s">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="AH17" s="6" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="AI17" s="6" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="AJ17" s="6" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="AK17" s="6" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="AL17" s="6" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="AM17" s="6" t="s">
-        <v>448</v>
+        <v>474</v>
       </c>
     </row>
     <row r="18" spans="1:39" ht="24" customHeight="1">
       <c r="B18" s="11" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="AA18" s="6" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="AB18" s="6" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="AC18" s="6" t="s">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="AD18" s="6" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="AE18" s="6" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="AF18" s="6" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="AG18" s="6" t="s">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="AH18" s="6" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="AI18" s="6" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="AJ18" s="6" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="AK18" s="6" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="AL18" s="6" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="AM18" s="6" t="s">
-        <v>448</v>
+        <v>474</v>
       </c>
     </row>
     <row r="19" spans="1:39" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="AF19" s="6" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="AH19" s="6" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="AI19" s="6" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="AJ19" s="6" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="AK19" s="6" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="AL19" s="6" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="AM19" s="6" t="s">
-        <v>448</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="1:39" ht="24" customHeight="1">
       <c r="B20" s="11" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="AE20" s="6" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="AF20" s="6" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="AG20" s="6" t="s">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="AH20" s="6" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="AI20" s="6" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="AJ20" s="6" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="AK20" s="6" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="AL20" s="6" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="AM20" s="6" t="s">
-        <v>448</v>
+        <v>474</v>
       </c>
     </row>
     <row r="21" spans="1:39" ht="24" customHeight="1">
       <c r="B21" s="11" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="AA21" s="6" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="AF21" s="6" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="AG21" s="6" t="s">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="AH21" s="6" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="AI21" s="6" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="AJ21" s="6" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="AK21" s="6" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="AL21" s="6" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="AM21" s="6" t="s">
-        <v>448</v>
+        <v>474</v>
       </c>
     </row>
     <row r="22" spans="1:39" ht="24" customHeight="1">
       <c r="B22" s="11" t="s">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="AA22" s="6" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="AB22" s="6" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="AC22" s="6" t="s">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="AD22" s="6" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="AE22" s="6" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="AF22" s="6" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="AG22" s="6" t="s">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="AH22" s="6" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="AI22" s="6" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="AJ22" s="6" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="AK22" s="6" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="AL22" s="6" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="AM22" s="6" t="s">
-        <v>448</v>
+        <v>474</v>
       </c>
     </row>
     <row r="23" spans="1:39" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="AE23" s="6" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="AF23" s="6" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="AG23" s="6" t="s">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="AH23" s="6" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="AI23" s="6" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="AJ23" s="6" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="AK23" s="6" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="AL23" s="6" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="AM23" s="6" t="s">
-        <v>448</v>
+        <v>474</v>
       </c>
     </row>
     <row r="24" spans="1:39" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="AD24" s="6" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="AE24" s="6" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="AF24" s="6" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="AG24" s="6" t="s">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="AH24" s="6" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="AI24" s="6" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="AJ24" s="6" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="AK24" s="6" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="AL24" s="6" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="AM24" s="6" t="s">
-        <v>448</v>
+        <v>474</v>
       </c>
     </row>
     <row r="25" spans="1:39" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="AE25" s="6" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="AF25" s="6" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="AG25" s="6" t="s">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="AH25" s="6" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="AI25" s="6" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="AJ25" s="6" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="AK25" s="6" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="AL25" s="6" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="AM25" s="6" t="s">
-        <v>448</v>
+        <v>474</v>
       </c>
     </row>
     <row r="26" spans="1:39" ht="24" customHeight="1">
-      <c r="B26" s="16" t="s">
-        <v>444</v>
-      </c>
-      <c r="D26" s="18"/>
+      <c r="B26" s="11" t="s">
+        <v>470</v>
+      </c>
       <c r="AA26" s="6" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="AB26" s="6" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="AC26" s="6" t="s">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="AD26" s="6" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="AE26" s="6" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="AF26" s="6" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="AG26" s="6" t="s">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="AH26" s="6" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="AI26" s="6" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="AJ26" s="6" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="AK26" s="6" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="AL26" s="6" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="AM26" s="6" t="s">
-        <v>448</v>
+        <v>474</v>
       </c>
     </row>
     <row r="28" spans="1:39" ht="24" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>449</v>
+        <v>475</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>450</v>
+        <v>476</v>
       </c>
     </row>
     <row r="29" spans="1:39" ht="24" customHeight="1">
       <c r="A29" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>451</v>
+        <v>477</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>452</v>
+        <v>478</v>
       </c>
     </row>
     <row r="30" spans="1:39" ht="24" customHeight="1">
@@ -5930,166 +5773,166 @@
     </row>
     <row r="31" spans="1:39" ht="24" customHeight="1">
       <c r="B31" s="11" t="s">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="AA31" s="6" t="s">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>453</v>
+        <v>481</v>
       </c>
       <c r="AE31" s="6" t="s">
-        <v>456</v>
+        <v>482</v>
       </c>
       <c r="AF31" s="6" t="s">
-        <v>457</v>
+        <v>483</v>
       </c>
       <c r="AG31" s="6" t="s">
-        <v>458</v>
+        <v>484</v>
       </c>
       <c r="AH31" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:39" ht="24" customHeight="1">
       <c r="B32" s="11" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="AA32" s="6" t="s">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="AC32" s="6" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="AD32" s="6" t="s">
-        <v>453</v>
+        <v>481</v>
       </c>
       <c r="AE32" s="6" t="s">
-        <v>456</v>
+        <v>482</v>
       </c>
       <c r="AF32" s="6" t="s">
-        <v>457</v>
+        <v>483</v>
       </c>
       <c r="AG32" s="6" t="s">
-        <v>458</v>
+        <v>484</v>
       </c>
       <c r="AH32" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:35" ht="24" customHeight="1">
       <c r="B33" s="11" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="AA33" s="6" t="s">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="AB33" s="6" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="AC33" s="6" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="AD33" s="6" t="s">
-        <v>453</v>
+        <v>481</v>
       </c>
       <c r="AE33" s="6" t="s">
-        <v>456</v>
+        <v>482</v>
       </c>
       <c r="AF33" s="6" t="s">
-        <v>457</v>
+        <v>483</v>
       </c>
       <c r="AG33" s="6" t="s">
-        <v>458</v>
+        <v>484</v>
       </c>
       <c r="AH33" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:35" ht="24" customHeight="1">
       <c r="B34" s="11" t="s">
-        <v>453</v>
+        <v>481</v>
       </c>
       <c r="AA34" s="6" t="s">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="AB34" s="6" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="AC34" s="6" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="AD34" s="6" t="s">
-        <v>453</v>
+        <v>481</v>
       </c>
       <c r="AE34" s="6" t="s">
-        <v>456</v>
+        <v>482</v>
       </c>
       <c r="AF34" s="6" t="s">
-        <v>457</v>
+        <v>483</v>
       </c>
       <c r="AG34" s="6" t="s">
-        <v>458</v>
+        <v>484</v>
       </c>
       <c r="AH34" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:35" ht="24" customHeight="1">
       <c r="B35" s="11" t="s">
-        <v>457</v>
+        <v>483</v>
       </c>
       <c r="AA35" s="6" t="s">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="AD35" s="6" t="s">
-        <v>453</v>
+        <v>481</v>
       </c>
       <c r="AE35" s="6" t="s">
-        <v>456</v>
+        <v>482</v>
       </c>
       <c r="AF35" s="6" t="s">
-        <v>457</v>
+        <v>483</v>
       </c>
       <c r="AG35" s="6" t="s">
-        <v>458</v>
+        <v>484</v>
       </c>
       <c r="AH35" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:35" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>459</v>
+        <v>485</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>460</v>
+        <v>486</v>
       </c>
     </row>
     <row r="38" spans="1:35" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>461</v>
+        <v>487</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>462</v>
+        <v>488</v>
       </c>
     </row>
     <row r="39" spans="1:35" ht="24" customHeight="1">
@@ -6099,117 +5942,117 @@
     </row>
     <row r="40" spans="1:35" ht="24" customHeight="1">
       <c r="B40" s="11" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="AA40" s="6" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="AC40" s="6" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="AD40" s="6" t="s">
-        <v>466</v>
+        <v>492</v>
       </c>
       <c r="AE40" s="6" t="s">
-        <v>467</v>
+        <v>493</v>
       </c>
       <c r="AF40" s="6" t="s">
-        <v>468</v>
+        <v>494</v>
       </c>
       <c r="AG40" s="6" t="s">
-        <v>469</v>
+        <v>495</v>
       </c>
       <c r="AH40" s="6" t="s">
-        <v>470</v>
+        <v>496</v>
       </c>
       <c r="AI40" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:35" ht="24" customHeight="1">
       <c r="B41" s="11" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="AA41" s="6" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="AB41" s="6" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="AC41" s="6" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="AD41" s="6" t="s">
-        <v>466</v>
+        <v>492</v>
       </c>
       <c r="AE41" s="6" t="s">
-        <v>467</v>
+        <v>493</v>
       </c>
       <c r="AF41" s="6" t="s">
-        <v>468</v>
+        <v>494</v>
       </c>
       <c r="AG41" s="6" t="s">
-        <v>469</v>
+        <v>495</v>
       </c>
       <c r="AH41" s="6" t="s">
-        <v>470</v>
+        <v>496</v>
       </c>
       <c r="AI41" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:35" ht="24" customHeight="1">
       <c r="B42" s="11" t="s">
-        <v>467</v>
+        <v>493</v>
       </c>
       <c r="AA42" s="6" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="AB42" s="6" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="AC42" s="6" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="AD42" s="6" t="s">
-        <v>466</v>
+        <v>492</v>
       </c>
       <c r="AE42" s="6" t="s">
-        <v>467</v>
+        <v>493</v>
       </c>
       <c r="AF42" s="6" t="s">
-        <v>468</v>
+        <v>494</v>
       </c>
       <c r="AG42" s="6" t="s">
-        <v>469</v>
+        <v>495</v>
       </c>
       <c r="AH42" s="6" t="s">
-        <v>470</v>
+        <v>496</v>
       </c>
       <c r="AI42" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:35" ht="24" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>471</v>
+        <v>497</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>472</v>
+        <v>498</v>
       </c>
     </row>
     <row r="45" spans="1:35" ht="24" customHeight="1">
       <c r="A45" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>473</v>
+        <v>499</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>474</v>
+        <v>500</v>
       </c>
     </row>
     <row r="46" spans="1:35" ht="24" customHeight="1">
@@ -6219,55 +6062,55 @@
     </row>
     <row r="47" spans="1:35" ht="24" customHeight="1">
       <c r="B47" s="11" t="s">
-        <v>475</v>
+        <v>501</v>
       </c>
       <c r="AA47" s="6" t="s">
-        <v>476</v>
+        <v>502</v>
       </c>
       <c r="AB47" s="6" t="s">
-        <v>477</v>
+        <v>503</v>
       </c>
       <c r="AC47" s="6" t="s">
-        <v>475</v>
+        <v>501</v>
       </c>
       <c r="AD47" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:35" ht="24" customHeight="1">
       <c r="B48" s="11" t="s">
-        <v>476</v>
+        <v>502</v>
       </c>
       <c r="AA48" s="6" t="s">
-        <v>476</v>
+        <v>502</v>
       </c>
       <c r="AB48" s="6" t="s">
-        <v>477</v>
+        <v>503</v>
       </c>
       <c r="AC48" s="6" t="s">
-        <v>475</v>
+        <v>501</v>
       </c>
       <c r="AD48" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:40" ht="24" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>478</v>
+        <v>504</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>479</v>
+        <v>505</v>
       </c>
     </row>
     <row r="51" spans="1:40" ht="24" customHeight="1">
       <c r="A51" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>480</v>
+        <v>506</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>481</v>
+        <v>507</v>
       </c>
     </row>
     <row r="52" spans="1:40" ht="24" customHeight="1">
@@ -6276,166 +6119,119 @@
       </c>
     </row>
     <row r="53" spans="1:40" ht="24" customHeight="1">
-      <c r="B53" s="11" t="s">
-        <v>482</v>
-      </c>
+      <c r="B53" s="11"/>
       <c r="AA53" s="6" t="s">
-        <v>483</v>
+        <v>508</v>
       </c>
       <c r="AB53" s="6" t="s">
-        <v>484</v>
+        <v>509</v>
       </c>
       <c r="AC53" s="6" t="s">
-        <v>485</v>
+        <v>510</v>
       </c>
       <c r="AD53" s="6" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="AE53" s="6" t="s">
-        <v>486</v>
+        <v>511</v>
       </c>
       <c r="AF53" s="6" t="s">
-        <v>487</v>
+        <v>512</v>
       </c>
       <c r="AG53" s="6" t="s">
-        <v>482</v>
+        <v>513</v>
       </c>
       <c r="AH53" s="6" t="s">
-        <v>488</v>
+        <v>514</v>
       </c>
       <c r="AI53" s="6" t="s">
-        <v>489</v>
+        <v>515</v>
       </c>
       <c r="AJ53" s="6" t="s">
-        <v>490</v>
+        <v>516</v>
       </c>
       <c r="AK53" s="6" t="s">
-        <v>491</v>
+        <v>517</v>
       </c>
       <c r="AL53" s="6" t="s">
-        <v>492</v>
+        <v>518</v>
       </c>
       <c r="AM53" s="6" t="s">
-        <v>493</v>
+        <v>519</v>
       </c>
       <c r="AN53" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:40" ht="24" customHeight="1">
-      <c r="B54" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="AA54" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="AB54" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="AC54" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="AD54" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="AE54" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="AF54" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="AG54" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="AH54" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="AI54" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="AJ54" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="AK54" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="AL54" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="AM54" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="AN54" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:40" ht="24" customHeight="1">
-      <c r="B55" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="AA55" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="AB55" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="AC55" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="AD55" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="AE55" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="AF55" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="AG55" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="AH55" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="AI55" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="AJ55" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="AK55" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="AL55" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="AM55" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="AN55" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:B26" xr:uid="{00000000-0002-0000-0800-000000000000}">
+  <dataValidations count="22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
       <formula1>AA16:AM16</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31:B35" xr:uid="{00000000-0002-0000-0800-00000A000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+      <formula1>AA17:AM17</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
+      <formula1>AA18:AM18</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+      <formula1>AA19:AM19</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+      <formula1>AA20:AM20</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
+      <formula1>AA21:AM21</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
+      <formula1>AA22:AM22</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+      <formula1>AA23:AM23</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
+      <formula1>AA24:AM24</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+      <formula1>AA25:AM25</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
+      <formula1>AA26:AM26</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
       <formula1>AA31:AH31</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40:B42" xr:uid="{00000000-0002-0000-0800-00000E000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
+      <formula1>AA32:AH32</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
+      <formula1>AA33:AH33</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34">
+      <formula1>AA34:AH34</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
+      <formula1>AA35:AH35</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40">
       <formula1>AA40:AI40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B47:B48" xr:uid="{00000000-0002-0000-0800-000011000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41">
+      <formula1>AA41:AI41</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
+      <formula1>AA42:AI42</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B47">
       <formula1>AA47:AD47</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53:B55" xr:uid="{00000000-0002-0000-0800-000013000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48">
+      <formula1>AA48:AD48</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
       <formula1>AA53:AN53</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_aerosol.xlsx
+++ b/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_aerosol.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="506">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -162,7 +162,7 @@
     <t>cmip6.aerosol.key_properties.name</t>
   </si>
   <si>
-    <t>MASINGAR mk-2r4c</t>
+    <t>MASINGAR mk-2</t>
   </si>
   <si>
     <t>1.1.1.2 *</t>
@@ -195,9 +195,7 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
-    <t xml:space="preserve">Model of Aerosol Species in the Global Atmosphere mark-2 revision 4-climate (MASINGAR mk-2r4c) treats atmospheric aerosol physical and chemical processes (e.g., emission, transport, diffusion, chemical reactions, and dry and wet depositions) and includes the following species: non-sea-salt sulfate, black carbon, organic carbon, sea salt, mineral dust, and aerosol precursor gases (e.g., sulfur dioxide and dimethyl sulfide).
-References: Tanaka et al. 2003; Yukimoto et al. submitted; Oshima et al., in preparation
-</t>
+    <t>References: Yukimoto et al. 2011;Yukimoto et al. 2012; Adachi et al. 2013</t>
   </si>
   <si>
     <t>1.1.1.4 *</t>
@@ -332,9 +330,6 @@
     <t>cmip6.aerosol.key_properties.software_properties.code_version</t>
   </si>
   <si>
-    <t>masingar_mk2r4_ESM2</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.2.1.3 </t>
   </si>
   <si>
@@ -347,9 +342,6 @@
     <t>cmip6.aerosol.key_properties.software_properties.code_languages</t>
   </si>
   <si>
-    <t>Fortran 95</t>
-  </si>
-  <si>
     <t>1.3.1</t>
   </si>
   <si>
@@ -371,12 +363,15 @@
     <t>cmip6.aerosol.key_properties.timestep_framework.method</t>
   </si>
   <si>
+    <t>Other: specific time stepping (integrated)</t>
+  </si>
+  <si>
+    <t>Uses atmospheric chemistry time stepping</t>
+  </si>
+  <si>
     <t>Specific timestepping (operator splitting)</t>
   </si>
   <si>
-    <t>Uses atmospheric chemistry time stepping</t>
-  </si>
-  <si>
     <t>Specific timestepping (integrated)</t>
   </si>
   <si>
@@ -428,24 +423,24 @@
     <t>cmip6.aerosol.key_properties.timestep_framework.integrated_scheme_type</t>
   </si>
   <si>
+    <t>Explicit</t>
+  </si>
+  <si>
+    <t>Implicit</t>
+  </si>
+  <si>
+    <t>Semi-implicit</t>
+  </si>
+  <si>
+    <t>Semi-analytic</t>
+  </si>
+  <si>
+    <t>Impact solver</t>
+  </si>
+  <si>
     <t>Back Euler</t>
   </si>
   <si>
-    <t>Explicit</t>
-  </si>
-  <si>
-    <t>Implicit</t>
-  </si>
-  <si>
-    <t>Semi-implicit</t>
-  </si>
-  <si>
-    <t>Semi-analytic</t>
-  </si>
-  <si>
-    <t>Impact solver</t>
-  </si>
-  <si>
     <t>Newton Raphson</t>
   </si>
   <si>
@@ -470,10 +465,6 @@
     <t>cmip6.aerosol.key_properties.meteorological_forcings.variables_3D</t>
   </si>
   <si>
-    <t xml:space="preserve">U, V, T, Q, divergence, cloud droplet to rain conversion rate (convective cloud), cloud droplet to rain conversion rate (large-scale cloud), rain to vapor (convective cloud), rain to vapor (large-scale cloud), RH, organized entrainment rate, organized detrainment rate, upward mass flux in cumulus, cloud water content in cumulus, conversion from cloud water to precipitation in cumulus, cloud water content, cloud cover, eddy diffusion coefficient, ozone
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.4.1.2 </t>
   </si>
   <si>
@@ -486,9 +477,6 @@
     <t>cmip6.aerosol.key_properties.meteorological_forcings.variables_2D</t>
   </si>
   <si>
-    <t>SST, U(10m), V(10m), T(2m), Q(2m), zonal surface stress, meridional surface stress, friction velocity, sea ice fraction, roughness length, convective precipitation, large-scale precipitation, sensible heat flux, latent heat flux, ground temperature, snow cover, soil ice, vegetation cover (canopy), vegetation cover (grass), LAI (canopy), LAI (grass), volumetric soil water content, landmask type definitions, land-sea mask ratio, surface pressure, longitude derivative of surface pressure, latitude derivative of surface pressure</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.4.1.3 </t>
   </si>
   <si>
@@ -519,9 +507,6 @@
     <t>cmip6.aerosol.key_properties.resolution.name</t>
   </si>
   <si>
-    <t>TL95L80</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.5.1.2 </t>
   </si>
   <si>
@@ -534,9 +519,6 @@
     <t>cmip6.aerosol.key_properties.resolution.canonical_horizontal_resolution</t>
   </si>
   <si>
-    <t>180km or 1.875 degree</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.5.1.3 </t>
   </si>
   <si>
@@ -594,9 +576,6 @@
     <t>cmip6.aerosol.key_properties.tuning_applied.description</t>
   </si>
   <si>
-    <t>No tuning.</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.6.1.2 </t>
   </si>
   <si>
@@ -660,10 +639,6 @@
     <t>cmip6.aerosol.grid.overview</t>
   </si>
   <si>
-    <t>Horizontal: Gaussian grids of 192 x 96 in longitude and latitude (approximately 180 km or 1.875 degree)
-Vertical: sigma-pressure hybrid coordinate with 80 vertical layers up to the 0.01 hPa lavel (same as the atmospheric model)</t>
-  </si>
-  <si>
     <t>2.1.1.3 *</t>
   </si>
   <si>
@@ -748,13 +723,6 @@
     <t>cmip6.aerosol.transport.overview</t>
   </si>
   <si>
-    <t>Grid-scale transport: 
-   Vertically conservative semi-Lagrangian scheme
-Subgrid-scale transport/mixing:
-   Vertical mixing due to turbulence
-   Vertical transport due to (deep) convection</t>
-  </si>
-  <si>
     <t>3.1.1.3 *</t>
   </si>
   <si>
@@ -767,15 +735,15 @@
     <t>cmip6.aerosol.transport.scheme</t>
   </si>
   <si>
+    <t>Uses atmospheric chemistry transport scheme</t>
+  </si>
+  <si>
+    <t>Specific transport scheme (eulerian)</t>
+  </si>
+  <si>
     <t>Specific transport scheme (semi-lagrangian)</t>
   </si>
   <si>
-    <t>Uses atmospheric chemistry transport scheme</t>
-  </si>
-  <si>
-    <t>Specific transport scheme (eulerian)</t>
-  </si>
-  <si>
     <t>Specific transport scheme (eulerian and semi-lagrangian)</t>
   </si>
   <si>
@@ -803,6 +771,9 @@
     <t>Gradients monotonicity</t>
   </si>
   <si>
+    <t>Other: gradients monotony</t>
+  </si>
+  <si>
     <t>3.1.1.5 *</t>
   </si>
   <si>
@@ -848,13 +819,6 @@
     <t>cmip6.aerosol.emissions.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">Anthropogenic and biomass burning emissions (SO2, BC, OC) from the surface are obtained from the CMIP6 forcing data.
-Aircraft emissions (SO2, BC, OC) in 3-D grids are obtained from the CMIP6 forcing data.
-Sulfur species originating from natural source and sea salt and dust are interactively calculated in the model.
-SO2 originating from continuous volcanic eruptions are calculated from the Global Emissions Inventory Activity database SO2 emission inventory (Andres and Kasgnoc 1998). 
-</t>
-  </si>
-  <si>
     <t>4.1.1.3 *</t>
   </si>
   <si>
@@ -864,21 +828,21 @@
     <t>cmip6.aerosol.emissions.method</t>
   </si>
   <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Prescribed (climatology)</t>
+  </si>
+  <si>
+    <t>Prescribed CMIP6</t>
+  </si>
+  <si>
+    <t>Prescribed above surface</t>
+  </si>
+  <si>
     <t>Interactive</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Prescribed (climatology)</t>
-  </si>
-  <si>
-    <t>Prescribed CMIP6</t>
-  </si>
-  <si>
-    <t>Prescribed above surface</t>
-  </si>
-  <si>
     <t>Interactive above surface</t>
   </si>
   <si>
@@ -894,12 +858,12 @@
     <t>cmip6.aerosol.emissions.sources</t>
   </si>
   <si>
+    <t>Vegetation</t>
+  </si>
+  <si>
     <t>Volcanos</t>
   </si>
   <si>
-    <t>Vegetation</t>
-  </si>
-  <si>
     <t>Bare ground</t>
   </si>
   <si>
@@ -957,9 +921,6 @@
     <t>cmip6.aerosol.emissions.prescribed_climatology_emitted_species</t>
   </si>
   <si>
-    <t>SO2 from continuously degassing volcanoes</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.1.1.7 </t>
   </si>
   <si>
@@ -984,9 +945,6 @@
     <t>cmip6.aerosol.emissions.interactive_emitted_species</t>
   </si>
   <si>
-    <t>Mineral dust, sea salt, dimethyl sulfide from the ocean</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.1.1.9 </t>
   </si>
   <si>
@@ -1038,9 +996,6 @@
     <t>cmip6.aerosol.concentrations.overview</t>
   </si>
   <si>
-    <t>Aerosol concentrations are calculated by aerosol physical and chemical processes (e.g., emission, transport, diffusion, chemical reactions, and dry and wet depositions) in the aerosol model.</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.1.1.3 </t>
   </si>
   <si>
@@ -1119,10 +1074,6 @@
     <t>cmip6.aerosol.optical_radiative_properties.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">Aerosol optical and radiative properties are calculated in the aerosol-radiation scheme in the atmospheric model using mass concentrations of aerosols, which are provided by the aerosol model. Descriptions shown in below are used in the atmospheric model.
-</t>
-  </si>
-  <si>
     <t>6.2.1</t>
   </si>
   <si>
@@ -1213,9 +1164,6 @@
     <t>cmip6.aerosol.optical_radiative_properties.mixtures.mixing_rule</t>
   </si>
   <si>
-    <t>Core-shell aerosol treatment for hydrophilic-BC/SO4 mixture, volume-weighted averaging for other aerosol species</t>
-  </si>
-  <si>
     <t>6.4.1</t>
   </si>
   <si>
@@ -1279,9 +1227,6 @@
     <t>cmip6.aerosol.optical_radiative_properties.radiative_scheme.overview</t>
   </si>
   <si>
-    <t>Radiation is calculated in the atmospheric model and there is no radiative scheme in the aerosol model. Descriptions shown in below are used in the atmospheric model.</t>
-  </si>
-  <si>
     <t>6.5.1.2 *</t>
   </si>
   <si>
@@ -1324,9 +1269,6 @@
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.overview</t>
   </si>
   <si>
-    <t>Aerosol-cloud interactions are calculated in the atmospheric model and there is no aerosol-cloud interaction scheme in the aerosol model. Descriptions shown in below are used in the atmospheric model.</t>
-  </si>
-  <si>
     <t>6.6.1.2 *</t>
   </si>
   <si>
@@ -1396,9 +1338,6 @@
     <t>cmip6.aerosol.model.name</t>
   </si>
   <si>
-    <t>MASINGAR</t>
-  </si>
-  <si>
     <t>7.1.1.2 *</t>
   </si>
   <si>
@@ -1408,7 +1347,8 @@
     <t>cmip6.aerosol.model.overview</t>
   </si>
   <si>
-    <t>MASINGAR (Model of Aerosol Species IN the Global AtmospheRe) treats the main five aerosol species (sulfates, organic aerosols, black carbon, sea salt, and mineral dust) and their precursors. It is developed in the Meteorological Research Institute (MRI) of Japan Meteorological Agency and used for the aerosol forecasting and climate researches. Log-normal size distributions are assumed for sulfates, BC, and OA, and size-bin method is used for the sea salt and mineral dust. Precursor gases of sulfates include dimethyl sulfide, sulfur dioxide, and sulfur trioxide, and oxidized to sulfates via gas- and aqueous-phase reactions. Oxidants of sulfur reactions include OH, NO2, O3, and provided by the chemistry model MRI-CCM2. BC and OA are separated into hydrophobic and hydrophilic particles and their conversion rate is calculated based on the abundance of sulfates. Aerosol concentrations are passed to the atmospheric model MRI-AGCM and aerosol-radiation and aerosol-cloud interactions are calculated in the atmospheric model. Deposition fluxes of the light absorbing aerosols (BC and mineral dust) are also passed to the atmospheric model and used for the calculation of snow darkening effect of snow and sea ice.</t>
+    <t>Coupling With: snow albedo on sea ice_x000D_
+Gas Phase Precursors: SO3</t>
   </si>
   <si>
     <t>7.1.1.3 *</t>
@@ -1474,15 +1414,15 @@
     <t>cmip6.aerosol.model.coupling</t>
   </si>
   <si>
+    <t>Clouds</t>
+  </si>
+  <si>
     <t>Radiation</t>
   </si>
   <si>
     <t>Land surface</t>
   </si>
   <si>
-    <t>Clouds</t>
-  </si>
-  <si>
     <t>Ocean</t>
   </si>
   <si>
@@ -1492,6 +1432,12 @@
     <t>Gas phase chemistry</t>
   </si>
   <si>
+    <t>Other: heterogeneouschemistry</t>
+  </si>
+  <si>
+    <t>Other: landsurface</t>
+  </si>
+  <si>
     <t>7.1.1.5 *</t>
   </si>
   <si>
@@ -1561,6 +1507,9 @@
     <t>cmip6.aerosol.model.bulk_scheme_species</t>
   </si>
   <si>
+    <t>Black carbon / soot</t>
+  </si>
+  <si>
     <t>Sulphate</t>
   </si>
   <si>
@@ -1574,9 +1523,6 @@
   </si>
   <si>
     <t>Organic</t>
-  </si>
-  <si>
-    <t>Black carbon / soot</t>
   </si>
   <si>
     <t>SOA (secondary organic aerosols)</t>
@@ -2575,7 +2521,7 @@
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="B35" s="11">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
@@ -2657,16 +2603,14 @@
       </c>
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
-      <c r="B51" s="11" t="s">
-        <v>102</v>
-      </c>
+      <c r="B51" s="11"/>
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="9" t="s">
         <v>103</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
@@ -2674,10 +2618,10 @@
         <v>43</v>
       </c>
       <c r="B54" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="10" t="s">
         <v>105</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
@@ -2686,29 +2630,27 @@
       </c>
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
-      <c r="B56" s="11" t="s">
-        <v>107</v>
-      </c>
+      <c r="B56" s="11"/>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:30" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
@@ -2716,24 +2658,24 @@
         <v>60</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="B64" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AA64" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AB64" s="6" t="s">
         <v>115</v>
       </c>
       <c r="AC64" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AD64" s="6" t="s">
         <v>68</v>
@@ -2741,10 +2683,10 @@
     </row>
     <row r="66" spans="1:35" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B66" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:35" ht="24" customHeight="1">
@@ -2752,23 +2694,21 @@
         <v>83</v>
       </c>
       <c r="B67" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C67" s="10" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="68" spans="1:35" ht="24" customHeight="1">
-      <c r="B68" s="11">
-        <v>900</v>
-      </c>
+      <c r="B68" s="11"/>
     </row>
     <row r="70" spans="1:35" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:35" ht="24" customHeight="1">
@@ -2776,23 +2716,21 @@
         <v>83</v>
       </c>
       <c r="B71" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C71" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C71" s="10" t="s">
-        <v>125</v>
-      </c>
     </row>
     <row r="72" spans="1:35" ht="24" customHeight="1">
-      <c r="B72" s="11">
-        <v>900</v>
-      </c>
+      <c r="B72" s="11"/>
     </row>
     <row r="74" spans="1:35" ht="24" customHeight="1">
       <c r="A74" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B74" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="75" spans="1:35" ht="24" customHeight="1">
@@ -2800,10 +2738,10 @@
         <v>83</v>
       </c>
       <c r="B75" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C75" s="10" t="s">
         <v>128</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="76" spans="1:35" ht="24" customHeight="1">
@@ -2813,10 +2751,10 @@
     </row>
     <row r="78" spans="1:35" ht="24" customHeight="1">
       <c r="A78" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B78" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="79" spans="1:35" ht="24" customHeight="1">
@@ -2824,39 +2762,37 @@
         <v>60</v>
       </c>
       <c r="B79" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C79" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C79" s="10" t="s">
+    </row>
+    <row r="80" spans="1:35" ht="24" customHeight="1">
+      <c r="B80" s="11"/>
+      <c r="AA80" s="6" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="80" spans="1:35" ht="24" customHeight="1">
-      <c r="B80" s="11" t="s">
+      <c r="AB80" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="AA80" s="6" t="s">
+      <c r="AC80" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="AB80" s="6" t="s">
+      <c r="AD80" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="AC80" s="6" t="s">
+      <c r="AE80" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="AD80" s="6" t="s">
+      <c r="AF80" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="AE80" s="6" t="s">
+      <c r="AG80" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="AF80" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="AG80" s="6" t="s">
+      <c r="AH80" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="AH80" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="AI80" s="6" t="s">
         <v>68</v>
@@ -2864,10 +2800,10 @@
     </row>
     <row r="83" spans="1:3" ht="24" customHeight="1">
       <c r="A83" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B83" s="12" t="s">
         <v>142</v>
-      </c>
-      <c r="B83" s="12" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
@@ -2875,10 +2811,10 @@
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
       <c r="A86" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B86" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
@@ -2886,10 +2822,10 @@
         <v>43</v>
       </c>
       <c r="B87" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C87" s="10" t="s">
         <v>146</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
@@ -2898,16 +2834,14 @@
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
-      <c r="B89" s="11" t="s">
-        <v>148</v>
-      </c>
+      <c r="B89" s="11"/>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
@@ -2915,10 +2849,10 @@
         <v>43</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
@@ -2927,16 +2861,14 @@
       </c>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
-      <c r="B94" s="11" t="s">
-        <v>153</v>
-      </c>
+      <c r="B94" s="11"/>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
       <c r="A96" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
@@ -2944,33 +2876,31 @@
         <v>83</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
-      <c r="B98" s="11">
-        <v>3600</v>
-      </c>
+      <c r="B98" s="11"/>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="A101" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="B102" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="A104" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>42</v>
@@ -2981,23 +2911,21 @@
         <v>43</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
-      <c r="B106" s="11" t="s">
-        <v>164</v>
-      </c>
+      <c r="B106" s="11"/>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="A108" s="9" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
@@ -3005,23 +2933,21 @@
         <v>43</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
-      <c r="B110" s="11" t="s">
-        <v>169</v>
-      </c>
+      <c r="B110" s="11"/>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
       <c r="A112" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
@@ -3029,23 +2955,21 @@
         <v>83</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
-      <c r="B114" s="11">
-        <v>18432</v>
-      </c>
+      <c r="B114" s="11"/>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
@@ -3053,23 +2977,21 @@
         <v>83</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
-      <c r="B118" s="11">
-        <v>80</v>
-      </c>
+      <c r="B118" s="11"/>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
       <c r="A120" s="9" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
@@ -3077,36 +2999,34 @@
         <v>88</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
-      <c r="B122" s="11" t="b">
-        <v>0</v>
-      </c>
+      <c r="B122" s="11"/>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
       <c r="A125" s="12" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
       <c r="B126" s="13" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="24" customHeight="1">
       <c r="A128" s="9" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
@@ -3114,10 +3034,10 @@
         <v>43</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
@@ -3126,16 +3046,14 @@
       </c>
     </row>
     <row r="131" spans="1:3" ht="178" customHeight="1">
-      <c r="B131" s="11" t="s">
-        <v>189</v>
-      </c>
+      <c r="B131" s="11"/>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
@@ -3143,10 +3061,10 @@
         <v>43</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
@@ -3159,10 +3077,10 @@
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
       <c r="A138" s="9" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
@@ -3170,10 +3088,10 @@
         <v>43</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
@@ -3186,10 +3104,10 @@
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
       <c r="A143" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
@@ -3197,10 +3115,10 @@
         <v>43</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="145" spans="2:2" ht="24" customHeight="1">
@@ -3276,20 +3194,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -3300,20 +3218,18 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11" t="s">
-        <v>164</v>
-      </c>
+      <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>53</v>
@@ -3324,10 +3240,10 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3336,16 +3252,14 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11" t="s">
-        <v>211</v>
-      </c>
+      <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3353,33 +3267,31 @@
         <v>88</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="11" t="b">
-        <v>0</v>
-      </c>
+      <c r="B15" s="11"/>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>42</v>
@@ -3390,23 +3302,21 @@
         <v>43</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
-      <c r="B23" s="11" t="s">
-        <v>164</v>
-      </c>
+      <c r="B23" s="11"/>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
@@ -3414,23 +3324,21 @@
         <v>43</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
-      <c r="B27" s="11" t="s">
-        <v>169</v>
-      </c>
+      <c r="B27" s="11"/>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
@@ -3438,23 +3346,21 @@
         <v>83</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
-      <c r="B31" s="11">
-        <v>18432</v>
-      </c>
+      <c r="B31" s="11"/>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
@@ -3462,23 +3368,21 @@
         <v>83</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="B35" s="11">
-        <v>80</v>
-      </c>
+      <c r="B35" s="11"/>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -3486,10 +3390,10 @@
         <v>88</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
@@ -3516,7 +3420,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD27"/>
+  <dimension ref="A1:XFD28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3530,20 +3434,20 @@
   <sheetData>
     <row r="1" spans="1:31" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -3554,10 +3458,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="24" customHeight="1">
@@ -3565,7 +3469,7 @@
     </row>
     <row r="8" spans="1:31" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>53</v>
@@ -3576,10 +3480,10 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="24" customHeight="1">
@@ -3588,16 +3492,14 @@
       </c>
     </row>
     <row r="11" spans="1:31" ht="178" customHeight="1">
-      <c r="B11" s="11" t="s">
-        <v>240</v>
-      </c>
+      <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:31" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="24" customHeight="1">
@@ -3605,38 +3507,36 @@
         <v>60</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="24" customHeight="1">
-      <c r="B15" s="11" t="s">
-        <v>245</v>
-      </c>
+      <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="AE15" s="6" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
@@ -3644,10 +3544,10 @@
         <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
@@ -3657,19 +3557,19 @@
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
       <c r="B20" s="11" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="AA20" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB20" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC20" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="AB20" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="AC20" s="6" t="s">
-        <v>254</v>
-      </c>
       <c r="AD20" s="6" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="AE20" s="6" t="s">
         <v>68</v>
@@ -3677,19 +3577,19 @@
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="B21" s="11" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="AA21" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC21" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="AB21" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="AC21" s="6" t="s">
-        <v>254</v>
-      </c>
       <c r="AD21" s="6" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="AE21" s="6" t="s">
         <v>68</v>
@@ -3697,19 +3597,19 @@
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="B22" s="11" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AA22" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB22" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC22" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="AB22" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="AC22" s="6" t="s">
-        <v>254</v>
-      </c>
       <c r="AD22" s="6" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="AE22" s="6" t="s">
         <v>68</v>
@@ -3717,10 +3617,10 @@
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
@@ -3728,10 +3628,10 @@
         <v>60</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="24" customHeight="1">
@@ -3740,22 +3640,41 @@
       </c>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
-      <c r="B27" s="11"/>
+      <c r="B27" s="11" t="s">
+        <v>254</v>
+      </c>
       <c r="AA27" s="6" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="AD27" s="6" t="s">
         <v>68</v>
       </c>
     </row>
+    <row r="28" spans="1:31" ht="24" customHeight="1">
+      <c r="B28" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA28" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB28" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AC28" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD28" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="5">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>AA15:AE15</formula1>
     </dataValidation>
@@ -3770,6 +3689,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
       <formula1>AA27:AD27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
+      <formula1>AA28:AD28</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3778,7 +3700,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD54"/>
+  <dimension ref="A1:XFD49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3792,20 +3714,20 @@
   <sheetData>
     <row r="1" spans="1:33" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -3816,10 +3738,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="24" customHeight="1">
@@ -3827,7 +3749,7 @@
     </row>
     <row r="8" spans="1:33" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>53</v>
@@ -3838,10 +3760,10 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="24" customHeight="1">
@@ -3850,16 +3772,14 @@
       </c>
     </row>
     <row r="11" spans="1:33" ht="178" customHeight="1">
-      <c r="B11" s="11" t="s">
-        <v>272</v>
-      </c>
+      <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:33" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:33" ht="24" customHeight="1">
@@ -3867,10 +3787,10 @@
         <v>60</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:33" ht="24" customHeight="1">
@@ -3879,26 +3799,24 @@
       </c>
     </row>
     <row r="16" spans="1:33" ht="24" customHeight="1">
-      <c r="B16" s="11" t="s">
-        <v>276</v>
-      </c>
+      <c r="B16" s="11"/>
       <c r="AA16" s="6" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="AE16" s="6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AF16" s="6" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AG16" s="6" t="s">
         <v>68</v>
@@ -3906,10 +3824,10 @@
     </row>
     <row r="18" spans="1:35" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1">
@@ -3917,10 +3835,10 @@
         <v>60</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="24" customHeight="1">
@@ -3929,242 +3847,105 @@
       </c>
     </row>
     <row r="21" spans="1:35" ht="24" customHeight="1">
-      <c r="B21" s="11" t="s">
-        <v>286</v>
-      </c>
+      <c r="B21" s="11"/>
       <c r="AA21" s="6" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="AF21" s="6" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="AG21" s="6" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="AH21" s="6" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="AI21" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="24" customHeight="1">
-      <c r="B22" s="11" t="s">
+    <row r="23" spans="1:35" ht="24" customHeight="1">
+      <c r="A23" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" ht="24" customHeight="1">
+      <c r="A24" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="AA22" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="AB22" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="AC22" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="AD22" s="6" t="s">
+      <c r="C24" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="AE22" s="6" t="s">
+    </row>
+    <row r="25" spans="1:35" ht="24" customHeight="1">
+      <c r="B25" s="11"/>
+      <c r="AA25" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="AF22" s="6" t="s">
+      <c r="AB25" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="AG22" s="6" t="s">
+      <c r="AC25" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="AH22" s="6" t="s">
+      <c r="AD25" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="AI22" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35" ht="24" customHeight="1">
-      <c r="B23" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="AA23" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="AB23" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="AC23" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="AD23" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="AE23" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="AF23" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="AG23" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="AH23" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="AI23" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35" ht="24" customHeight="1">
-      <c r="B24" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA24" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="AB24" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="AC24" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="AD24" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="AE24" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="AF24" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="AG24" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="AH24" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="AI24" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:35" ht="24" customHeight="1">
-      <c r="B25" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="AA25" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="AB25" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="AC25" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="AD25" s="6" t="s">
-        <v>289</v>
-      </c>
       <c r="AE25" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="AF25" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="AG25" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="AH25" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="AI25" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:35" ht="24" customHeight="1">
-      <c r="B26" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="AA26" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="AB26" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="AC26" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="AD26" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="AE26" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="AF26" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="AG26" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="AH26" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="AI26" s="6" t="s">
-        <v>68</v>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" ht="24" customHeight="1">
+      <c r="A27" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="24" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>295</v>
+      <c r="A28" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="24" customHeight="1">
-      <c r="A29" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>297</v>
+      <c r="B29" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="24" customHeight="1">
-      <c r="B30" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="AA30" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="AB30" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="AC30" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="AD30" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="AE30" s="6" t="s">
-        <v>302</v>
-      </c>
+      <c r="B30" s="11"/>
     </row>
     <row r="32" spans="1:35" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
@@ -4172,10 +3953,10 @@
         <v>43</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
@@ -4184,16 +3965,14 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="B35" s="11" t="s">
-        <v>307</v>
-      </c>
+      <c r="B35" s="11"/>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -4201,10 +3980,10 @@
         <v>43</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
@@ -4213,16 +3992,14 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
-      <c r="B40" s="11" t="s">
-        <v>277</v>
-      </c>
+      <c r="B40" s="11"/>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -4230,10 +4007,10 @@
         <v>43</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
@@ -4242,16 +4019,14 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
-      <c r="B45" s="11" t="s">
-        <v>316</v>
-      </c>
+      <c r="B45" s="11"/>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
@@ -4259,67 +4034,25 @@
         <v>43</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="B49" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="24" customHeight="1">
-      <c r="B50" s="11"/>
-    </row>
-    <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="A52" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="24" customHeight="1">
-      <c r="A53" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="24" customHeight="1">
-      <c r="B54" s="11"/>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="24" customHeight="1">
+      <c r="B49" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="8">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
       <formula1>AA16:AG16</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
       <formula1>AA21:AI21</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
-      <formula1>AA22:AI22</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
-      <formula1>AA23:AI23</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
-      <formula1>AA24:AI24</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
-      <formula1>AA25:AI25</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
-      <formula1>AA26:AI26</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
-      <formula1>AA30:AE30</formula1>
+      <formula1>AA25:AE25</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4342,20 +4075,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -4366,10 +4099,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -4377,7 +4110,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>53</v>
@@ -4388,10 +4121,10 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -4400,16 +4133,14 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11" t="s">
-        <v>334</v>
-      </c>
+      <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -4417,10 +4148,10 @@
         <v>43</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -4430,15 +4161,15 @@
     </row>
     <row r="16" spans="1:3" ht="24" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -4446,10 +4177,10 @@
         <v>43</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -4458,16 +4189,14 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
-      <c r="B21" s="11" t="s">
-        <v>277</v>
-      </c>
+      <c r="B21" s="11"/>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -4475,10 +4204,10 @@
         <v>43</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
@@ -4487,16 +4216,14 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
-      <c r="B26" s="11" t="s">
-        <v>277</v>
-      </c>
+      <c r="B26" s="11"/>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
@@ -4504,10 +4231,10 @@
         <v>43</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
@@ -4539,20 +4266,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -4563,10 +4290,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -4574,7 +4301,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>53</v>
@@ -4585,10 +4312,10 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -4597,101 +4324,93 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11" t="s">
-        <v>361</v>
-      </c>
+      <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
-      <c r="B19" s="11">
-        <v>-0.79</v>
-      </c>
+      <c r="B19" s="11"/>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
-      <c r="B23" s="11">
-        <v>-0.0055</v>
-      </c>
+      <c r="B23" s="11"/>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
-      <c r="B27" s="11">
-        <v>-0.006</v>
-      </c>
+      <c r="B27" s="11"/>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
@@ -4699,10 +4418,10 @@
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
@@ -4710,23 +4429,21 @@
         <v>88</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="B35" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="B35" s="11"/>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -4734,23 +4451,21 @@
         <v>88</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="B39" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="B39" s="11"/>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -4758,36 +4473,34 @@
         <v>43</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="B43" s="11" t="s">
-        <v>392</v>
-      </c>
+      <c r="B43" s="11"/>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="A46" s="12" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="B47" s="13" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
@@ -4795,23 +4508,21 @@
         <v>88</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
-      <c r="B51" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="B51" s="11"/>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
@@ -4819,23 +4530,21 @@
         <v>88</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
-      <c r="B55" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="B55" s="11"/>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
@@ -4843,33 +4552,31 @@
         <v>88</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
-      <c r="B59" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="B59" s="11"/>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="B63" s="13" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>53</v>
@@ -4880,10 +4587,10 @@
         <v>43</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
@@ -4892,16 +4599,14 @@
       </c>
     </row>
     <row r="68" spans="1:3" ht="178" customHeight="1">
-      <c r="B68" s="11" t="s">
-        <v>414</v>
-      </c>
+      <c r="B68" s="11"/>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
@@ -4909,23 +4614,21 @@
         <v>83</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
-      <c r="B72" s="11">
-        <v>22</v>
-      </c>
+      <c r="B72" s="11"/>
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
@@ -4933,33 +4636,31 @@
         <v>83</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
-      <c r="B76" s="11">
-        <v>11</v>
-      </c>
+      <c r="B76" s="11"/>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="A79" s="12" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
       <c r="B80" s="13" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="B82" s="9" t="s">
         <v>53</v>
@@ -4970,10 +4671,10 @@
         <v>43</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
@@ -4982,16 +4683,14 @@
       </c>
     </row>
     <row r="85" spans="1:3" ht="178" customHeight="1">
-      <c r="B85" s="11" t="s">
-        <v>429</v>
-      </c>
+      <c r="B85" s="11"/>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
       <c r="A87" s="9" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
@@ -4999,23 +4698,21 @@
         <v>88</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
-      <c r="B89" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="B89" s="11"/>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
@@ -5023,23 +4720,21 @@
         <v>83</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
-      <c r="B93" s="11">
-        <v>0</v>
-      </c>
+      <c r="B93" s="11"/>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
@@ -5047,23 +4742,21 @@
         <v>88</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
-      <c r="B97" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="B97" s="11"/>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
@@ -5071,23 +4764,21 @@
         <v>88</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="B101" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="B101" s="11"/>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
       <c r="A103" s="9" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
@@ -5095,10 +4786,10 @@
         <v>83</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
@@ -5161,7 +4852,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD53"/>
+  <dimension ref="A1:XFD55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5175,7 +4866,7 @@
   <sheetData>
     <row r="1" spans="1:39" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>5</v>
@@ -5183,12 +4874,12 @@
     </row>
     <row r="2" spans="1:39" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -5199,20 +4890,18 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="24" customHeight="1">
-      <c r="B6" s="11" t="s">
-        <v>453</v>
-      </c>
+      <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:39" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>53</v>
@@ -5223,10 +4912,10 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="24" customHeight="1">
@@ -5236,15 +4925,15 @@
     </row>
     <row r="11" spans="1:39" ht="178" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:39" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:39" ht="24" customHeight="1">
@@ -5252,10 +4941,10 @@
         <v>60</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:39" ht="24" customHeight="1">
@@ -5265,536 +4954,521 @@
     </row>
     <row r="16" spans="1:39" ht="24" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="AA16" s="6" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="AE16" s="6" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="AF16" s="6" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="AH16" s="6" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="AI16" s="6" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="AJ16" s="6" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="AK16" s="6" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="AL16" s="6" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="AM16" s="6" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:39" ht="24" customHeight="1">
       <c r="B17" s="11" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="AA17" s="6" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="AB17" s="6" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="AC17" s="6" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="AD17" s="6" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="AE17" s="6" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="AF17" s="6" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="AG17" s="6" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="AH17" s="6" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="AI17" s="6" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="AJ17" s="6" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="AK17" s="6" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="AL17" s="6" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="AM17" s="6" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
     </row>
     <row r="18" spans="1:39" ht="24" customHeight="1">
       <c r="B18" s="11" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="AA18" s="6" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="AB18" s="6" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="AC18" s="6" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="AD18" s="6" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="AE18" s="6" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="AF18" s="6" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="AG18" s="6" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="AH18" s="6" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="AI18" s="6" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="AJ18" s="6" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="AK18" s="6" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="AL18" s="6" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="AM18" s="6" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
     </row>
     <row r="19" spans="1:39" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="AF19" s="6" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="AH19" s="6" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="AI19" s="6" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="AJ19" s="6" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="AK19" s="6" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="AL19" s="6" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="AM19" s="6" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
     </row>
     <row r="20" spans="1:39" ht="24" customHeight="1">
       <c r="B20" s="11" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="AE20" s="6" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="AF20" s="6" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="AG20" s="6" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="AH20" s="6" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="AI20" s="6" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="AJ20" s="6" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="AK20" s="6" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="AL20" s="6" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="AM20" s="6" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
     </row>
     <row r="21" spans="1:39" ht="24" customHeight="1">
       <c r="B21" s="11" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="AA21" s="6" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="AF21" s="6" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="AG21" s="6" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="AH21" s="6" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="AI21" s="6" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="AJ21" s="6" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="AK21" s="6" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="AL21" s="6" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="AM21" s="6" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
     </row>
     <row r="22" spans="1:39" ht="24" customHeight="1">
       <c r="B22" s="11" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="AA22" s="6" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="AB22" s="6" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="AC22" s="6" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="AD22" s="6" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="AE22" s="6" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="AF22" s="6" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="AG22" s="6" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="AH22" s="6" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="AI22" s="6" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="AJ22" s="6" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="AK22" s="6" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="AL22" s="6" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="AM22" s="6" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
     </row>
     <row r="23" spans="1:39" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="AE23" s="6" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="AF23" s="6" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="AG23" s="6" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="AH23" s="6" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="AI23" s="6" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="AJ23" s="6" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="AK23" s="6" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="AL23" s="6" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="AM23" s="6" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
     </row>
     <row r="24" spans="1:39" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="AD24" s="6" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="AE24" s="6" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="AF24" s="6" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="AG24" s="6" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="AH24" s="6" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="AI24" s="6" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="AJ24" s="6" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="AK24" s="6" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="AL24" s="6" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="AM24" s="6" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
     </row>
     <row r="25" spans="1:39" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="AA25" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="AE25" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="AF25" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="AG25" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="AH25" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="AI25" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="AJ25" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AK25" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="AL25" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="AM25" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" ht="24" customHeight="1">
+      <c r="A27" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" ht="24" customHeight="1">
+      <c r="A28" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" ht="24" customHeight="1">
+      <c r="B29" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" ht="24" customHeight="1">
+      <c r="B30" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="AA30" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="AB30" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="AC30" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="AD30" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="AE30" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="AA25" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="AB25" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="AC25" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="AD25" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="AE25" s="6" t="s">
+      <c r="AF30" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="AF25" s="6" t="s">
+      <c r="AG30" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="AG25" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="AH25" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="AI25" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="AJ25" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="AK25" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="AL25" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="AM25" s="6" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="26" spans="1:39" ht="24" customHeight="1">
-      <c r="B26" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="AA26" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="AB26" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="AC26" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="AD26" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="AE26" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="AF26" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="AG26" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="AH26" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="AI26" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="AJ26" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="AK26" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="AL26" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="AM26" s="6" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="28" spans="1:39" ht="24" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="29" spans="1:39" ht="24" customHeight="1">
-      <c r="A29" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>477</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="30" spans="1:39" ht="24" customHeight="1">
-      <c r="B30" s="10" t="s">
-        <v>28</v>
+      <c r="AH30" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:39" ht="24" customHeight="1">
       <c r="B31" s="11" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="AA31" s="6" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="AE31" s="6" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="AF31" s="6" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="AG31" s="6" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="AH31" s="6" t="s">
         <v>68</v>
@@ -5802,28 +5476,28 @@
     </row>
     <row r="32" spans="1:39" ht="24" customHeight="1">
       <c r="B32" s="11" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="AA32" s="6" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="AC32" s="6" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="AD32" s="6" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="AE32" s="6" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="AF32" s="6" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="AG32" s="6" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="AH32" s="6" t="s">
         <v>68</v>
@@ -5831,340 +5505,472 @@
     </row>
     <row r="33" spans="1:35" ht="24" customHeight="1">
       <c r="B33" s="11" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="AA33" s="6" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="AB33" s="6" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="AC33" s="6" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="AD33" s="6" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="AE33" s="6" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="AF33" s="6" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="AG33" s="6" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="AH33" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:35" ht="24" customHeight="1">
-      <c r="B34" s="11" t="s">
+    <row r="35" spans="1:35" ht="24" customHeight="1">
+      <c r="A35" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" ht="24" customHeight="1">
+      <c r="A36" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" ht="24" customHeight="1">
+      <c r="B37" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35" ht="24" customHeight="1">
+      <c r="B38" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="AA38" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="AB38" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="AC38" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="AD38" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="AE38" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="AF38" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="AG38" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="AA34" s="6" t="s">
+      <c r="AH38" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="AI38" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" ht="24" customHeight="1">
+      <c r="B39" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="AA39" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="AB39" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="AC39" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="AD39" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="AE39" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="AB34" s="6" t="s">
+      <c r="AF39" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="AC34" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="AD34" s="6" t="s">
+      <c r="AG39" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="AE34" s="6" t="s">
+      <c r="AH39" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="AF34" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="AG34" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="AH34" s="6" t="s">
+      <c r="AI39" s="6" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:35" ht="24" customHeight="1">
-      <c r="B35" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="AA35" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="AB35" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="AC35" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="AD35" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="AE35" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="AF35" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="AG35" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="AH35" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:35" ht="24" customHeight="1">
-      <c r="A37" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="38" spans="1:35" ht="24" customHeight="1">
-      <c r="A38" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="39" spans="1:35" ht="24" customHeight="1">
-      <c r="B39" s="10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:35" ht="24" customHeight="1">
       <c r="B40" s="11" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="AA40" s="6" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="AC40" s="6" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="AD40" s="6" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="AE40" s="6" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="AF40" s="6" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="AG40" s="6" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="AH40" s="6" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AI40" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:35" ht="24" customHeight="1">
-      <c r="B41" s="11" t="s">
+    <row r="42" spans="1:35" ht="24" customHeight="1">
+      <c r="A42" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35" ht="24" customHeight="1">
+      <c r="A43" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35" ht="24" customHeight="1">
+      <c r="B44" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35" ht="24" customHeight="1">
+      <c r="B45" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="AA45" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="AB45" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="AC45" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="AD45" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35" ht="24" customHeight="1">
+      <c r="B46" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="AA46" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="AB46" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="AC46" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="AD46" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35" ht="24" customHeight="1">
+      <c r="A48" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="AA41" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="AB41" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="AC41" s="6" t="s">
+      <c r="B48" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="AD41" s="6" t="s">
+    </row>
+    <row r="49" spans="1:40" ht="24" customHeight="1">
+      <c r="A49" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="AE41" s="6" t="s">
+      <c r="C49" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="AF41" s="6" t="s">
+    </row>
+    <row r="50" spans="1:40" ht="24" customHeight="1">
+      <c r="B50" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:40" ht="24" customHeight="1">
+      <c r="B51" s="11" t="s">
         <v>494</v>
       </c>
-      <c r="AG41" s="6" t="s">
+      <c r="AA51" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="AH41" s="6" t="s">
+      <c r="AB51" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="AI41" s="6" t="s">
+      <c r="AC51" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="AD51" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE51" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="AF51" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="AG51" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="AH51" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="AI51" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="AJ51" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="AK51" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="AL51" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="AM51" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="AN51" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:35" ht="24" customHeight="1">
-      <c r="B42" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="AA42" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="AB42" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="AC42" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="AD42" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="AE42" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="AF42" s="6" t="s">
+    <row r="52" spans="1:40" ht="24" customHeight="1">
+      <c r="B52" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="AA52" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="AB52" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="AC52" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="AD52" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE52" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="AF52" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="AG52" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="AG42" s="6" t="s">
+      <c r="AH52" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="AI52" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="AJ52" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="AK52" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="AL52" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="AM52" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="AN52" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:40" ht="24" customHeight="1">
+      <c r="B53" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="AA53" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="AH42" s="6" t="s">
+      <c r="AB53" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="AI42" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:35" ht="24" customHeight="1">
-      <c r="A44" s="9" t="s">
+      <c r="AC53" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="AD53" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE53" s="6" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="45" spans="1:35" ht="24" customHeight="1">
-      <c r="A45" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" s="10" t="s">
+      <c r="AF53" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="AG53" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="AH53" s="6" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="46" spans="1:35" ht="24" customHeight="1">
-      <c r="B46" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:35" ht="24" customHeight="1">
-      <c r="B47" s="11" t="s">
+      <c r="AI53" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="AA47" s="6" t="s">
+      <c r="AJ53" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="AB47" s="6" t="s">
+      <c r="AK53" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="AC47" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="AD47" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:35" ht="24" customHeight="1">
-      <c r="B48" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="AA48" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="AB48" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="AC48" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="AD48" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:40" ht="24" customHeight="1">
-      <c r="A50" s="9" t="s">
+      <c r="AL53" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="AM53" s="6" t="s">
         <v>505</v>
-      </c>
-    </row>
-    <row r="51" spans="1:40" ht="24" customHeight="1">
-      <c r="A51" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="52" spans="1:40" ht="24" customHeight="1">
-      <c r="B52" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="53" spans="1:40" ht="24" customHeight="1">
-      <c r="B53" s="11"/>
-      <c r="AA53" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="AB53" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="AC53" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="AD53" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="AE53" s="6" t="s">
-        <v>511</v>
-      </c>
-      <c r="AF53" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="AG53" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="AH53" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="AI53" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="AJ53" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="AK53" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="AL53" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="AM53" s="6" t="s">
-        <v>519</v>
       </c>
       <c r="AN53" s="6" t="s">
         <v>68</v>
       </c>
     </row>
+    <row r="54" spans="1:40" ht="24" customHeight="1">
+      <c r="B54" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="AA54" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="AB54" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="AC54" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="AD54" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE54" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="AF54" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="AG54" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="AH54" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="AI54" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="AJ54" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="AK54" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="AL54" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="AM54" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="AN54" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:40" ht="24" customHeight="1">
+      <c r="B55" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="AA55" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="AB55" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="AC55" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="AD55" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE55" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="AF55" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="AG55" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="AH55" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="AI55" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="AJ55" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="AK55" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="AL55" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="AM55" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="AN55" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="22">
+  <dataValidations count="24">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
       <formula1>AA16:AM16</formula1>
     </dataValidation>
@@ -6195,8 +6001,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
       <formula1>AA25:AM25</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
-      <formula1>AA26:AM26</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
+      <formula1>AA30:AH30</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
       <formula1>AA31:AH31</formula1>
@@ -6207,29 +6013,35 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
       <formula1>AA33:AH33</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34">
-      <formula1>AA34:AH34</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
-      <formula1>AA35:AH35</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
+      <formula1>AA38:AI38</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
+      <formula1>AA39:AI39</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40">
       <formula1>AA40:AI40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41">
-      <formula1>AA41:AI41</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
-      <formula1>AA42:AI42</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B47">
-      <formula1>AA47:AD47</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48">
-      <formula1>AA48:AD48</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45">
+      <formula1>AA45:AD45</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46">
+      <formula1>AA46:AD46</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51">
+      <formula1>AA51:AN51</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52">
+      <formula1>AA52:AN52</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
       <formula1>AA53:AN53</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54">
+      <formula1>AA54:AN54</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55">
+      <formula1>AA55:AN55</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
